--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Web Developer Class/Web Developer I + II B7/Project/04.Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/level-up-docs/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA5395E-0F2C-1B4E-9E0E-728B9F8301B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D47BCC1-1527-EA44-84A7-6831CB4F58C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5180" yWindow="-21100" windowWidth="29060" windowHeight="19480" activeTab="5" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -37,14 +37,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1702,6 +1694,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1803,15 +1803,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1824,14 +1815,15 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -10350,9 +10342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAFE950-5B3C-524E-9704-0609BF069824}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10445,22 +10435,22 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="92" x14ac:dyDescent="0.2">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="121"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="129"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
@@ -10479,22 +10469,22 @@
       <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="118"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="126"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
@@ -10577,10 +10567,10 @@
     </row>
     <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="114"/>
+      <c r="C42" s="122"/>
       <c r="D42" s="18">
         <v>1</v>
       </c>
@@ -10641,10 +10631,10 @@
     </row>
     <row r="48" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="K48" s="115" t="s">
+      <c r="K48" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="115"/>
+      <c r="L48" s="123"/>
       <c r="M48" s="17">
         <v>44740</v>
       </c>
@@ -10652,10 +10642,10 @@
     </row>
     <row r="49" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="K49" s="115" t="s">
+      <c r="K49" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="115"/>
+      <c r="L49" s="123"/>
       <c r="M49" s="17"/>
       <c r="N49" s="13"/>
     </row>
@@ -10709,56 +10699,56 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="126" t="str">
+      <c r="B2" s="131"/>
+      <c r="C2" s="134" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="130">
+      <c r="P2" s="138">
         <v>44740</v>
       </c>
-      <c r="Q2" s="131"/>
+      <c r="Q2" s="139"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="132">
+      <c r="P3" s="140">
         <f ca="1">NOW()</f>
-        <v>44759.799771412036</v>
-      </c>
-      <c r="Q3" s="133"/>
+        <v>44761.723653240741</v>
+      </c>
+      <c r="Q3" s="141"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -11727,9 +11717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
   <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A45" zoomScaleNormal="140" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11747,47 +11735,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="126" t="str">
+      <c r="B2" s="131"/>
+      <c r="C2" s="134" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="131"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="139"/>
     </row>
     <row r="3" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="132"/>
-      <c r="O3" s="133"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="141"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -13858,7 +13846,7 @@
       </c>
       <c r="K62" s="107">
         <f>AVERAGE(K63:K115)</f>
-        <v>0</v>
+        <v>3.2075471698113207E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -13944,14 +13932,18 @@
         <f t="shared" ref="G65:G77" si="27">F65-E65</f>
         <v>13</v>
       </c>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
+      <c r="H65" s="59">
+        <v>44760</v>
+      </c>
+      <c r="I65" s="59">
+        <v>44761</v>
+      </c>
       <c r="J65" s="60">
         <f t="shared" ref="J65:J77" si="28">I65-H65</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="61">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -13975,14 +13967,18 @@
         <f t="shared" si="27"/>
         <v>13</v>
       </c>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
+      <c r="H66" s="59">
+        <v>44760</v>
+      </c>
+      <c r="I66" s="59">
+        <v>44761</v>
+      </c>
       <c r="J66" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="61">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -15651,51 +15647,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="126" t="str">
+      <c r="B2" s="131"/>
+      <c r="C2" s="134" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="131"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="139"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="133"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="141"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -15705,89 +15701,89 @@
       <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="142"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="150"/>
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="145"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="153"/>
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="145"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="153"/>
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="145"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="153"/>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="148"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="156"/>
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -15795,44 +15791,44 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="136"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="144"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="137"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="139"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
@@ -16237,51 +16233,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="126" t="str">
+      <c r="B2" s="131"/>
+      <c r="C2" s="134" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="131"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="139"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="133"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="141"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -16597,7 +16593,7 @@
   </sheetPr>
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -16608,56 +16604,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="126" t="str">
+      <c r="B1" s="158"/>
+      <c r="C1" s="134" t="str">
         <f>[1]Cover!A31</f>
         <v>Food_Lab</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
       <c r="O1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="130">
+      <c r="P1" s="138">
         <v>44555</v>
       </c>
-      <c r="Q1" s="131"/>
+      <c r="Q1" s="139"/>
     </row>
     <row r="2" spans="1:19" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
       <c r="O2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="132">
+      <c r="P2" s="140">
         <f ca="1">NOW()</f>
-        <v>44759.799771412036</v>
-      </c>
-      <c r="Q2" s="133"/>
+        <v>44761.723653240741</v>
+      </c>
+      <c r="Q2" s="141"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
@@ -16669,7 +16665,7 @@
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="114" t="s">
         <v>167</v>
       </c>
       <c r="C5" s="29"/>
@@ -16677,166 +16673,166 @@
       <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="157"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="69"/>
       <c r="C6" s="69">
         <v>1</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
       <c r="M6" s="69"/>
       <c r="N6" s="69"/>
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
-      <c r="Q6" s="159"/>
+      <c r="Q6" s="117"/>
       <c r="R6" s="69"/>
       <c r="S6" s="69"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="157"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="69"/>
       <c r="C7" s="69">
         <v>2</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
       <c r="M7" s="69"/>
       <c r="N7" s="69"/>
       <c r="O7" s="69"/>
       <c r="P7" s="69"/>
-      <c r="Q7" s="159"/>
+      <c r="Q7" s="117"/>
       <c r="R7" s="69"/>
       <c r="S7" s="69"/>
     </row>
     <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="157"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="69"/>
       <c r="C8" s="69">
         <v>3</v>
       </c>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69"/>
-      <c r="Q8" s="159"/>
+      <c r="Q8" s="117"/>
       <c r="R8" s="69"/>
       <c r="S8" s="69"/>
     </row>
     <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="157"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="69"/>
       <c r="C9" s="69">
         <v>4</v>
       </c>
-      <c r="D9" s="158" t="s">
+      <c r="D9" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
       <c r="M9" s="69"/>
       <c r="N9" s="69"/>
       <c r="O9" s="69"/>
       <c r="P9" s="69"/>
-      <c r="Q9" s="159"/>
+      <c r="Q9" s="117"/>
       <c r="R9" s="69"/>
       <c r="S9" s="69"/>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69">
         <v>5</v>
       </c>
-      <c r="D10" s="158" t="s">
+      <c r="D10" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
       <c r="M10" s="69"/>
       <c r="N10" s="69"/>
       <c r="O10" s="69"/>
       <c r="P10" s="69"/>
-      <c r="Q10" s="159"/>
+      <c r="Q10" s="117"/>
       <c r="R10" s="69"/>
       <c r="S10" s="69"/>
     </row>
     <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="157"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="69"/>
       <c r="C11" s="69">
         <v>6</v>
       </c>
-      <c r="D11" s="158" t="s">
+      <c r="D11" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
       <c r="K11" s="69"/>
       <c r="L11" s="69"/>
       <c r="M11" s="69"/>
       <c r="N11" s="69"/>
       <c r="O11" s="69"/>
       <c r="P11" s="69"/>
-      <c r="Q11" s="159"/>
+      <c r="Q11" s="117"/>
       <c r="R11" s="69"/>
       <c r="S11" s="69"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="157"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="69"/>
       <c r="C12" s="69"/>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
       <c r="I12" s="69"/>
       <c r="J12" s="69"/>
       <c r="K12" s="69"/>
@@ -16845,21 +16841,21 @@
       <c r="N12" s="69"/>
       <c r="O12" s="69"/>
       <c r="P12" s="69"/>
-      <c r="Q12" s="159"/>
+      <c r="Q12" s="117"/>
       <c r="R12" s="69"/>
       <c r="S12" s="69"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="69"/>
       <c r="C13" s="69"/>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
       <c r="I13" s="69"/>
       <c r="J13" s="69"/>
       <c r="K13" s="69"/>
@@ -16868,21 +16864,21 @@
       <c r="N13" s="69"/>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
-      <c r="Q13" s="159"/>
+      <c r="Q13" s="117"/>
       <c r="R13" s="69"/>
       <c r="S13" s="69"/>
     </row>
     <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="157"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="69"/>
       <c r="C14" s="69"/>
-      <c r="D14" s="160" t="s">
+      <c r="D14" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
       <c r="I14" s="69"/>
       <c r="J14" s="69"/>
       <c r="K14" s="69"/>
@@ -16891,21 +16887,21 @@
       <c r="N14" s="69"/>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
-      <c r="Q14" s="159"/>
+      <c r="Q14" s="117"/>
       <c r="R14" s="69"/>
       <c r="S14" s="69"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="157"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="69"/>
       <c r="C15" s="69"/>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
       <c r="K15" s="69"/>
@@ -16914,21 +16910,21 @@
       <c r="N15" s="69"/>
       <c r="O15" s="69"/>
       <c r="P15" s="69"/>
-      <c r="Q15" s="159"/>
+      <c r="Q15" s="117"/>
       <c r="R15" s="69"/>
       <c r="S15" s="69"/>
     </row>
     <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="157"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="69"/>
       <c r="C16" s="69"/>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="118" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
       <c r="I16" s="69"/>
       <c r="J16" s="69"/>
       <c r="K16" s="69"/>
@@ -16937,21 +16933,21 @@
       <c r="N16" s="69"/>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
-      <c r="Q16" s="159"/>
+      <c r="Q16" s="117"/>
       <c r="R16" s="69"/>
       <c r="S16" s="69"/>
     </row>
     <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="157"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="69"/>
       <c r="C17" s="69"/>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
       <c r="I17" s="69"/>
       <c r="J17" s="69"/>
       <c r="K17" s="69"/>
@@ -16960,21 +16956,21 @@
       <c r="N17" s="69"/>
       <c r="O17" s="69"/>
       <c r="P17" s="69"/>
-      <c r="Q17" s="159"/>
+      <c r="Q17" s="117"/>
       <c r="R17" s="69"/>
       <c r="S17" s="69"/>
     </row>
     <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="157"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="69"/>
       <c r="C18" s="69"/>
-      <c r="D18" s="160" t="s">
+      <c r="D18" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
       <c r="I18" s="69"/>
       <c r="J18" s="69"/>
       <c r="K18" s="69"/>
@@ -16983,23 +16979,23 @@
       <c r="N18" s="69"/>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
-      <c r="Q18" s="159"/>
+      <c r="Q18" s="117"/>
       <c r="R18" s="69"/>
       <c r="S18" s="69"/>
     </row>
     <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="157"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="69"/>
       <c r="C19" s="69">
         <v>7</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="69"/>
       <c r="J19" s="69"/>
       <c r="K19" s="69"/>
@@ -17008,23 +17004,23 @@
       <c r="N19" s="69"/>
       <c r="O19" s="69"/>
       <c r="P19" s="69"/>
-      <c r="Q19" s="159"/>
+      <c r="Q19" s="117"/>
       <c r="R19" s="69"/>
       <c r="S19" s="69"/>
     </row>
     <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="157"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="69"/>
       <c r="C20" s="69">
         <v>8</v>
       </c>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
       <c r="I20" s="69"/>
       <c r="J20" s="69"/>
       <c r="K20" s="69"/>
@@ -17033,23 +17029,23 @@
       <c r="N20" s="69"/>
       <c r="O20" s="69"/>
       <c r="P20" s="69"/>
-      <c r="Q20" s="159"/>
+      <c r="Q20" s="117"/>
       <c r="R20" s="69"/>
       <c r="S20" s="69"/>
     </row>
     <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="157"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="69"/>
       <c r="C21" s="69">
         <v>9</v>
       </c>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
       <c r="I21" s="69"/>
       <c r="J21" s="69"/>
       <c r="K21" s="69"/>
@@ -17058,12 +17054,12 @@
       <c r="N21" s="69"/>
       <c r="O21" s="69"/>
       <c r="P21" s="69"/>
-      <c r="Q21" s="159"/>
+      <c r="Q21" s="117"/>
       <c r="R21" s="69"/>
       <c r="S21" s="69"/>
     </row>
     <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="157"/>
+      <c r="A22" s="115"/>
       <c r="C22" s="69"/>
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
@@ -17078,13 +17074,13 @@
       <c r="N22" s="69"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
-      <c r="Q22" s="159"/>
+      <c r="Q22" s="117"/>
       <c r="R22" s="69"/>
       <c r="S22" s="69"/>
     </row>
     <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A23" s="157"/>
-      <c r="B23" s="156" t="s">
+      <c r="A23" s="115"/>
+      <c r="B23" s="114" t="s">
         <v>184</v>
       </c>
       <c r="C23" s="69"/>
@@ -17101,22 +17097,22 @@
       <c r="N23" s="69"/>
       <c r="O23" s="69"/>
       <c r="P23" s="69"/>
-      <c r="Q23" s="159"/>
+      <c r="Q23" s="117"/>
       <c r="R23" s="69"/>
       <c r="S23" s="69"/>
     </row>
     <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A24" s="157"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="69"/>
       <c r="C24" s="69">
         <v>1</v>
       </c>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="69"/>
       <c r="I24" s="69"/>
       <c r="J24" s="69"/>
@@ -17126,22 +17122,22 @@
       <c r="N24" s="69"/>
       <c r="O24" s="69"/>
       <c r="P24" s="69"/>
-      <c r="Q24" s="159"/>
+      <c r="Q24" s="117"/>
       <c r="R24" s="69"/>
       <c r="S24" s="69"/>
     </row>
     <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="157"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="69"/>
       <c r="C25" s="69">
         <v>2</v>
       </c>
-      <c r="D25" s="158" t="s">
+      <c r="D25" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
       <c r="J25" s="69"/>
@@ -17151,22 +17147,22 @@
       <c r="N25" s="69"/>
       <c r="O25" s="69"/>
       <c r="P25" s="69"/>
-      <c r="Q25" s="159"/>
+      <c r="Q25" s="117"/>
       <c r="R25" s="69"/>
       <c r="S25" s="69"/>
     </row>
     <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="157"/>
+      <c r="A26" s="115"/>
       <c r="B26" s="69"/>
       <c r="C26" s="69">
         <v>3</v>
       </c>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
       <c r="J26" s="69"/>
@@ -17176,17 +17172,17 @@
       <c r="N26" s="69"/>
       <c r="O26" s="69"/>
       <c r="P26" s="69"/>
-      <c r="Q26" s="159"/>
+      <c r="Q26" s="117"/>
       <c r="R26" s="69"/>
       <c r="S26" s="69"/>
     </row>
     <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="157"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="69"/>
       <c r="C27" s="69">
         <v>4</v>
       </c>
-      <c r="D27" s="158" t="s">
+      <c r="D27" s="116" t="s">
         <v>188</v>
       </c>
       <c r="E27" s="69"/>
@@ -17201,12 +17197,12 @@
       <c r="N27" s="69"/>
       <c r="O27" s="69"/>
       <c r="P27" s="69"/>
-      <c r="Q27" s="159"/>
+      <c r="Q27" s="117"/>
       <c r="R27" s="69"/>
       <c r="S27" s="69"/>
     </row>
     <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A28" s="157"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="69"/>
       <c r="C28" s="69"/>
       <c r="D28" s="69"/>
@@ -17222,13 +17218,13 @@
       <c r="N28" s="69"/>
       <c r="O28" s="69"/>
       <c r="P28" s="69"/>
-      <c r="Q28" s="159"/>
+      <c r="Q28" s="117"/>
       <c r="R28" s="69"/>
       <c r="S28" s="69"/>
     </row>
     <row r="29" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="157"/>
-      <c r="B29" s="156" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="114" t="s">
         <v>189</v>
       </c>
       <c r="C29" s="69"/>
@@ -17245,17 +17241,17 @@
       <c r="N29" s="69"/>
       <c r="O29" s="69"/>
       <c r="P29" s="69"/>
-      <c r="Q29" s="159"/>
+      <c r="Q29" s="117"/>
       <c r="R29" s="69"/>
       <c r="S29" s="69"/>
     </row>
     <row r="30" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="157"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="69"/>
       <c r="C30" s="69">
         <v>1</v>
       </c>
-      <c r="D30" s="158" t="s">
+      <c r="D30" s="116" t="s">
         <v>190</v>
       </c>
       <c r="E30" s="69"/>
@@ -17270,17 +17266,17 @@
       <c r="N30" s="69"/>
       <c r="O30" s="69"/>
       <c r="P30" s="69"/>
-      <c r="Q30" s="159"/>
+      <c r="Q30" s="117"/>
       <c r="R30" s="69"/>
       <c r="S30" s="69"/>
     </row>
     <row r="31" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A31" s="157"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="69"/>
       <c r="C31" s="69">
         <v>2</v>
       </c>
-      <c r="D31" s="158" t="s">
+      <c r="D31" s="116" t="s">
         <v>191</v>
       </c>
       <c r="E31" s="69"/>
@@ -17295,17 +17291,17 @@
       <c r="N31" s="69"/>
       <c r="O31" s="69"/>
       <c r="P31" s="69"/>
-      <c r="Q31" s="159"/>
+      <c r="Q31" s="117"/>
       <c r="R31" s="69"/>
       <c r="S31" s="69"/>
     </row>
     <row r="32" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="157"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="69"/>
       <c r="C32" s="69">
         <v>3</v>
       </c>
-      <c r="D32" s="158" t="s">
+      <c r="D32" s="116" t="s">
         <v>192</v>
       </c>
       <c r="E32" s="69"/>
@@ -17320,17 +17316,17 @@
       <c r="N32" s="69"/>
       <c r="O32" s="69"/>
       <c r="P32" s="69"/>
-      <c r="Q32" s="159"/>
+      <c r="Q32" s="117"/>
       <c r="R32" s="69"/>
       <c r="S32" s="69"/>
     </row>
     <row r="33" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A33" s="157"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="69"/>
       <c r="C33" s="69">
         <v>4</v>
       </c>
-      <c r="D33" s="158" t="s">
+      <c r="D33" s="116" t="s">
         <v>193</v>
       </c>
       <c r="E33" s="69"/>
@@ -17345,17 +17341,17 @@
       <c r="N33" s="69"/>
       <c r="O33" s="69"/>
       <c r="P33" s="69"/>
-      <c r="Q33" s="159"/>
+      <c r="Q33" s="117"/>
       <c r="R33" s="69"/>
       <c r="S33" s="69"/>
     </row>
     <row r="34" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A34" s="157"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="69"/>
       <c r="C34" s="69">
         <v>5</v>
       </c>
-      <c r="D34" s="158" t="s">
+      <c r="D34" s="116" t="s">
         <v>194</v>
       </c>
       <c r="E34" s="69"/>
@@ -17370,12 +17366,12 @@
       <c r="N34" s="69"/>
       <c r="O34" s="69"/>
       <c r="P34" s="69"/>
-      <c r="Q34" s="159"/>
+      <c r="Q34" s="117"/>
       <c r="R34" s="69"/>
       <c r="S34" s="69"/>
     </row>
     <row r="35" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="157"/>
+      <c r="A35" s="115"/>
       <c r="B35" s="69"/>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
@@ -17391,13 +17387,13 @@
       <c r="N35" s="69"/>
       <c r="O35" s="69"/>
       <c r="P35" s="69"/>
-      <c r="Q35" s="159"/>
+      <c r="Q35" s="117"/>
       <c r="R35" s="69"/>
       <c r="S35" s="69"/>
     </row>
     <row r="36" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A36" s="157"/>
-      <c r="B36" s="156" t="s">
+      <c r="A36" s="115"/>
+      <c r="B36" s="114" t="s">
         <v>195</v>
       </c>
       <c r="C36" s="69"/>
@@ -17414,17 +17410,17 @@
       <c r="N36" s="69"/>
       <c r="O36" s="69"/>
       <c r="P36" s="69"/>
-      <c r="Q36" s="159"/>
+      <c r="Q36" s="117"/>
       <c r="R36" s="69"/>
       <c r="S36" s="69"/>
     </row>
     <row r="37" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A37" s="157"/>
+      <c r="A37" s="115"/>
       <c r="B37" s="69"/>
       <c r="C37" s="69">
         <v>1</v>
       </c>
-      <c r="D37" s="158" t="s">
+      <c r="D37" s="116" t="s">
         <v>196</v>
       </c>
       <c r="E37" s="69"/>
@@ -17439,17 +17435,17 @@
       <c r="N37" s="69"/>
       <c r="O37" s="69"/>
       <c r="P37" s="69"/>
-      <c r="Q37" s="159"/>
+      <c r="Q37" s="117"/>
       <c r="R37" s="69"/>
       <c r="S37" s="69"/>
     </row>
     <row r="38" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A38" s="157"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="69"/>
       <c r="C38" s="69">
         <v>2</v>
       </c>
-      <c r="D38" s="158" t="s">
+      <c r="D38" s="116" t="s">
         <v>197</v>
       </c>
       <c r="E38" s="69"/>
@@ -17464,17 +17460,17 @@
       <c r="N38" s="69"/>
       <c r="O38" s="69"/>
       <c r="P38" s="69"/>
-      <c r="Q38" s="159"/>
+      <c r="Q38" s="117"/>
       <c r="R38" s="69"/>
       <c r="S38" s="69"/>
     </row>
     <row r="39" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A39" s="157"/>
+      <c r="A39" s="115"/>
       <c r="B39" s="69"/>
       <c r="C39" s="69">
         <v>3</v>
       </c>
-      <c r="D39" s="158" t="s">
+      <c r="D39" s="116" t="s">
         <v>198</v>
       </c>
       <c r="E39" s="69"/>
@@ -17489,12 +17485,12 @@
       <c r="N39" s="69"/>
       <c r="O39" s="69"/>
       <c r="P39" s="69"/>
-      <c r="Q39" s="159"/>
+      <c r="Q39" s="117"/>
       <c r="R39" s="69"/>
       <c r="S39" s="69"/>
     </row>
     <row r="40" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A40" s="157"/>
+      <c r="A40" s="115"/>
       <c r="B40" s="69"/>
       <c r="C40" s="69"/>
       <c r="D40" s="69"/>
@@ -17510,13 +17506,13 @@
       <c r="N40" s="69"/>
       <c r="O40" s="69"/>
       <c r="P40" s="69"/>
-      <c r="Q40" s="159"/>
+      <c r="Q40" s="117"/>
       <c r="R40" s="69"/>
       <c r="S40" s="69"/>
     </row>
     <row r="41" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A41" s="157"/>
-      <c r="B41" s="156" t="s">
+      <c r="A41" s="115"/>
+      <c r="B41" s="114" t="s">
         <v>199</v>
       </c>
       <c r="C41" s="69"/>
@@ -17533,17 +17529,17 @@
       <c r="N41" s="69"/>
       <c r="O41" s="69"/>
       <c r="P41" s="69"/>
-      <c r="Q41" s="159"/>
+      <c r="Q41" s="117"/>
       <c r="R41" s="69"/>
       <c r="S41" s="69"/>
     </row>
     <row r="42" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A42" s="157"/>
+      <c r="A42" s="115"/>
       <c r="B42" s="69"/>
       <c r="C42" s="69">
         <v>1</v>
       </c>
-      <c r="D42" s="158" t="s">
+      <c r="D42" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E42" s="69"/>
@@ -17558,12 +17554,12 @@
       <c r="N42" s="69"/>
       <c r="O42" s="69"/>
       <c r="P42" s="69"/>
-      <c r="Q42" s="159"/>
+      <c r="Q42" s="117"/>
       <c r="R42" s="69"/>
       <c r="S42" s="69"/>
     </row>
     <row r="43" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A43" s="157"/>
+      <c r="A43" s="115"/>
       <c r="B43" s="69"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
@@ -17579,13 +17575,13 @@
       <c r="N43" s="69"/>
       <c r="O43" s="69"/>
       <c r="P43" s="69"/>
-      <c r="Q43" s="159"/>
+      <c r="Q43" s="117"/>
       <c r="R43" s="69"/>
       <c r="S43" s="69"/>
     </row>
     <row r="44" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A44" s="157"/>
-      <c r="B44" s="156" t="s">
+      <c r="A44" s="115"/>
+      <c r="B44" s="114" t="s">
         <v>201</v>
       </c>
       <c r="C44" s="69"/>
@@ -17602,20 +17598,20 @@
       <c r="N44" s="69"/>
       <c r="O44" s="69"/>
       <c r="P44" s="69"/>
-      <c r="Q44" s="159"/>
+      <c r="Q44" s="117"/>
       <c r="R44" s="69"/>
       <c r="S44" s="69"/>
     </row>
     <row r="45" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A45" s="157"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="69"/>
       <c r="C45" s="69">
         <v>1</v>
       </c>
-      <c r="D45" s="158" t="s">
+      <c r="D45" s="116" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="158"/>
+      <c r="E45" s="116"/>
       <c r="F45" s="69"/>
       <c r="G45" s="69"/>
       <c r="H45" s="69"/>
@@ -17627,20 +17623,20 @@
       <c r="N45" s="69"/>
       <c r="O45" s="69"/>
       <c r="P45" s="69"/>
-      <c r="Q45" s="159"/>
+      <c r="Q45" s="117"/>
       <c r="R45" s="69"/>
       <c r="S45" s="69"/>
     </row>
     <row r="46" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A46" s="157"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="69"/>
       <c r="C46" s="69">
         <v>2</v>
       </c>
-      <c r="D46" s="158" t="s">
+      <c r="D46" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="E46" s="158"/>
+      <c r="E46" s="116"/>
       <c r="F46" s="69"/>
       <c r="G46" s="69"/>
       <c r="H46" s="69"/>
@@ -17652,20 +17648,20 @@
       <c r="N46" s="69"/>
       <c r="O46" s="69"/>
       <c r="P46" s="69"/>
-      <c r="Q46" s="159"/>
+      <c r="Q46" s="117"/>
       <c r="R46" s="69"/>
       <c r="S46" s="69"/>
     </row>
     <row r="47" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A47" s="157"/>
+      <c r="A47" s="115"/>
       <c r="B47" s="69"/>
       <c r="C47" s="69">
         <v>3</v>
       </c>
-      <c r="D47" s="158" t="s">
+      <c r="D47" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="E47" s="158"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="69"/>
       <c r="G47" s="69"/>
       <c r="H47" s="69"/>
@@ -17677,12 +17673,12 @@
       <c r="N47" s="69"/>
       <c r="O47" s="69"/>
       <c r="P47" s="69"/>
-      <c r="Q47" s="159"/>
+      <c r="Q47" s="117"/>
       <c r="R47" s="69"/>
       <c r="S47" s="69"/>
     </row>
     <row r="48" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A48" s="157"/>
+      <c r="A48" s="115"/>
       <c r="B48" s="69"/>
       <c r="C48" s="69"/>
       <c r="D48" s="69"/>
@@ -17698,13 +17694,13 @@
       <c r="N48" s="69"/>
       <c r="O48" s="69"/>
       <c r="P48" s="69"/>
-      <c r="Q48" s="159"/>
+      <c r="Q48" s="117"/>
       <c r="R48" s="69"/>
       <c r="S48" s="69"/>
     </row>
     <row r="49" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A49" s="157"/>
-      <c r="B49" s="156" t="s">
+      <c r="A49" s="115"/>
+      <c r="B49" s="114" t="s">
         <v>205</v>
       </c>
       <c r="C49" s="69"/>
@@ -17721,23 +17717,23 @@
       <c r="N49" s="69"/>
       <c r="O49" s="69"/>
       <c r="P49" s="69"/>
-      <c r="Q49" s="159"/>
+      <c r="Q49" s="117"/>
       <c r="R49" s="69"/>
       <c r="S49" s="69"/>
     </row>
     <row r="50" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A50" s="157"/>
+      <c r="A50" s="115"/>
       <c r="B50" s="69"/>
       <c r="C50" s="69">
         <v>1</v>
       </c>
-      <c r="D50" s="158" t="s">
+      <c r="D50" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="158"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
       <c r="I50" s="69"/>
       <c r="J50" s="69"/>
       <c r="K50" s="69"/>
@@ -17746,25 +17742,25 @@
       <c r="N50" s="69"/>
       <c r="O50" s="69"/>
       <c r="P50" s="69"/>
-      <c r="Q50" s="159"/>
+      <c r="Q50" s="117"/>
       <c r="R50" s="69"/>
       <c r="S50" s="69"/>
     </row>
     <row r="51" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A51" s="157"/>
+      <c r="A51" s="115"/>
       <c r="B51" s="69" t="s">
         <v>207</v>
       </c>
       <c r="C51" s="69">
         <v>2</v>
       </c>
-      <c r="D51" s="158" t="s">
+      <c r="D51" s="116" t="s">
         <v>208</v>
       </c>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="158"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
       <c r="I51" s="69"/>
       <c r="J51" s="69"/>
       <c r="K51" s="69"/>
@@ -17773,23 +17769,23 @@
       <c r="N51" s="69"/>
       <c r="O51" s="69"/>
       <c r="P51" s="69"/>
-      <c r="Q51" s="159"/>
+      <c r="Q51" s="117"/>
       <c r="R51" s="69"/>
       <c r="S51" s="69"/>
     </row>
     <row r="52" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A52" s="157"/>
+      <c r="A52" s="115"/>
       <c r="B52" s="69"/>
       <c r="C52" s="69">
         <v>3</v>
       </c>
-      <c r="D52" s="158" t="s">
+      <c r="D52" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="158"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="158"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
       <c r="I52" s="69"/>
       <c r="J52" s="69"/>
       <c r="K52" s="69"/>
@@ -17798,23 +17794,23 @@
       <c r="N52" s="69"/>
       <c r="O52" s="69"/>
       <c r="P52" s="69"/>
-      <c r="Q52" s="159"/>
+      <c r="Q52" s="117"/>
       <c r="R52" s="69"/>
       <c r="S52" s="69"/>
     </row>
     <row r="53" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A53" s="157"/>
+      <c r="A53" s="115"/>
       <c r="B53" s="69"/>
       <c r="C53" s="69">
         <v>4</v>
       </c>
-      <c r="D53" s="158" t="s">
+      <c r="D53" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="E53" s="158"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
       <c r="I53" s="69"/>
       <c r="J53" s="69"/>
       <c r="K53" s="69"/>
@@ -17823,25 +17819,25 @@
       <c r="N53" s="69"/>
       <c r="O53" s="69"/>
       <c r="P53" s="69"/>
-      <c r="Q53" s="159"/>
+      <c r="Q53" s="117"/>
       <c r="R53" s="69"/>
       <c r="S53" s="69"/>
     </row>
     <row r="54" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A54" s="157"/>
+      <c r="A54" s="115"/>
       <c r="B54" s="69" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="69">
         <v>5</v>
       </c>
-      <c r="D54" s="158" t="s">
+      <c r="D54" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="158"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
       <c r="I54" s="69"/>
       <c r="J54" s="69"/>
       <c r="K54" s="69"/>
@@ -17850,25 +17846,25 @@
       <c r="N54" s="69"/>
       <c r="O54" s="69"/>
       <c r="P54" s="69"/>
-      <c r="Q54" s="159"/>
+      <c r="Q54" s="117"/>
       <c r="R54" s="69"/>
       <c r="S54" s="69"/>
     </row>
     <row r="55" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A55" s="157"/>
+      <c r="A55" s="115"/>
       <c r="B55" s="69" t="s">
         <v>207</v>
       </c>
       <c r="C55" s="69">
         <v>6</v>
       </c>
-      <c r="D55" s="158" t="s">
+      <c r="D55" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="E55" s="158"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="158"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
       <c r="I55" s="69"/>
       <c r="J55" s="69"/>
       <c r="K55" s="69"/>
@@ -17877,19 +17873,19 @@
       <c r="N55" s="69"/>
       <c r="O55" s="69"/>
       <c r="P55" s="69"/>
-      <c r="Q55" s="159"/>
+      <c r="Q55" s="117"/>
       <c r="R55" s="69"/>
       <c r="S55" s="69"/>
     </row>
     <row r="56" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A56" s="157"/>
+      <c r="A56" s="115"/>
       <c r="B56" s="69" t="s">
         <v>207</v>
       </c>
       <c r="C56" s="69">
         <v>7</v>
       </c>
-      <c r="D56" s="158" t="s">
+      <c r="D56" s="116" t="s">
         <v>198</v>
       </c>
       <c r="E56" s="69"/>
@@ -17904,17 +17900,17 @@
       <c r="N56" s="69"/>
       <c r="O56" s="69"/>
       <c r="P56" s="69"/>
-      <c r="Q56" s="159"/>
+      <c r="Q56" s="117"/>
       <c r="R56" s="69"/>
       <c r="S56" s="69"/>
     </row>
     <row r="57" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A57" s="157"/>
+      <c r="A57" s="115"/>
       <c r="B57" s="69"/>
       <c r="C57" s="69">
         <v>8</v>
       </c>
-      <c r="D57" s="158" t="s">
+      <c r="D57" s="116" t="s">
         <v>213</v>
       </c>
       <c r="E57" s="69"/>
@@ -17929,17 +17925,17 @@
       <c r="N57" s="69"/>
       <c r="O57" s="69"/>
       <c r="P57" s="69"/>
-      <c r="Q57" s="159"/>
+      <c r="Q57" s="117"/>
       <c r="R57" s="69"/>
       <c r="S57" s="69"/>
     </row>
     <row r="58" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A58" s="157"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="69"/>
       <c r="C58" s="69">
         <v>9</v>
       </c>
-      <c r="D58" s="158" t="s">
+      <c r="D58" s="116" t="s">
         <v>214</v>
       </c>
       <c r="E58" s="69"/>
@@ -17954,19 +17950,19 @@
       <c r="N58" s="69"/>
       <c r="O58" s="69"/>
       <c r="P58" s="69"/>
-      <c r="Q58" s="159"/>
+      <c r="Q58" s="117"/>
       <c r="R58" s="69"/>
       <c r="S58" s="69"/>
     </row>
     <row r="59" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A59" s="157"/>
+      <c r="A59" s="115"/>
       <c r="B59" s="69" t="s">
         <v>207</v>
       </c>
       <c r="C59" s="69">
         <v>10</v>
       </c>
-      <c r="D59" s="158" t="s">
+      <c r="D59" s="116" t="s">
         <v>215</v>
       </c>
       <c r="E59" s="69"/>
@@ -17981,17 +17977,17 @@
       <c r="N59" s="69"/>
       <c r="O59" s="69"/>
       <c r="P59" s="69"/>
-      <c r="Q59" s="159"/>
+      <c r="Q59" s="117"/>
       <c r="R59" s="69"/>
       <c r="S59" s="69"/>
     </row>
     <row r="60" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A60" s="157"/>
+      <c r="A60" s="115"/>
       <c r="B60" s="69"/>
       <c r="C60" s="69">
         <v>11</v>
       </c>
-      <c r="D60" s="158" t="s">
+      <c r="D60" s="116" t="s">
         <v>216</v>
       </c>
       <c r="E60" s="69"/>
@@ -18006,12 +18002,12 @@
       <c r="N60" s="69"/>
       <c r="O60" s="69"/>
       <c r="P60" s="69"/>
-      <c r="Q60" s="159"/>
+      <c r="Q60" s="117"/>
       <c r="R60" s="69"/>
       <c r="S60" s="69"/>
     </row>
     <row r="61" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A61" s="157"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="69"/>
       <c r="C61" s="69"/>
       <c r="D61" s="69"/>
@@ -18027,28 +18023,28 @@
       <c r="N61" s="69"/>
       <c r="O61" s="69"/>
       <c r="P61" s="69"/>
-      <c r="Q61" s="159"/>
+      <c r="Q61" s="117"/>
       <c r="R61" s="69"/>
       <c r="S61" s="69"/>
     </row>
     <row r="62" spans="1:19" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="161"/>
-      <c r="B62" s="162"/>
-      <c r="C62" s="162"/>
-      <c r="D62" s="162"/>
-      <c r="E62" s="162"/>
-      <c r="F62" s="162"/>
-      <c r="G62" s="162"/>
-      <c r="H62" s="162"/>
-      <c r="I62" s="162"/>
-      <c r="J62" s="162"/>
-      <c r="K62" s="162"/>
-      <c r="L62" s="162"/>
-      <c r="M62" s="162"/>
-      <c r="N62" s="162"/>
-      <c r="O62" s="162"/>
-      <c r="P62" s="162"/>
-      <c r="Q62" s="163"/>
+      <c r="A62" s="119"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="120"/>
+      <c r="Q62" s="121"/>
       <c r="R62" s="69"/>
       <c r="S62" s="69"/>
     </row>
@@ -18086,47 +18082,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="126" t="str">
+      <c r="B2" s="131"/>
+      <c r="C2" s="134" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="131"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="139"/>
     </row>
     <row r="3" spans="1:15" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="132"/>
-      <c r="O3" s="133"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="141"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
@@ -18568,19 +18564,19 @@
     </row>
     <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" s="78"/>
-      <c r="E3" s="150">
+      <c r="E3" s="162">
         <v>1</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="150">
+      <c r="G3" s="162">
         <v>2</v>
       </c>
       <c r="H3" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="150">
+      <c r="I3" s="162">
         <v>3</v>
       </c>
       <c r="J3" s="81" t="s">
@@ -18590,15 +18586,15 @@
     </row>
     <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" s="78"/>
-      <c r="E4" s="150"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="150"/>
+      <c r="G4" s="162"/>
       <c r="H4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="150"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="74" t="s">
         <v>51</v>
       </c>
@@ -18609,15 +18605,15 @@
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D5" s="78"/>
-      <c r="E5" s="150"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="150"/>
+      <c r="G5" s="162"/>
       <c r="H5" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="150"/>
+      <c r="I5" s="162"/>
       <c r="J5" s="74" t="s">
         <v>50</v>
       </c>
@@ -18651,13 +18647,13 @@
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D8" s="78"/>
-      <c r="E8" s="150">
+      <c r="E8" s="162">
         <v>4</v>
       </c>
       <c r="F8" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="150">
+      <c r="G8" s="162">
         <v>5</v>
       </c>
       <c r="H8" s="87" t="s">
@@ -18667,11 +18663,11 @@
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D9" s="78"/>
-      <c r="E9" s="150"/>
+      <c r="E9" s="162"/>
       <c r="F9" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="150"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="74" t="s">
         <v>75</v>
       </c>
@@ -18679,9 +18675,9 @@
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D10" s="83"/>
-      <c r="E10" s="151"/>
+      <c r="E10" s="163"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="151"/>
+      <c r="G10" s="163"/>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
       <c r="J10" s="84"/>
@@ -18705,14 +18701,14 @@
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D12" s="78"/>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
       <c r="N12" s="82"/>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.3">

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/level-up-docs/02.Design Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Level-Up/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D47BCC1-1527-EA44-84A7-6831CB4F58C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB636B54-D2EF-B74F-886B-947EBA8CB372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="-4820" yWindow="-20940" windowWidth="33500" windowHeight="20460" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -38,12 +38,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="218">
   <si>
     <t>No</t>
   </si>
@@ -727,6 +735,9 @@
   </si>
   <si>
     <t>Must delete session if it is not use</t>
+  </si>
+  <si>
+    <t>Alert 1</t>
   </si>
 </sst>
 </file>
@@ -930,7 +941,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,6 +1017,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,7 +1574,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1702,6 +1725,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1824,6 +1854,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -10028,16 +10064,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10342,7 +10378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAFE950-5B3C-524E-9704-0609BF069824}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10435,22 +10473,22 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="92" x14ac:dyDescent="0.2">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="136"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
@@ -10469,22 +10507,22 @@
       <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="126"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="133"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
@@ -10567,10 +10605,10 @@
     </row>
     <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
-      <c r="B42" s="122" t="s">
+      <c r="B42" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="122"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="18">
         <v>1</v>
       </c>
@@ -10631,10 +10669,10 @@
     </row>
     <row r="48" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="K48" s="123" t="s">
+      <c r="K48" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="123"/>
+      <c r="L48" s="130"/>
       <c r="M48" s="17">
         <v>44740</v>
       </c>
@@ -10642,10 +10680,10 @@
     </row>
     <row r="49" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="K49" s="123" t="s">
+      <c r="K49" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="123"/>
+      <c r="L49" s="130"/>
       <c r="M49" s="17"/>
       <c r="N49" s="13"/>
     </row>
@@ -10699,56 +10737,56 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134" t="str">
+      <c r="B2" s="138"/>
+      <c r="C2" s="141" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="138">
+      <c r="P2" s="145">
         <v>44740</v>
       </c>
-      <c r="Q2" s="139"/>
+      <c r="Q2" s="146"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="140">
+      <c r="P3" s="147">
         <f ca="1">NOW()</f>
-        <v>44761.723653240741</v>
-      </c>
-      <c r="Q3" s="141"/>
+        <v>44766.857009259256</v>
+      </c>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -11717,7 +11755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
   <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A96" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="I72" sqref="F72:I111"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11735,47 +11775,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134" t="str">
+      <c r="B2" s="138"/>
+      <c r="C2" s="141" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="138"/>
-      <c r="O2" s="139"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="140"/>
-      <c r="O3" s="141"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="148"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -11828,11 +11868,11 @@
         <v>44740</v>
       </c>
       <c r="F6" s="59">
-        <v>44770</v>
+        <v>44778</v>
       </c>
       <c r="G6" s="58">
         <f>F6-E6</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H6" s="59">
         <v>44740</v>
@@ -12166,7 +12206,7 @@
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
       <c r="B16" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>8</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -12182,7 +12222,7 @@
         <v>44748</v>
       </c>
       <c r="G16" s="58">
-        <f t="shared" ref="G16:G25" si="7">F16-E16</f>
+        <f>F16-E16</f>
         <v>1</v>
       </c>
       <c r="H16" s="59">
@@ -12192,7 +12232,7 @@
         <v>44748</v>
       </c>
       <c r="J16" s="60">
-        <f t="shared" ref="J16:J25" si="8">I16-H16</f>
+        <f>I16-H16</f>
         <v>1</v>
       </c>
       <c r="K16" s="61">
@@ -12202,7 +12242,7 @@
     <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
       <c r="B17" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>9</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -12218,7 +12258,7 @@
         <v>44748</v>
       </c>
       <c r="G17" s="58">
-        <f t="shared" ref="G17" si="9">F17-E17</f>
+        <f>F17-E17</f>
         <v>1</v>
       </c>
       <c r="H17" s="59">
@@ -12228,7 +12268,7 @@
         <v>44748</v>
       </c>
       <c r="J17" s="60">
-        <f t="shared" ref="J17" si="10">I17-H17</f>
+        <f>I17-H17</f>
         <v>1</v>
       </c>
       <c r="K17" s="61">
@@ -12238,7 +12278,7 @@
     <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>10</v>
       </c>
       <c r="C18" s="58" t="s">
@@ -12254,7 +12294,7 @@
         <v>44749</v>
       </c>
       <c r="G18" s="58">
-        <f t="shared" ref="G18" si="11">F18-E18</f>
+        <f>F18-E18</f>
         <v>2</v>
       </c>
       <c r="H18" s="59">
@@ -12264,7 +12304,7 @@
         <v>44749</v>
       </c>
       <c r="J18" s="60">
-        <f t="shared" ref="J18" si="12">I18-H18</f>
+        <f>I18-H18</f>
         <v>2</v>
       </c>
       <c r="K18" s="61">
@@ -12274,7 +12314,7 @@
     <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>11</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -12290,7 +12330,7 @@
         <v>44749</v>
       </c>
       <c r="G19" s="58">
-        <f t="shared" si="7"/>
+        <f>F19-E19</f>
         <v>2</v>
       </c>
       <c r="H19" s="59">
@@ -12300,7 +12340,7 @@
         <v>44749</v>
       </c>
       <c r="J19" s="60">
-        <f t="shared" si="8"/>
+        <f>I19-H19</f>
         <v>2</v>
       </c>
       <c r="K19" s="61">
@@ -12310,7 +12350,7 @@
     <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>12</v>
       </c>
       <c r="C20" s="58" t="s">
@@ -12326,7 +12366,7 @@
         <v>44749</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" ref="G20:G23" si="13">F20-E20</f>
+        <f>F20-E20</f>
         <v>1</v>
       </c>
       <c r="H20" s="59">
@@ -12336,7 +12376,7 @@
         <v>44749</v>
       </c>
       <c r="J20" s="60">
-        <f t="shared" ref="J20:J23" si="14">I20-H20</f>
+        <f>I20-H20</f>
         <v>2</v>
       </c>
       <c r="K20" s="61">
@@ -12346,7 +12386,7 @@
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
       <c r="B21" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>13</v>
       </c>
       <c r="C21" s="58" t="s">
@@ -12362,7 +12402,7 @@
         <v>44750</v>
       </c>
       <c r="G21" s="58">
-        <f t="shared" si="13"/>
+        <f>F21-E21</f>
         <v>1</v>
       </c>
       <c r="H21" s="59">
@@ -12372,7 +12412,7 @@
         <v>44750</v>
       </c>
       <c r="J21" s="60">
-        <f t="shared" si="14"/>
+        <f>I21-H21</f>
         <v>1</v>
       </c>
       <c r="K21" s="61">
@@ -12382,7 +12422,7 @@
     <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>14</v>
       </c>
       <c r="C22" s="58" t="s">
@@ -12398,7 +12438,7 @@
         <v>44750</v>
       </c>
       <c r="G22" s="58">
-        <f t="shared" si="13"/>
+        <f>F22-E22</f>
         <v>2</v>
       </c>
       <c r="H22" s="59">
@@ -12408,7 +12448,7 @@
         <v>44750</v>
       </c>
       <c r="J22" s="60">
-        <f t="shared" si="14"/>
+        <f>I22-H22</f>
         <v>2</v>
       </c>
       <c r="K22" s="61">
@@ -12418,7 +12458,7 @@
     <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>15</v>
       </c>
       <c r="C23" s="58" t="s">
@@ -12434,7 +12474,7 @@
         <v>44751</v>
       </c>
       <c r="G23" s="58">
-        <f t="shared" si="13"/>
+        <f>F23-E23</f>
         <v>1</v>
       </c>
       <c r="H23" s="59">
@@ -12444,7 +12484,7 @@
         <v>44750</v>
       </c>
       <c r="J23" s="60">
-        <f t="shared" si="14"/>
+        <f>I23-H23</f>
         <v>1</v>
       </c>
       <c r="K23" s="61">
@@ -12454,7 +12494,7 @@
     <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>16</v>
       </c>
       <c r="C24" s="58" t="s">
@@ -12490,7 +12530,7 @@
     <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
       <c r="B25" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>17</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -12506,7 +12546,7 @@
         <v>44751</v>
       </c>
       <c r="G25" s="58">
-        <f t="shared" si="7"/>
+        <f>F25-E25</f>
         <v>1</v>
       </c>
       <c r="H25" s="59">
@@ -12516,7 +12556,7 @@
         <v>44750</v>
       </c>
       <c r="J25" s="60">
-        <f t="shared" si="8"/>
+        <f>I25-H25</f>
         <v>1</v>
       </c>
       <c r="K25" s="61">
@@ -12526,7 +12566,7 @@
     <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
       <c r="B26" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>18</v>
       </c>
       <c r="C26" s="58" t="s">
@@ -12542,7 +12582,7 @@
         <v>44750</v>
       </c>
       <c r="G26" s="58">
-        <f t="shared" ref="G26:G31" si="15">F26-E26</f>
+        <f>F26-E26</f>
         <v>1</v>
       </c>
       <c r="H26" s="59">
@@ -12552,7 +12592,7 @@
         <v>44750</v>
       </c>
       <c r="J26" s="60">
-        <f t="shared" ref="J26:J30" si="16">I26-H26</f>
+        <f>I26-H26</f>
         <v>1</v>
       </c>
       <c r="K26" s="61">
@@ -12562,7 +12602,7 @@
     <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
       <c r="B27" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>19</v>
       </c>
       <c r="C27" s="58" t="s">
@@ -12578,7 +12618,7 @@
         <v>44751</v>
       </c>
       <c r="G27" s="58">
-        <f t="shared" si="15"/>
+        <f>F27-E27</f>
         <v>1</v>
       </c>
       <c r="H27" s="59">
@@ -12588,7 +12628,7 @@
         <v>44751</v>
       </c>
       <c r="J27" s="60">
-        <f t="shared" si="16"/>
+        <f>I27-H27</f>
         <v>1</v>
       </c>
       <c r="K27" s="61">
@@ -12598,7 +12638,7 @@
     <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>20</v>
       </c>
       <c r="C28" s="58" t="s">
@@ -12614,7 +12654,7 @@
         <v>44752</v>
       </c>
       <c r="G28" s="58">
-        <f t="shared" si="15"/>
+        <f>F28-E28</f>
         <v>1</v>
       </c>
       <c r="H28" s="59">
@@ -12624,7 +12664,7 @@
         <v>44751</v>
       </c>
       <c r="J28" s="60">
-        <f t="shared" si="16"/>
+        <f>I28-H28</f>
         <v>1</v>
       </c>
       <c r="K28" s="61">
@@ -12634,7 +12674,7 @@
     <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>21</v>
       </c>
       <c r="C29" s="58" t="s">
@@ -12650,7 +12690,7 @@
         <v>44752</v>
       </c>
       <c r="G29" s="58">
-        <f t="shared" si="15"/>
+        <f>F29-E29</f>
         <v>1</v>
       </c>
       <c r="H29" s="59">
@@ -12660,7 +12700,7 @@
         <v>44752</v>
       </c>
       <c r="J29" s="60">
-        <f t="shared" si="16"/>
+        <f>I29-H29</f>
         <v>1</v>
       </c>
       <c r="K29" s="61">
@@ -12670,7 +12710,7 @@
     <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>22</v>
       </c>
       <c r="C30" s="58" t="s">
@@ -12686,7 +12726,7 @@
         <v>44752</v>
       </c>
       <c r="G30" s="58">
-        <f t="shared" si="15"/>
+        <f>F30-E30</f>
         <v>1</v>
       </c>
       <c r="H30" s="59">
@@ -12696,7 +12736,7 @@
         <v>44749</v>
       </c>
       <c r="J30" s="60">
-        <f t="shared" si="16"/>
+        <f>I30-H30</f>
         <v>1</v>
       </c>
       <c r="K30" s="61">
@@ -12706,7 +12746,7 @@
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>23</v>
       </c>
       <c r="C31" s="58" t="s">
@@ -12722,7 +12762,7 @@
         <v>44752</v>
       </c>
       <c r="G31" s="58">
-        <f t="shared" si="15"/>
+        <f>F31-E31</f>
         <v>1</v>
       </c>
       <c r="H31" s="59">
@@ -12732,7 +12772,7 @@
         <v>44748</v>
       </c>
       <c r="J31" s="60">
-        <f t="shared" ref="J31:J34" si="17">I31-H31</f>
+        <f>I31-H31</f>
         <v>2</v>
       </c>
       <c r="K31" s="61">
@@ -12742,7 +12782,7 @@
     <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>24</v>
       </c>
       <c r="C32" s="58" t="s">
@@ -12758,7 +12798,7 @@
         <v>44752</v>
       </c>
       <c r="G32" s="58">
-        <f t="shared" ref="G32" si="18">F32-E32</f>
+        <f>F32-E32</f>
         <v>1</v>
       </c>
       <c r="H32" s="59">
@@ -12768,7 +12808,7 @@
         <v>44752</v>
       </c>
       <c r="J32" s="60">
-        <f t="shared" si="17"/>
+        <f>I32-H32</f>
         <v>1</v>
       </c>
       <c r="K32" s="61">
@@ -12778,7 +12818,7 @@
     <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>25</v>
       </c>
       <c r="C33" s="58" t="s">
@@ -12794,7 +12834,7 @@
         <v>44750</v>
       </c>
       <c r="G33" s="58">
-        <f t="shared" ref="G33:G60" si="19">F33-E33</f>
+        <f>F33-E33</f>
         <v>1</v>
       </c>
       <c r="H33" s="59">
@@ -12804,7 +12844,7 @@
         <v>44750</v>
       </c>
       <c r="J33" s="60">
-        <f t="shared" si="17"/>
+        <f>I33-H33</f>
         <v>1</v>
       </c>
       <c r="K33" s="61">
@@ -12814,7 +12854,7 @@
     <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
       <c r="B34" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>26</v>
       </c>
       <c r="C34" s="58" t="s">
@@ -12830,7 +12870,7 @@
         <v>44749</v>
       </c>
       <c r="G34" s="58">
-        <f t="shared" si="19"/>
+        <f>F34-E34</f>
         <v>1</v>
       </c>
       <c r="H34" s="59">
@@ -12840,7 +12880,7 @@
         <v>44748</v>
       </c>
       <c r="J34" s="60">
-        <f t="shared" si="17"/>
+        <f>I34-H34</f>
         <v>0</v>
       </c>
       <c r="K34" s="61">
@@ -12850,7 +12890,7 @@
     <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
       <c r="B35" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>27</v>
       </c>
       <c r="C35" s="58" t="s">
@@ -12866,7 +12906,7 @@
         <v>44750</v>
       </c>
       <c r="G35" s="58">
-        <f t="shared" si="19"/>
+        <f>F35-E35</f>
         <v>1</v>
       </c>
       <c r="H35" s="59">
@@ -12876,7 +12916,7 @@
         <v>44750</v>
       </c>
       <c r="J35" s="60">
-        <f t="shared" ref="J35:J60" si="20">I35-H35</f>
+        <f>I35-H35</f>
         <v>1</v>
       </c>
       <c r="K35" s="61">
@@ -12886,7 +12926,7 @@
     <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
       <c r="B36" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>28</v>
       </c>
       <c r="C36" s="58" t="s">
@@ -12902,7 +12942,7 @@
         <v>44751</v>
       </c>
       <c r="G36" s="58">
-        <f t="shared" si="19"/>
+        <f>F36-E36</f>
         <v>1</v>
       </c>
       <c r="H36" s="59">
@@ -12912,7 +12952,7 @@
         <v>44751</v>
       </c>
       <c r="J36" s="60">
-        <f t="shared" si="20"/>
+        <f>I36-H36</f>
         <v>1</v>
       </c>
       <c r="K36" s="61">
@@ -12922,7 +12962,7 @@
     <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
       <c r="B37" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>29</v>
       </c>
       <c r="C37" s="58" t="s">
@@ -12938,7 +12978,7 @@
         <v>44751</v>
       </c>
       <c r="G37" s="58">
-        <f t="shared" si="19"/>
+        <f>F37-E37</f>
         <v>1</v>
       </c>
       <c r="H37" s="59">
@@ -12948,7 +12988,7 @@
         <v>44751</v>
       </c>
       <c r="J37" s="60">
-        <f t="shared" si="20"/>
+        <f>I37-H37</f>
         <v>3</v>
       </c>
       <c r="K37" s="61">
@@ -12958,7 +12998,7 @@
     <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
       <c r="B38" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>30</v>
       </c>
       <c r="C38" s="58" t="s">
@@ -12974,7 +13014,7 @@
         <v>44752</v>
       </c>
       <c r="G38" s="58">
-        <f t="shared" si="19"/>
+        <f>F38-E38</f>
         <v>1</v>
       </c>
       <c r="H38" s="59">
@@ -12984,7 +13024,7 @@
         <v>44752</v>
       </c>
       <c r="J38" s="60">
-        <f t="shared" si="20"/>
+        <f>I38-H38</f>
         <v>1</v>
       </c>
       <c r="K38" s="61">
@@ -12994,7 +13034,7 @@
     <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
       <c r="B39" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>31</v>
       </c>
       <c r="C39" s="58" t="s">
@@ -13010,7 +13050,7 @@
         <v>44752</v>
       </c>
       <c r="G39" s="58">
-        <f t="shared" si="19"/>
+        <f>F39-E39</f>
         <v>1</v>
       </c>
       <c r="H39" s="59">
@@ -13020,7 +13060,7 @@
         <v>44752</v>
       </c>
       <c r="J39" s="60">
-        <f t="shared" si="20"/>
+        <f>I39-H39</f>
         <v>1</v>
       </c>
       <c r="K39" s="61">
@@ -13030,7 +13070,7 @@
     <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
       <c r="B40" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>32</v>
       </c>
       <c r="C40" s="58" t="s">
@@ -13046,7 +13086,7 @@
         <v>44752</v>
       </c>
       <c r="G40" s="58">
-        <f t="shared" si="19"/>
+        <f>F40-E40</f>
         <v>1</v>
       </c>
       <c r="H40" s="59">
@@ -13056,7 +13096,7 @@
         <v>44752</v>
       </c>
       <c r="J40" s="60">
-        <f t="shared" si="20"/>
+        <f>I40-H40</f>
         <v>1</v>
       </c>
       <c r="K40" s="61">
@@ -13066,7 +13106,7 @@
     <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
       <c r="B41" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>33</v>
       </c>
       <c r="C41" s="58" t="s">
@@ -13082,7 +13122,7 @@
         <v>44753</v>
       </c>
       <c r="G41" s="58">
-        <f t="shared" si="19"/>
+        <f>F41-E41</f>
         <v>1</v>
       </c>
       <c r="H41" s="59">
@@ -13092,7 +13132,7 @@
         <v>44753</v>
       </c>
       <c r="J41" s="60">
-        <f t="shared" si="20"/>
+        <f>I41-H41</f>
         <v>1</v>
       </c>
       <c r="K41" s="61">
@@ -13102,7 +13142,7 @@
     <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
       <c r="B42" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>34</v>
       </c>
       <c r="C42" s="58" t="s">
@@ -13118,7 +13158,7 @@
         <v>44753</v>
       </c>
       <c r="G42" s="58">
-        <f t="shared" si="19"/>
+        <f>F42-E42</f>
         <v>1</v>
       </c>
       <c r="H42" s="59">
@@ -13128,7 +13168,7 @@
         <v>44753</v>
       </c>
       <c r="J42" s="60">
-        <f t="shared" si="20"/>
+        <f>I42-H42</f>
         <v>1</v>
       </c>
       <c r="K42" s="61">
@@ -13138,7 +13178,7 @@
     <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>35</v>
       </c>
       <c r="C43" s="58" t="s">
@@ -13154,7 +13194,7 @@
         <v>44753</v>
       </c>
       <c r="G43" s="58">
-        <f t="shared" ref="G43" si="21">F43-E43</f>
+        <f>F43-E43</f>
         <v>1</v>
       </c>
       <c r="H43" s="59">
@@ -13164,7 +13204,7 @@
         <v>44753</v>
       </c>
       <c r="J43" s="60">
-        <f t="shared" ref="J43" si="22">I43-H43</f>
+        <f>I43-H43</f>
         <v>1</v>
       </c>
       <c r="K43" s="61">
@@ -13174,7 +13214,7 @@
     <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
       <c r="B44" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>36</v>
       </c>
       <c r="C44" s="58" t="s">
@@ -13190,7 +13230,7 @@
         <v>44754</v>
       </c>
       <c r="G44" s="58">
-        <f t="shared" si="19"/>
+        <f>F44-E44</f>
         <v>1</v>
       </c>
       <c r="H44" s="59">
@@ -13200,7 +13240,7 @@
         <v>44754</v>
       </c>
       <c r="J44" s="60">
-        <f t="shared" si="20"/>
+        <f>I44-H44</f>
         <v>1</v>
       </c>
       <c r="K44" s="61">
@@ -13210,7 +13250,7 @@
     <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
       <c r="B45" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>37</v>
       </c>
       <c r="C45" s="58" t="s">
@@ -13226,7 +13266,7 @@
         <v>44754</v>
       </c>
       <c r="G45" s="58">
-        <f t="shared" ref="G45" si="23">F45-E45</f>
+        <f>F45-E45</f>
         <v>1</v>
       </c>
       <c r="H45" s="59">
@@ -13236,7 +13276,7 @@
         <v>44754</v>
       </c>
       <c r="J45" s="60">
-        <f t="shared" ref="J45" si="24">I45-H45</f>
+        <f>I45-H45</f>
         <v>1</v>
       </c>
       <c r="K45" s="61">
@@ -13246,7 +13286,7 @@
     <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
       <c r="B46" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>38</v>
       </c>
       <c r="C46" s="58" t="s">
@@ -13262,7 +13302,7 @@
         <v>44751</v>
       </c>
       <c r="G46" s="58">
-        <f t="shared" si="19"/>
+        <f>F46-E46</f>
         <v>1</v>
       </c>
       <c r="H46" s="59">
@@ -13272,7 +13312,7 @@
         <v>44751</v>
       </c>
       <c r="J46" s="60">
-        <f t="shared" si="20"/>
+        <f>I46-H46</f>
         <v>1</v>
       </c>
       <c r="K46" s="61">
@@ -13282,7 +13322,7 @@
     <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
       <c r="B47" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>39</v>
       </c>
       <c r="C47" s="58" t="s">
@@ -13298,7 +13338,7 @@
         <v>44752</v>
       </c>
       <c r="G47" s="58">
-        <f t="shared" si="19"/>
+        <f>F47-E47</f>
         <v>1</v>
       </c>
       <c r="H47" s="59">
@@ -13308,7 +13348,7 @@
         <v>44751</v>
       </c>
       <c r="J47" s="60">
-        <f t="shared" si="20"/>
+        <f>I47-H47</f>
         <v>1</v>
       </c>
       <c r="K47" s="61">
@@ -13321,7 +13361,7 @@
     <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
       <c r="B48" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>40</v>
       </c>
       <c r="C48" s="58" t="s">
@@ -13337,7 +13377,7 @@
         <v>44752</v>
       </c>
       <c r="G48" s="58">
-        <f t="shared" ref="G48:G49" si="25">F48-E48</f>
+        <f>F48-E48</f>
         <v>1</v>
       </c>
       <c r="H48" s="59">
@@ -13347,17 +13387,17 @@
         <v>44752</v>
       </c>
       <c r="J48" s="60">
-        <f t="shared" ref="J48:J49" si="26">I48-H48</f>
+        <f>I48-H48</f>
         <v>1</v>
       </c>
       <c r="K48" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>41</v>
       </c>
       <c r="C49" s="58" t="s">
@@ -13373,7 +13413,7 @@
         <v>44752</v>
       </c>
       <c r="G49" s="58">
-        <f t="shared" si="25"/>
+        <f>F49-E49</f>
         <v>1</v>
       </c>
       <c r="H49" s="59">
@@ -13383,17 +13423,17 @@
         <v>44752</v>
       </c>
       <c r="J49" s="60">
-        <f t="shared" si="26"/>
+        <f>I49-H49</f>
         <v>1</v>
       </c>
       <c r="K49" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>42</v>
       </c>
       <c r="C50" s="58" t="s">
@@ -13409,7 +13449,7 @@
         <v>44754</v>
       </c>
       <c r="G50" s="58">
-        <f t="shared" si="19"/>
+        <f>F50-E50</f>
         <v>1</v>
       </c>
       <c r="H50" s="59">
@@ -13419,17 +13459,17 @@
         <v>44754</v>
       </c>
       <c r="J50" s="60">
-        <f t="shared" si="20"/>
+        <f>I50-H50</f>
         <v>1</v>
       </c>
       <c r="K50" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>43</v>
       </c>
       <c r="C51" s="58" t="s">
@@ -13445,7 +13485,7 @@
         <v>44754</v>
       </c>
       <c r="G51" s="58">
-        <f t="shared" si="19"/>
+        <f>F51-E51</f>
         <v>1</v>
       </c>
       <c r="H51" s="59">
@@ -13455,17 +13495,17 @@
         <v>44754</v>
       </c>
       <c r="J51" s="60">
-        <f t="shared" si="20"/>
+        <f>I51-H51</f>
         <v>1</v>
       </c>
       <c r="K51" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
       <c r="B52" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>44</v>
       </c>
       <c r="C52" s="58" t="s">
@@ -13481,7 +13521,7 @@
         <v>44754</v>
       </c>
       <c r="G52" s="58">
-        <f t="shared" si="19"/>
+        <f>F52-E52</f>
         <v>1</v>
       </c>
       <c r="H52" s="59">
@@ -13491,17 +13531,17 @@
         <v>44754</v>
       </c>
       <c r="J52" s="60">
-        <f t="shared" si="20"/>
+        <f>I52-H52</f>
         <v>1</v>
       </c>
       <c r="K52" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
       <c r="B53" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>45</v>
       </c>
       <c r="C53" s="58" t="s">
@@ -13517,7 +13557,7 @@
         <v>44754</v>
       </c>
       <c r="G53" s="58">
-        <f t="shared" si="19"/>
+        <f>F53-E53</f>
         <v>1</v>
       </c>
       <c r="H53" s="59">
@@ -13527,17 +13567,17 @@
         <v>44754</v>
       </c>
       <c r="J53" s="60">
-        <f t="shared" si="20"/>
+        <f>I53-H53</f>
         <v>1</v>
       </c>
       <c r="K53" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>46</v>
       </c>
       <c r="C54" s="58" t="s">
@@ -13553,7 +13593,7 @@
         <v>44754</v>
       </c>
       <c r="G54" s="58">
-        <f t="shared" si="19"/>
+        <f>F54-E54</f>
         <v>1</v>
       </c>
       <c r="H54" s="59">
@@ -13563,17 +13603,17 @@
         <v>44754</v>
       </c>
       <c r="J54" s="60">
-        <f t="shared" si="20"/>
+        <f>I54-H54</f>
         <v>1</v>
       </c>
       <c r="K54" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
       <c r="B55" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>47</v>
       </c>
       <c r="C55" s="58" t="s">
@@ -13589,7 +13629,7 @@
         <v>44753</v>
       </c>
       <c r="G55" s="58">
-        <f t="shared" si="19"/>
+        <f>F55-E55</f>
         <v>1</v>
       </c>
       <c r="H55" s="59">
@@ -13599,17 +13639,17 @@
         <v>44754</v>
       </c>
       <c r="J55" s="60">
-        <f t="shared" si="20"/>
+        <f>I55-H55</f>
         <v>1</v>
       </c>
       <c r="K55" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
       <c r="B56" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>48</v>
       </c>
       <c r="C56" s="58" t="s">
@@ -13625,7 +13665,7 @@
         <v>44753</v>
       </c>
       <c r="G56" s="58">
-        <f t="shared" si="19"/>
+        <f>F56-E56</f>
         <v>1</v>
       </c>
       <c r="H56" s="59">
@@ -13635,17 +13675,17 @@
         <v>44753</v>
       </c>
       <c r="J56" s="60">
-        <f t="shared" si="20"/>
+        <f>I56-H56</f>
         <v>1</v>
       </c>
       <c r="K56" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
       <c r="B57" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>49</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -13661,7 +13701,7 @@
         <v>44754</v>
       </c>
       <c r="G57" s="58">
-        <f t="shared" si="19"/>
+        <f>F57-E57</f>
         <v>1</v>
       </c>
       <c r="H57" s="59">
@@ -13671,17 +13711,17 @@
         <v>44754</v>
       </c>
       <c r="J57" s="60">
-        <f t="shared" si="20"/>
+        <f>I57-H57</f>
         <v>1</v>
       </c>
       <c r="K57" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
       <c r="B58" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>50</v>
       </c>
       <c r="C58" s="58" t="s">
@@ -13697,7 +13737,7 @@
         <v>44754</v>
       </c>
       <c r="G58" s="58">
-        <f t="shared" si="19"/>
+        <f>F58-E58</f>
         <v>1</v>
       </c>
       <c r="H58" s="59">
@@ -13707,17 +13747,17 @@
         <v>44754</v>
       </c>
       <c r="J58" s="60">
-        <f t="shared" si="20"/>
+        <f>I58-H58</f>
         <v>1</v>
       </c>
       <c r="K58" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
       <c r="B59" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>51</v>
       </c>
       <c r="C59" s="58" t="s">
@@ -13733,7 +13773,7 @@
         <v>44755</v>
       </c>
       <c r="G59" s="58">
-        <f t="shared" si="19"/>
+        <f>F59-E59</f>
         <v>1</v>
       </c>
       <c r="H59" s="59">
@@ -13743,17 +13783,17 @@
         <v>44755</v>
       </c>
       <c r="J59" s="60">
-        <f t="shared" si="20"/>
+        <f>I59-H59</f>
         <v>1</v>
       </c>
       <c r="K59" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="56"/>
       <c r="B60" s="112">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>52</v>
       </c>
       <c r="C60" s="58" t="s">
@@ -13769,7 +13809,7 @@
         <v>44753</v>
       </c>
       <c r="G60" s="58">
-        <f t="shared" si="19"/>
+        <f>F60-E60</f>
         <v>1</v>
       </c>
       <c r="H60" s="59">
@@ -13779,14 +13819,14 @@
         <v>44753</v>
       </c>
       <c r="J60" s="60">
-        <f t="shared" si="20"/>
+        <f>I60-H60</f>
         <v>1</v>
       </c>
       <c r="K60" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="56">
         <v>4</v>
       </c>
@@ -13802,7 +13842,7 @@
         <v>44753</v>
       </c>
       <c r="G61" s="58">
-        <f t="shared" si="0"/>
+        <f>F61-E61</f>
         <v>5</v>
       </c>
       <c r="H61" s="59">
@@ -13812,14 +13852,14 @@
         <v>44759</v>
       </c>
       <c r="J61" s="60">
-        <f t="shared" si="1"/>
+        <f>I61-H61</f>
         <v>2</v>
       </c>
       <c r="K61" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="56">
         <v>5</v>
       </c>
@@ -13835,21 +13875,21 @@
         <v>44770</v>
       </c>
       <c r="G62" s="58">
-        <f t="shared" si="0"/>
+        <f>F62-E62</f>
         <v>13</v>
       </c>
       <c r="H62" s="59"/>
       <c r="I62" s="59"/>
       <c r="J62" s="60">
-        <f t="shared" si="1"/>
+        <f>I62-H62</f>
         <v>0</v>
       </c>
       <c r="K62" s="107">
         <f>AVERAGE(K63:K115)</f>
-        <v>3.2075471698113207E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.44622641509433941</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="56"/>
       <c r="B63" s="109">
         <v>1</v>
@@ -13867,20 +13907,23 @@
         <v>44770</v>
       </c>
       <c r="G63" s="58">
-        <f t="shared" si="0"/>
+        <f>F63-E63</f>
         <v>13</v>
       </c>
       <c r="H63" s="59"/>
       <c r="I63" s="59"/>
       <c r="J63" s="60">
-        <f t="shared" si="1"/>
+        <f>I63-H63</f>
         <v>0</v>
       </c>
       <c r="K63" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="L63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="56"/>
       <c r="B64" s="109">
         <v>2</v>
@@ -13898,20 +13941,23 @@
         <v>44770</v>
       </c>
       <c r="G64" s="58">
-        <f t="shared" si="0"/>
+        <f>F64-E64</f>
         <v>13</v>
       </c>
       <c r="H64" s="59"/>
       <c r="I64" s="59"/>
       <c r="J64" s="60">
-        <f t="shared" si="1"/>
+        <f>I64-H64</f>
         <v>0</v>
       </c>
       <c r="K64" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="L64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="56"/>
       <c r="B65" s="109">
         <v>3</v>
@@ -13929,7 +13975,7 @@
         <v>44770</v>
       </c>
       <c r="G65" s="58">
-        <f t="shared" ref="G65:G77" si="27">F65-E65</f>
+        <f>F65-E65</f>
         <v>13</v>
       </c>
       <c r="H65" s="59">
@@ -13939,14 +13985,17 @@
         <v>44761</v>
       </c>
       <c r="J65" s="60">
-        <f t="shared" ref="J65:J77" si="28">I65-H65</f>
+        <f>I65-H65</f>
         <v>1</v>
       </c>
       <c r="K65" s="61">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="56"/>
       <c r="B66" s="109">
         <v>4</v>
@@ -13964,7 +14013,7 @@
         <v>44770</v>
       </c>
       <c r="G66" s="58">
-        <f t="shared" si="27"/>
+        <f>F66-E66</f>
         <v>13</v>
       </c>
       <c r="H66" s="59">
@@ -13974,14 +14023,17 @@
         <v>44761</v>
       </c>
       <c r="J66" s="60">
-        <f t="shared" si="28"/>
+        <f>I66-H66</f>
         <v>1</v>
       </c>
       <c r="K66" s="61">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
       <c r="B67" s="109">
         <v>5</v>
@@ -13999,20 +14051,23 @@
         <v>44770</v>
       </c>
       <c r="G67" s="58">
-        <f t="shared" si="27"/>
+        <f>F67-E67</f>
         <v>13</v>
       </c>
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
       <c r="J67" s="60">
-        <f t="shared" si="28"/>
+        <f>I67-H67</f>
         <v>0</v>
       </c>
       <c r="K67" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L67">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="109">
         <v>6</v>
@@ -14030,20 +14085,23 @@
         <v>44770</v>
       </c>
       <c r="G68" s="58">
-        <f t="shared" si="27"/>
+        <f>F68-E68</f>
         <v>13</v>
       </c>
       <c r="H68" s="59"/>
       <c r="I68" s="59"/>
       <c r="J68" s="60">
-        <f t="shared" si="28"/>
+        <f>I68-H68</f>
         <v>0</v>
       </c>
       <c r="K68" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="56"/>
       <c r="B69" s="109">
         <v>7</v>
@@ -14061,20 +14119,23 @@
         <v>44770</v>
       </c>
       <c r="G69" s="58">
-        <f t="shared" si="27"/>
+        <f>F69-E69</f>
         <v>13</v>
       </c>
       <c r="H69" s="59"/>
       <c r="I69" s="106"/>
       <c r="J69" s="60">
-        <f t="shared" si="28"/>
+        <f>I69-H69</f>
         <v>0</v>
       </c>
       <c r="K69" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="56"/>
       <c r="B70" s="109">
         <v>8</v>
@@ -14092,20 +14153,20 @@
         <v>44770</v>
       </c>
       <c r="G70" s="58">
-        <f t="shared" si="27"/>
+        <f>F70-E70</f>
         <v>13</v>
       </c>
       <c r="H70" s="59"/>
       <c r="I70" s="59"/>
       <c r="J70" s="60">
-        <f t="shared" si="28"/>
+        <f>I70-H70</f>
         <v>0</v>
       </c>
       <c r="K70" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="56"/>
       <c r="B71" s="109">
         <v>9</v>
@@ -14123,20 +14184,20 @@
         <v>44770</v>
       </c>
       <c r="G71" s="58">
-        <f t="shared" si="27"/>
+        <f>F71-E71</f>
         <v>13</v>
       </c>
       <c r="H71" s="59"/>
       <c r="I71" s="59"/>
       <c r="J71" s="60">
-        <f t="shared" si="28"/>
+        <f>I71-H71</f>
         <v>0</v>
       </c>
       <c r="K71" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
       <c r="B72" s="109">
         <v>10</v>
@@ -14154,20 +14215,20 @@
         <v>44770</v>
       </c>
       <c r="G72" s="58">
-        <f t="shared" si="27"/>
+        <f>F72-E72</f>
         <v>13</v>
       </c>
       <c r="H72" s="59"/>
       <c r="I72" s="59"/>
       <c r="J72" s="60">
-        <f t="shared" si="28"/>
+        <f>I72-H72</f>
         <v>0</v>
       </c>
       <c r="K72" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="56"/>
       <c r="B73" s="109">
         <v>11</v>
@@ -14185,20 +14246,20 @@
         <v>44770</v>
       </c>
       <c r="G73" s="58">
-        <f t="shared" si="27"/>
+        <f>F73-E73</f>
         <v>13</v>
       </c>
       <c r="H73" s="59"/>
       <c r="I73" s="59"/>
       <c r="J73" s="60">
-        <f t="shared" si="28"/>
+        <f>I73-H73</f>
         <v>0</v>
       </c>
       <c r="K73" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="56"/>
       <c r="B74" s="109">
         <v>12</v>
@@ -14216,20 +14277,23 @@
         <v>44770</v>
       </c>
       <c r="G74" s="58">
-        <f t="shared" si="27"/>
+        <f>F74-E74</f>
         <v>13</v>
       </c>
       <c r="H74" s="59"/>
       <c r="I74" s="59"/>
       <c r="J74" s="60">
-        <f t="shared" si="28"/>
+        <f>I74-H74</f>
         <v>0</v>
       </c>
       <c r="K74" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="109">
         <v>13</v>
@@ -14247,20 +14311,23 @@
         <v>44770</v>
       </c>
       <c r="G75" s="58">
-        <f t="shared" si="27"/>
+        <f>F75-E75</f>
         <v>13</v>
       </c>
       <c r="H75" s="59"/>
       <c r="I75" s="105"/>
       <c r="J75" s="60">
-        <f t="shared" si="28"/>
+        <f>I75-H75</f>
         <v>0</v>
       </c>
       <c r="K75" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L75">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="56"/>
       <c r="B76" s="109">
         <v>14</v>
@@ -14278,20 +14345,20 @@
         <v>44770</v>
       </c>
       <c r="G76" s="58">
-        <f t="shared" si="27"/>
+        <f>F76-E76</f>
         <v>13</v>
       </c>
       <c r="H76" s="59"/>
       <c r="I76" s="59"/>
       <c r="J76" s="60">
-        <f t="shared" si="28"/>
+        <f>I76-H76</f>
         <v>0</v>
       </c>
       <c r="K76" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="56"/>
       <c r="B77" s="109">
         <v>15</v>
@@ -14309,20 +14376,23 @@
         <v>44770</v>
       </c>
       <c r="G77" s="58">
-        <f t="shared" si="27"/>
+        <f>F77-E77</f>
         <v>13</v>
       </c>
       <c r="H77" s="59"/>
       <c r="I77" s="59"/>
       <c r="J77" s="60">
-        <f t="shared" si="28"/>
+        <f>I77-H77</f>
         <v>0</v>
       </c>
       <c r="K77" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="56"/>
       <c r="B78" s="109">
         <v>16</v>
@@ -14350,10 +14420,13 @@
         <v>0</v>
       </c>
       <c r="K78" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="56"/>
       <c r="B79" s="109">
         <v>17</v>
@@ -14371,20 +14444,23 @@
         <v>44770</v>
       </c>
       <c r="G79" s="58">
-        <f t="shared" ref="G79:G114" si="29">F79-E79</f>
+        <f>F79-E79</f>
         <v>13</v>
       </c>
       <c r="H79" s="59"/>
       <c r="I79" s="59"/>
       <c r="J79" s="60">
-        <f t="shared" ref="J79:J114" si="30">I79-H79</f>
+        <f>I79-H79</f>
         <v>0</v>
       </c>
       <c r="K79" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L79">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="56"/>
       <c r="B80" s="109">
         <v>18</v>
@@ -14402,51 +14478,57 @@
         <v>44770</v>
       </c>
       <c r="G80" s="58">
-        <f t="shared" si="29"/>
+        <f>F80-E80</f>
         <v>13</v>
       </c>
       <c r="H80" s="59"/>
       <c r="I80" s="59"/>
       <c r="J80" s="60">
-        <f t="shared" si="30"/>
+        <f>I80-H80</f>
         <v>0</v>
       </c>
       <c r="K80" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="L80">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A81" s="56"/>
+      <c r="B81" s="171">
+        <v>19</v>
+      </c>
+      <c r="C81" s="172" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="174">
+        <v>44757</v>
+      </c>
+      <c r="F81" s="174">
+        <v>44770</v>
+      </c>
+      <c r="G81" s="172">
+        <f>F81-E81</f>
+        <v>13</v>
+      </c>
+      <c r="H81" s="174"/>
+      <c r="I81" s="174"/>
+      <c r="J81" s="175">
+        <f>I81-H81</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
-      <c r="B81" s="109">
-        <v>19</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="59">
-        <v>44757</v>
-      </c>
-      <c r="F81" s="59">
-        <v>44770</v>
-      </c>
-      <c r="G81" s="58">
-        <f t="shared" si="29"/>
-        <v>13</v>
-      </c>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="60">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="K81" s="176">
+        <v>0.5</v>
+      </c>
+      <c r="L81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="56"/>
       <c r="B82" s="109">
         <v>20</v>
@@ -14464,20 +14546,23 @@
         <v>44770</v>
       </c>
       <c r="G82" s="58">
-        <f t="shared" si="29"/>
+        <f>F82-E82</f>
         <v>13</v>
       </c>
       <c r="H82" s="59"/>
       <c r="I82" s="59"/>
       <c r="J82" s="60">
-        <f t="shared" si="30"/>
+        <f>I82-H82</f>
         <v>0</v>
       </c>
       <c r="K82" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L82">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="56"/>
       <c r="B83" s="109">
         <v>21</v>
@@ -14495,20 +14580,23 @@
         <v>44770</v>
       </c>
       <c r="G83" s="58">
-        <f t="shared" si="29"/>
+        <f>F83-E83</f>
         <v>13</v>
       </c>
       <c r="H83" s="59"/>
       <c r="I83" s="59"/>
       <c r="J83" s="60">
-        <f t="shared" si="30"/>
+        <f>I83-H83</f>
         <v>0</v>
       </c>
       <c r="K83" s="61">
+        <v>0.85</v>
+      </c>
+      <c r="L83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="56"/>
       <c r="B84" s="109">
         <v>22</v>
@@ -14526,20 +14614,23 @@
         <v>44770</v>
       </c>
       <c r="G84" s="58">
-        <f t="shared" si="29"/>
+        <f>F84-E84</f>
         <v>13</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
       <c r="J84" s="60">
-        <f t="shared" si="30"/>
+        <f>I84-H84</f>
         <v>0</v>
       </c>
       <c r="K84" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="56"/>
       <c r="B85" s="109">
         <v>23</v>
@@ -14557,20 +14648,23 @@
         <v>44770</v>
       </c>
       <c r="G85" s="58">
-        <f t="shared" si="29"/>
+        <f>F85-E85</f>
         <v>13</v>
       </c>
       <c r="H85" s="59"/>
       <c r="I85" s="59"/>
       <c r="J85" s="60">
-        <f t="shared" si="30"/>
+        <f>I85-H85</f>
         <v>0</v>
       </c>
       <c r="K85" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="56"/>
       <c r="B86" s="109">
         <v>24</v>
@@ -14578,8 +14672,8 @@
       <c r="C86" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D86" s="105" t="s">
-        <v>132</v>
+      <c r="D86" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="E86" s="59">
         <v>44757</v>
@@ -14588,20 +14682,23 @@
         <v>44770</v>
       </c>
       <c r="G86" s="58">
-        <f t="shared" si="29"/>
+        <f>F86-E86</f>
         <v>13</v>
       </c>
       <c r="H86" s="59"/>
       <c r="I86" s="59"/>
       <c r="J86" s="60">
-        <f t="shared" si="30"/>
+        <f>I86-H86</f>
         <v>0</v>
       </c>
       <c r="K86" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="56"/>
       <c r="B87" s="112">
         <v>25</v>
@@ -14619,20 +14716,23 @@
         <v>44770</v>
       </c>
       <c r="G87" s="58">
-        <f t="shared" si="29"/>
+        <f>F87-E87</f>
         <v>13</v>
       </c>
       <c r="H87" s="59"/>
       <c r="I87" s="59"/>
       <c r="J87" s="60">
-        <f t="shared" si="30"/>
+        <f>I87-H87</f>
         <v>0</v>
       </c>
       <c r="K87" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="56"/>
       <c r="B88" s="112">
         <v>26</v>
@@ -14650,20 +14750,23 @@
         <v>44770</v>
       </c>
       <c r="G88" s="58">
-        <f t="shared" si="29"/>
+        <f>F88-E88</f>
         <v>13</v>
       </c>
       <c r="H88" s="59"/>
       <c r="I88" s="59"/>
       <c r="J88" s="60">
-        <f t="shared" si="30"/>
+        <f>I88-H88</f>
         <v>0</v>
       </c>
       <c r="K88" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="56"/>
       <c r="B89" s="112">
         <v>27</v>
@@ -14681,20 +14784,23 @@
         <v>44770</v>
       </c>
       <c r="G89" s="58">
-        <f t="shared" si="29"/>
+        <f>F89-E89</f>
         <v>13</v>
       </c>
       <c r="H89" s="59"/>
       <c r="I89" s="59"/>
       <c r="J89" s="60">
-        <f t="shared" si="30"/>
+        <f>I89-H89</f>
         <v>0</v>
       </c>
       <c r="K89" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="56"/>
       <c r="B90" s="112">
         <v>28</v>
@@ -14712,20 +14818,23 @@
         <v>44770</v>
       </c>
       <c r="G90" s="58">
-        <f t="shared" si="29"/>
+        <f>F90-E90</f>
         <v>13</v>
       </c>
       <c r="H90" s="59"/>
       <c r="I90" s="59"/>
       <c r="J90" s="60">
-        <f t="shared" si="30"/>
+        <f>I90-H90</f>
         <v>0</v>
       </c>
       <c r="K90" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="56"/>
       <c r="B91" s="112">
         <v>29</v>
@@ -14743,20 +14852,23 @@
         <v>44770</v>
       </c>
       <c r="G91" s="58">
-        <f t="shared" si="29"/>
+        <f>F91-E91</f>
         <v>13</v>
       </c>
       <c r="H91" s="59"/>
       <c r="I91" s="59"/>
       <c r="J91" s="60">
-        <f t="shared" si="30"/>
+        <f>I91-H91</f>
         <v>0</v>
       </c>
       <c r="K91" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="L91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
       <c r="B92" s="112">
         <v>30</v>
@@ -14774,20 +14886,20 @@
         <v>44770</v>
       </c>
       <c r="G92" s="58">
-        <f t="shared" si="29"/>
+        <f>F92-E92</f>
         <v>13</v>
       </c>
       <c r="H92" s="59"/>
       <c r="I92" s="59"/>
       <c r="J92" s="60">
-        <f t="shared" si="30"/>
+        <f>I92-H92</f>
         <v>0</v>
       </c>
       <c r="K92" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="56"/>
       <c r="B93" s="112">
         <v>31</v>
@@ -14805,20 +14917,20 @@
         <v>44770</v>
       </c>
       <c r="G93" s="58">
-        <f t="shared" si="29"/>
+        <f>F93-E93</f>
         <v>13</v>
       </c>
       <c r="H93" s="59"/>
       <c r="I93" s="59"/>
       <c r="J93" s="60">
-        <f t="shared" si="30"/>
+        <f>I93-H93</f>
         <v>0</v>
       </c>
       <c r="K93" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="56"/>
       <c r="B94" s="112">
         <v>32</v>
@@ -14836,20 +14948,20 @@
         <v>44770</v>
       </c>
       <c r="G94" s="58">
-        <f t="shared" si="29"/>
+        <f>F94-E94</f>
         <v>13</v>
       </c>
       <c r="H94" s="59"/>
       <c r="I94" s="59"/>
       <c r="J94" s="60">
-        <f t="shared" si="30"/>
+        <f>I94-H94</f>
         <v>0</v>
       </c>
       <c r="K94" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="56"/>
       <c r="B95" s="112">
         <v>33</v>
@@ -14867,20 +14979,23 @@
         <v>44770</v>
       </c>
       <c r="G95" s="58">
-        <f t="shared" si="29"/>
+        <f>F95-E95</f>
         <v>13</v>
       </c>
       <c r="H95" s="59"/>
       <c r="I95" s="59"/>
       <c r="J95" s="60">
-        <f t="shared" si="30"/>
+        <f>I95-H95</f>
         <v>0</v>
       </c>
       <c r="K95" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="56"/>
       <c r="B96" s="112">
         <v>34</v>
@@ -14898,17 +15013,20 @@
         <v>44770</v>
       </c>
       <c r="G96" s="58">
-        <f t="shared" si="29"/>
+        <f>F96-E96</f>
         <v>13</v>
       </c>
       <c r="H96" s="59"/>
       <c r="I96" s="59"/>
       <c r="J96" s="60">
-        <f t="shared" si="30"/>
+        <f>I96-H96</f>
         <v>0</v>
       </c>
       <c r="K96" s="61">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="L96">
+        <v>1.5</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -14929,17 +15047,20 @@
         <v>44770</v>
       </c>
       <c r="G97" s="58">
-        <f t="shared" si="29"/>
+        <f>F97-E97</f>
         <v>13</v>
       </c>
       <c r="H97" s="59"/>
       <c r="I97" s="59"/>
       <c r="J97" s="60">
-        <f t="shared" si="30"/>
+        <f>I97-H97</f>
         <v>0</v>
       </c>
       <c r="K97" s="61">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="L97">
+        <v>1.5</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -14960,17 +15081,20 @@
         <v>44770</v>
       </c>
       <c r="G98" s="58">
-        <f t="shared" si="29"/>
+        <f>F98-E98</f>
         <v>13</v>
       </c>
       <c r="H98" s="59"/>
       <c r="I98" s="59"/>
       <c r="J98" s="60">
-        <f t="shared" si="30"/>
+        <f>I98-H98</f>
         <v>0</v>
       </c>
       <c r="K98" s="61">
         <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -14991,17 +15115,20 @@
         <v>44770</v>
       </c>
       <c r="G99" s="58">
-        <f t="shared" si="29"/>
+        <f>F99-E99</f>
         <v>13</v>
       </c>
       <c r="H99" s="59"/>
       <c r="I99" s="59"/>
       <c r="J99" s="60">
-        <f t="shared" si="30"/>
+        <f>I99-H99</f>
         <v>0</v>
       </c>
       <c r="K99" s="61">
         <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -15022,47 +15149,50 @@
         <v>44770</v>
       </c>
       <c r="G100" s="58">
-        <f t="shared" si="29"/>
+        <f>F100-E100</f>
         <v>13</v>
       </c>
       <c r="H100" s="59"/>
       <c r="I100" s="105"/>
       <c r="J100" s="60">
-        <f t="shared" si="30"/>
+        <f>I100-H100</f>
         <v>0</v>
       </c>
       <c r="K100" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="L100">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="122"/>
+      <c r="B101" s="123">
+        <v>39</v>
+      </c>
+      <c r="C101" s="124" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="E101" s="125">
+        <v>44757</v>
+      </c>
+      <c r="F101" s="125">
+        <v>44770</v>
+      </c>
+      <c r="G101" s="124">
+        <f>F101-E101</f>
+        <v>13</v>
+      </c>
+      <c r="H101" s="125"/>
+      <c r="I101" s="126"/>
+      <c r="J101" s="127">
+        <f>I101-H101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
-      <c r="B101" s="112">
-        <v>39</v>
-      </c>
-      <c r="C101" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="E101" s="59">
-        <v>44757</v>
-      </c>
-      <c r="F101" s="59">
-        <v>44770</v>
-      </c>
-      <c r="G101" s="58">
-        <f t="shared" si="29"/>
-        <v>13</v>
-      </c>
-      <c r="H101" s="59"/>
-      <c r="I101" s="105"/>
-      <c r="J101" s="60">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K101" s="61">
+      <c r="K101" s="128">
         <v>0</v>
       </c>
       <c r="L101" s="110" t="s">
@@ -15087,17 +15217,17 @@
         <v>44770</v>
       </c>
       <c r="G102" s="58">
-        <f t="shared" si="29"/>
+        <f>F102-E102</f>
         <v>13</v>
       </c>
       <c r="H102" s="59"/>
       <c r="I102" s="59"/>
       <c r="J102" s="60">
-        <f t="shared" si="30"/>
+        <f>I102-H102</f>
         <v>0</v>
       </c>
       <c r="K102" s="61">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -15118,17 +15248,17 @@
         <v>44770</v>
       </c>
       <c r="G103" s="58">
-        <f t="shared" si="29"/>
+        <f>F103-E103</f>
         <v>13</v>
       </c>
       <c r="H103" s="59"/>
       <c r="I103" s="59"/>
       <c r="J103" s="60">
-        <f t="shared" si="30"/>
+        <f>I103-H103</f>
         <v>0</v>
       </c>
       <c r="K103" s="61">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -15149,17 +15279,20 @@
         <v>44770</v>
       </c>
       <c r="G104" s="58">
-        <f t="shared" si="29"/>
+        <f>F104-E104</f>
         <v>13</v>
       </c>
       <c r="H104" s="59"/>
       <c r="I104" s="59"/>
       <c r="J104" s="60">
-        <f t="shared" si="30"/>
+        <f>I104-H104</f>
         <v>0</v>
       </c>
       <c r="K104" s="61">
         <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -15180,17 +15313,20 @@
         <v>44770</v>
       </c>
       <c r="G105" s="58">
-        <f t="shared" si="29"/>
+        <f>F105-E105</f>
         <v>13</v>
       </c>
       <c r="H105" s="59"/>
       <c r="I105" s="59"/>
       <c r="J105" s="60">
-        <f t="shared" si="30"/>
+        <f>I105-H105</f>
         <v>0</v>
       </c>
       <c r="K105" s="61">
         <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -15211,16 +15347,19 @@
         <v>44770</v>
       </c>
       <c r="G106" s="58">
-        <f t="shared" si="29"/>
+        <f>F106-E106</f>
         <v>13</v>
       </c>
       <c r="H106" s="59"/>
       <c r="I106" s="59"/>
       <c r="J106" s="60">
-        <f t="shared" si="30"/>
+        <f>I106-H106</f>
         <v>0</v>
       </c>
       <c r="K106" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="L106">
         <v>0</v>
       </c>
     </row>
@@ -15242,16 +15381,19 @@
         <v>44770</v>
       </c>
       <c r="G107" s="58">
-        <f t="shared" si="29"/>
+        <f>F107-E107</f>
         <v>13</v>
       </c>
       <c r="H107" s="59"/>
       <c r="I107" s="59"/>
       <c r="J107" s="60">
-        <f t="shared" si="30"/>
+        <f>I107-H107</f>
         <v>0</v>
       </c>
       <c r="K107" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="L107">
         <v>0</v>
       </c>
     </row>
@@ -15273,16 +15415,19 @@
         <v>44770</v>
       </c>
       <c r="G108" s="58">
-        <f t="shared" si="29"/>
+        <f>F108-E108</f>
         <v>13</v>
       </c>
       <c r="H108" s="59"/>
       <c r="I108" s="59"/>
       <c r="J108" s="60">
-        <f t="shared" si="30"/>
+        <f>I108-H108</f>
         <v>0</v>
       </c>
       <c r="K108" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="L108">
         <v>0</v>
       </c>
     </row>
@@ -15304,17 +15449,20 @@
         <v>44770</v>
       </c>
       <c r="G109" s="58">
-        <f t="shared" si="29"/>
+        <f>F109-E109</f>
         <v>13</v>
       </c>
       <c r="H109" s="59"/>
       <c r="I109" s="59"/>
       <c r="J109" s="60">
-        <f t="shared" si="30"/>
+        <f>I109-H109</f>
         <v>0</v>
       </c>
       <c r="K109" s="61">
         <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1.5</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -15335,17 +15483,20 @@
         <v>44770</v>
       </c>
       <c r="G110" s="58">
-        <f t="shared" si="29"/>
+        <f>F110-E110</f>
         <v>13</v>
       </c>
       <c r="H110" s="59"/>
       <c r="I110" s="59"/>
       <c r="J110" s="60">
-        <f t="shared" si="30"/>
+        <f>I110-H110</f>
         <v>0</v>
       </c>
       <c r="K110" s="61">
         <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -15366,16 +15517,19 @@
         <v>44770</v>
       </c>
       <c r="G111" s="58">
-        <f t="shared" si="29"/>
+        <f>F111-E111</f>
         <v>13</v>
       </c>
       <c r="H111" s="59"/>
       <c r="I111" s="59"/>
       <c r="J111" s="60">
-        <f t="shared" si="30"/>
+        <f>I111-H111</f>
         <v>0</v>
       </c>
       <c r="K111" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="L111">
         <v>0</v>
       </c>
     </row>
@@ -15397,20 +15551,23 @@
         <v>44770</v>
       </c>
       <c r="G112" s="58">
-        <f t="shared" si="29"/>
+        <f>F112-E112</f>
         <v>13</v>
       </c>
       <c r="H112" s="59"/>
       <c r="I112" s="59"/>
       <c r="J112" s="60">
-        <f t="shared" si="30"/>
+        <f>I112-H112</f>
         <v>0</v>
       </c>
       <c r="K112" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A113" s="56"/>
       <c r="B113" s="112">
         <v>51</v>
@@ -15428,20 +15585,23 @@
         <v>44770</v>
       </c>
       <c r="G113" s="58">
-        <f t="shared" si="29"/>
+        <f>F113-E113</f>
         <v>13</v>
       </c>
       <c r="H113" s="59"/>
       <c r="I113" s="59"/>
       <c r="J113" s="60">
-        <f t="shared" si="30"/>
+        <f>I113-H113</f>
         <v>0</v>
       </c>
       <c r="K113" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="L113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A114" s="56"/>
       <c r="B114" s="112">
         <v>52</v>
@@ -15449,24 +15609,33 @@
       <c r="C114" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="D114" s="113"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
+      <c r="D114" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="59">
+        <v>44757</v>
+      </c>
+      <c r="F114" s="59">
+        <v>44770</v>
+      </c>
       <c r="G114" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f>F114-E114</f>
+        <v>13</v>
       </c>
       <c r="H114" s="59"/>
       <c r="I114" s="59"/>
       <c r="J114" s="60">
-        <f t="shared" si="30"/>
+        <f>I114-H114</f>
         <v>0</v>
       </c>
       <c r="K114" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A115" s="56">
         <v>6</v>
       </c>
@@ -15478,7 +15647,7 @@
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
       <c r="G115" s="58">
-        <f t="shared" ref="G115:G116" si="31">F115-E115</f>
+        <f t="shared" ref="G115:G116" si="7">F115-E115</f>
         <v>0</v>
       </c>
       <c r="H115" s="59"/>
@@ -15491,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A116" s="56">
         <v>7</v>
       </c>
@@ -15503,7 +15672,7 @@
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
       <c r="G116" s="58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H116" s="59"/>
@@ -15516,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="62"/>
       <c r="B117" s="63"/>
       <c r="C117" s="64"/>
@@ -15532,86 +15701,86 @@
       </c>
       <c r="K117" s="67"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118">
         <f>SUM(G6:G117)</f>
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G119" s="2">
         <f>G118/30</f>
-        <v>26.166666666666668</v>
+        <v>26.866666666666667</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="H128" s="1"/>
@@ -15619,7 +15788,11 @@
       <c r="J128" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K119" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}"/>
+  <autoFilter ref="A5:K119" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:K114">
+      <sortCondition descending="1" ref="D5:D119"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:L3"/>
@@ -15647,51 +15820,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134" t="str">
+      <c r="B2" s="138"/>
+      <c r="C2" s="141" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="139"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="141"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -15701,89 +15874,89 @@
       <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="149"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="150"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="157"/>
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="153"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="160"/>
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="153"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="160"/>
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="153"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="160"/>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="155"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="156"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="163"/>
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -15791,44 +15964,44 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="144"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="151"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="145"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="154"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
@@ -16233,51 +16406,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134" t="str">
+      <c r="B2" s="138"/>
+      <c r="C2" s="141" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="139"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="141"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -16604,56 +16777,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="134" t="str">
+      <c r="B1" s="165"/>
+      <c r="C1" s="141" t="str">
         <f>[1]Cover!A31</f>
         <v>Food_Lab</v>
       </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
       <c r="O1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="138">
+      <c r="P1" s="145">
         <v>44555</v>
       </c>
-      <c r="Q1" s="139"/>
+      <c r="Q1" s="146"/>
     </row>
     <row r="2" spans="1:19" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
       <c r="O2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="140">
+      <c r="P2" s="147">
         <f ca="1">NOW()</f>
-        <v>44761.723653240741</v>
-      </c>
-      <c r="Q2" s="141"/>
+        <v>44766.857009259256</v>
+      </c>
+      <c r="Q2" s="148"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
@@ -18082,47 +18255,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="134" t="str">
+      <c r="B2" s="138"/>
+      <c r="C2" s="141" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="138"/>
-      <c r="O2" s="139"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="140"/>
-      <c r="O3" s="141"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="148"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
@@ -18564,19 +18737,19 @@
     </row>
     <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" s="78"/>
-      <c r="E3" s="162">
+      <c r="E3" s="169">
         <v>1</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="162">
+      <c r="G3" s="169">
         <v>2</v>
       </c>
       <c r="H3" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="162">
+      <c r="I3" s="169">
         <v>3</v>
       </c>
       <c r="J3" s="81" t="s">
@@ -18586,15 +18759,15 @@
     </row>
     <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" s="78"/>
-      <c r="E4" s="162"/>
+      <c r="E4" s="169"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="162"/>
+      <c r="G4" s="169"/>
       <c r="H4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="162"/>
+      <c r="I4" s="169"/>
       <c r="J4" s="74" t="s">
         <v>51</v>
       </c>
@@ -18605,15 +18778,15 @@
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D5" s="78"/>
-      <c r="E5" s="162"/>
+      <c r="E5" s="169"/>
       <c r="F5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="162"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="162"/>
+      <c r="I5" s="169"/>
       <c r="J5" s="74" t="s">
         <v>50</v>
       </c>
@@ -18647,13 +18820,13 @@
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D8" s="78"/>
-      <c r="E8" s="162">
+      <c r="E8" s="169">
         <v>4</v>
       </c>
       <c r="F8" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="162">
+      <c r="G8" s="169">
         <v>5</v>
       </c>
       <c r="H8" s="87" t="s">
@@ -18663,11 +18836,11 @@
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D9" s="78"/>
-      <c r="E9" s="162"/>
+      <c r="E9" s="169"/>
       <c r="F9" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="162"/>
+      <c r="G9" s="169"/>
       <c r="H9" s="74" t="s">
         <v>75</v>
       </c>
@@ -18675,9 +18848,9 @@
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D10" s="83"/>
-      <c r="E10" s="163"/>
+      <c r="E10" s="170"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="163"/>
+      <c r="G10" s="170"/>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
       <c r="J10" s="84"/>
@@ -18701,14 +18874,14 @@
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D12" s="78"/>
-      <c r="F12" s="161" t="s">
+      <c r="F12" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
       <c r="N12" s="82"/>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.3">

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Level-Up/02.Design Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/level-up-docs/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB636B54-D2EF-B74F-886B-947EBA8CB372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C14E024-B721-C248-921B-E9DD590AA0A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4820" yWindow="-20940" windowWidth="33500" windowHeight="20460" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -37,14 +37,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1732,6 +1724,12 @@
     <xf numFmtId="164" fontId="22" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1854,12 +1852,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -10378,9 +10370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAFE950-5B3C-524E-9704-0609BF069824}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10473,22 +10463,22 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="92" x14ac:dyDescent="0.2">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="136"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="142"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
@@ -10507,22 +10497,22 @@
       <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="139"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
@@ -10605,10 +10595,10 @@
     </row>
     <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
-      <c r="B42" s="129" t="s">
+      <c r="B42" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="129"/>
+      <c r="C42" s="135"/>
       <c r="D42" s="18">
         <v>1</v>
       </c>
@@ -10669,10 +10659,10 @@
     </row>
     <row r="48" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="K48" s="130" t="s">
+      <c r="K48" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="130"/>
+      <c r="L48" s="136"/>
       <c r="M48" s="17">
         <v>44740</v>
       </c>
@@ -10680,10 +10670,10 @@
     </row>
     <row r="49" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="K49" s="130" t="s">
+      <c r="K49" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="130"/>
+      <c r="L49" s="136"/>
       <c r="M49" s="17"/>
       <c r="N49" s="13"/>
     </row>
@@ -10737,56 +10727,56 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="141" t="str">
+      <c r="B2" s="144"/>
+      <c r="C2" s="147" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="145">
+      <c r="P2" s="151">
         <v>44740</v>
       </c>
-      <c r="Q2" s="146"/>
+      <c r="Q2" s="152"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="147">
+      <c r="P3" s="153">
         <f ca="1">NOW()</f>
-        <v>44766.857009259256</v>
-      </c>
-      <c r="Q3" s="148"/>
+        <v>44769.489709606481</v>
+      </c>
+      <c r="Q3" s="154"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -11755,8 +11745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
   <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A96" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="I72" sqref="F72:I111"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11775,47 +11765,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="141" t="str">
+      <c r="B2" s="144"/>
+      <c r="C2" s="147" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="146"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="147"/>
-      <c r="O3" s="148"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="154"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -11904,7 +11894,7 @@
         <v>44747</v>
       </c>
       <c r="G7" s="58">
-        <f t="shared" ref="G7:G64" si="0">F7-E7</f>
+        <f t="shared" ref="G7:G15" si="0">F7-E7</f>
         <v>2</v>
       </c>
       <c r="H7" s="59"/>
@@ -11990,7 +11980,7 @@
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
       <c r="B10" s="109">
-        <f t="shared" ref="B10:B60" si="4">ROW()-8</f>
+        <f t="shared" ref="B10:B15" si="4">ROW()-8</f>
         <v>2</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -12206,7 +12196,7 @@
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
       <c r="B16" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" ref="B16:B60" si="7">ROW()-8</f>
         <v>8</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -12222,7 +12212,7 @@
         <v>44748</v>
       </c>
       <c r="G16" s="58">
-        <f>F16-E16</f>
+        <f t="shared" ref="G16:G47" si="8">F16-E16</f>
         <v>1</v>
       </c>
       <c r="H16" s="59">
@@ -12232,7 +12222,7 @@
         <v>44748</v>
       </c>
       <c r="J16" s="60">
-        <f>I16-H16</f>
+        <f t="shared" ref="J16:J47" si="9">I16-H16</f>
         <v>1</v>
       </c>
       <c r="K16" s="61">
@@ -12242,7 +12232,7 @@
     <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
       <c r="B17" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -12258,7 +12248,7 @@
         <v>44748</v>
       </c>
       <c r="G17" s="58">
-        <f>F17-E17</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H17" s="59">
@@ -12268,7 +12258,7 @@
         <v>44748</v>
       </c>
       <c r="J17" s="60">
-        <f>I17-H17</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K17" s="61">
@@ -12278,7 +12268,7 @@
     <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C18" s="58" t="s">
@@ -12294,7 +12284,7 @@
         <v>44749</v>
       </c>
       <c r="G18" s="58">
-        <f>F18-E18</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H18" s="59">
@@ -12304,7 +12294,7 @@
         <v>44749</v>
       </c>
       <c r="J18" s="60">
-        <f>I18-H18</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K18" s="61">
@@ -12314,7 +12304,7 @@
     <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -12330,7 +12320,7 @@
         <v>44749</v>
       </c>
       <c r="G19" s="58">
-        <f>F19-E19</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H19" s="59">
@@ -12340,7 +12330,7 @@
         <v>44749</v>
       </c>
       <c r="J19" s="60">
-        <f>I19-H19</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K19" s="61">
@@ -12350,7 +12340,7 @@
     <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="C20" s="58" t="s">
@@ -12366,7 +12356,7 @@
         <v>44749</v>
       </c>
       <c r="G20" s="58">
-        <f>F20-E20</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H20" s="59">
@@ -12376,7 +12366,7 @@
         <v>44749</v>
       </c>
       <c r="J20" s="60">
-        <f>I20-H20</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K20" s="61">
@@ -12386,7 +12376,7 @@
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
       <c r="B21" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="C21" s="58" t="s">
@@ -12402,7 +12392,7 @@
         <v>44750</v>
       </c>
       <c r="G21" s="58">
-        <f>F21-E21</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H21" s="59">
@@ -12412,7 +12402,7 @@
         <v>44750</v>
       </c>
       <c r="J21" s="60">
-        <f>I21-H21</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K21" s="61">
@@ -12422,7 +12412,7 @@
     <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="C22" s="58" t="s">
@@ -12438,7 +12428,7 @@
         <v>44750</v>
       </c>
       <c r="G22" s="58">
-        <f>F22-E22</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H22" s="59">
@@ -12448,7 +12438,7 @@
         <v>44750</v>
       </c>
       <c r="J22" s="60">
-        <f>I22-H22</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K22" s="61">
@@ -12458,7 +12448,7 @@
     <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="C23" s="58" t="s">
@@ -12474,7 +12464,7 @@
         <v>44751</v>
       </c>
       <c r="G23" s="58">
-        <f>F23-E23</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H23" s="59">
@@ -12484,7 +12474,7 @@
         <v>44750</v>
       </c>
       <c r="J23" s="60">
-        <f>I23-H23</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K23" s="61">
@@ -12494,7 +12484,7 @@
     <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="C24" s="58" t="s">
@@ -12510,7 +12500,7 @@
         <v>44750</v>
       </c>
       <c r="G24" s="58">
-        <f>F24-E24</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H24" s="59">
@@ -12520,7 +12510,7 @@
         <v>44749</v>
       </c>
       <c r="J24" s="60">
-        <f>I24-H24</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K24" s="61">
@@ -12530,7 +12520,7 @@
     <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
       <c r="B25" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -12546,7 +12536,7 @@
         <v>44751</v>
       </c>
       <c r="G25" s="58">
-        <f>F25-E25</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H25" s="59">
@@ -12556,7 +12546,7 @@
         <v>44750</v>
       </c>
       <c r="J25" s="60">
-        <f>I25-H25</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K25" s="61">
@@ -12566,7 +12556,7 @@
     <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
       <c r="B26" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="C26" s="58" t="s">
@@ -12582,7 +12572,7 @@
         <v>44750</v>
       </c>
       <c r="G26" s="58">
-        <f>F26-E26</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H26" s="59">
@@ -12592,7 +12582,7 @@
         <v>44750</v>
       </c>
       <c r="J26" s="60">
-        <f>I26-H26</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K26" s="61">
@@ -12602,7 +12592,7 @@
     <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
       <c r="B27" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="C27" s="58" t="s">
@@ -12618,7 +12608,7 @@
         <v>44751</v>
       </c>
       <c r="G27" s="58">
-        <f>F27-E27</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H27" s="59">
@@ -12628,7 +12618,7 @@
         <v>44751</v>
       </c>
       <c r="J27" s="60">
-        <f>I27-H27</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K27" s="61">
@@ -12638,7 +12628,7 @@
     <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="C28" s="58" t="s">
@@ -12654,7 +12644,7 @@
         <v>44752</v>
       </c>
       <c r="G28" s="58">
-        <f>F28-E28</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H28" s="59">
@@ -12664,7 +12654,7 @@
         <v>44751</v>
       </c>
       <c r="J28" s="60">
-        <f>I28-H28</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K28" s="61">
@@ -12674,7 +12664,7 @@
     <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="C29" s="58" t="s">
@@ -12690,7 +12680,7 @@
         <v>44752</v>
       </c>
       <c r="G29" s="58">
-        <f>F29-E29</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H29" s="59">
@@ -12700,7 +12690,7 @@
         <v>44752</v>
       </c>
       <c r="J29" s="60">
-        <f>I29-H29</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K29" s="61">
@@ -12710,7 +12700,7 @@
     <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="C30" s="58" t="s">
@@ -12726,7 +12716,7 @@
         <v>44752</v>
       </c>
       <c r="G30" s="58">
-        <f>F30-E30</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H30" s="59">
@@ -12736,7 +12726,7 @@
         <v>44749</v>
       </c>
       <c r="J30" s="60">
-        <f>I30-H30</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K30" s="61">
@@ -12746,7 +12736,7 @@
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="C31" s="58" t="s">
@@ -12762,7 +12752,7 @@
         <v>44752</v>
       </c>
       <c r="G31" s="58">
-        <f>F31-E31</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H31" s="59">
@@ -12772,7 +12762,7 @@
         <v>44748</v>
       </c>
       <c r="J31" s="60">
-        <f>I31-H31</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K31" s="61">
@@ -12782,7 +12772,7 @@
     <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="109">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="C32" s="58" t="s">
@@ -12798,7 +12788,7 @@
         <v>44752</v>
       </c>
       <c r="G32" s="58">
-        <f>F32-E32</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H32" s="59">
@@ -12808,7 +12798,7 @@
         <v>44752</v>
       </c>
       <c r="J32" s="60">
-        <f>I32-H32</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K32" s="61">
@@ -12818,7 +12808,7 @@
     <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="C33" s="58" t="s">
@@ -12834,7 +12824,7 @@
         <v>44750</v>
       </c>
       <c r="G33" s="58">
-        <f>F33-E33</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H33" s="59">
@@ -12844,7 +12834,7 @@
         <v>44750</v>
       </c>
       <c r="J33" s="60">
-        <f>I33-H33</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K33" s="61">
@@ -12854,7 +12844,7 @@
     <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
       <c r="B34" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="C34" s="58" t="s">
@@ -12870,7 +12860,7 @@
         <v>44749</v>
       </c>
       <c r="G34" s="58">
-        <f>F34-E34</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H34" s="59">
@@ -12880,7 +12870,7 @@
         <v>44748</v>
       </c>
       <c r="J34" s="60">
-        <f>I34-H34</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K34" s="61">
@@ -12890,7 +12880,7 @@
     <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
       <c r="B35" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="C35" s="58" t="s">
@@ -12906,7 +12896,7 @@
         <v>44750</v>
       </c>
       <c r="G35" s="58">
-        <f>F35-E35</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H35" s="59">
@@ -12916,7 +12906,7 @@
         <v>44750</v>
       </c>
       <c r="J35" s="60">
-        <f>I35-H35</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K35" s="61">
@@ -12926,7 +12916,7 @@
     <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
       <c r="B36" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="C36" s="58" t="s">
@@ -12942,7 +12932,7 @@
         <v>44751</v>
       </c>
       <c r="G36" s="58">
-        <f>F36-E36</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H36" s="59">
@@ -12952,7 +12942,7 @@
         <v>44751</v>
       </c>
       <c r="J36" s="60">
-        <f>I36-H36</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K36" s="61">
@@ -12962,7 +12952,7 @@
     <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
       <c r="B37" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="C37" s="58" t="s">
@@ -12978,7 +12968,7 @@
         <v>44751</v>
       </c>
       <c r="G37" s="58">
-        <f>F37-E37</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H37" s="59">
@@ -12988,7 +12978,7 @@
         <v>44751</v>
       </c>
       <c r="J37" s="60">
-        <f>I37-H37</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="K37" s="61">
@@ -12998,7 +12988,7 @@
     <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
       <c r="B38" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="C38" s="58" t="s">
@@ -13014,7 +13004,7 @@
         <v>44752</v>
       </c>
       <c r="G38" s="58">
-        <f>F38-E38</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H38" s="59">
@@ -13024,7 +13014,7 @@
         <v>44752</v>
       </c>
       <c r="J38" s="60">
-        <f>I38-H38</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K38" s="61">
@@ -13034,7 +13024,7 @@
     <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
       <c r="B39" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="C39" s="58" t="s">
@@ -13050,7 +13040,7 @@
         <v>44752</v>
       </c>
       <c r="G39" s="58">
-        <f>F39-E39</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H39" s="59">
@@ -13060,7 +13050,7 @@
         <v>44752</v>
       </c>
       <c r="J39" s="60">
-        <f>I39-H39</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K39" s="61">
@@ -13070,7 +13060,7 @@
     <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
       <c r="B40" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="C40" s="58" t="s">
@@ -13086,7 +13076,7 @@
         <v>44752</v>
       </c>
       <c r="G40" s="58">
-        <f>F40-E40</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H40" s="59">
@@ -13096,7 +13086,7 @@
         <v>44752</v>
       </c>
       <c r="J40" s="60">
-        <f>I40-H40</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K40" s="61">
@@ -13106,7 +13096,7 @@
     <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
       <c r="B41" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="C41" s="58" t="s">
@@ -13122,7 +13112,7 @@
         <v>44753</v>
       </c>
       <c r="G41" s="58">
-        <f>F41-E41</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H41" s="59">
@@ -13132,7 +13122,7 @@
         <v>44753</v>
       </c>
       <c r="J41" s="60">
-        <f>I41-H41</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K41" s="61">
@@ -13142,7 +13132,7 @@
     <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
       <c r="B42" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="C42" s="58" t="s">
@@ -13158,7 +13148,7 @@
         <v>44753</v>
       </c>
       <c r="G42" s="58">
-        <f>F42-E42</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H42" s="59">
@@ -13168,7 +13158,7 @@
         <v>44753</v>
       </c>
       <c r="J42" s="60">
-        <f>I42-H42</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K42" s="61">
@@ -13178,7 +13168,7 @@
     <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="C43" s="58" t="s">
@@ -13194,7 +13184,7 @@
         <v>44753</v>
       </c>
       <c r="G43" s="58">
-        <f>F43-E43</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H43" s="59">
@@ -13204,7 +13194,7 @@
         <v>44753</v>
       </c>
       <c r="J43" s="60">
-        <f>I43-H43</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K43" s="61">
@@ -13214,7 +13204,7 @@
     <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
       <c r="B44" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="C44" s="58" t="s">
@@ -13230,7 +13220,7 @@
         <v>44754</v>
       </c>
       <c r="G44" s="58">
-        <f>F44-E44</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H44" s="59">
@@ -13240,7 +13230,7 @@
         <v>44754</v>
       </c>
       <c r="J44" s="60">
-        <f>I44-H44</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K44" s="61">
@@ -13250,7 +13240,7 @@
     <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
       <c r="B45" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="C45" s="58" t="s">
@@ -13266,7 +13256,7 @@
         <v>44754</v>
       </c>
       <c r="G45" s="58">
-        <f>F45-E45</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H45" s="59">
@@ -13276,7 +13266,7 @@
         <v>44754</v>
       </c>
       <c r="J45" s="60">
-        <f>I45-H45</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K45" s="61">
@@ -13286,7 +13276,7 @@
     <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
       <c r="B46" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="C46" s="58" t="s">
@@ -13302,7 +13292,7 @@
         <v>44751</v>
       </c>
       <c r="G46" s="58">
-        <f>F46-E46</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H46" s="59">
@@ -13312,7 +13302,7 @@
         <v>44751</v>
       </c>
       <c r="J46" s="60">
-        <f>I46-H46</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K46" s="61">
@@ -13322,7 +13312,7 @@
     <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
       <c r="B47" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="C47" s="58" t="s">
@@ -13338,7 +13328,7 @@
         <v>44752</v>
       </c>
       <c r="G47" s="58">
-        <f>F47-E47</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H47" s="59">
@@ -13348,7 +13338,7 @@
         <v>44751</v>
       </c>
       <c r="J47" s="60">
-        <f>I47-H47</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K47" s="61">
@@ -13361,7 +13351,7 @@
     <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
       <c r="B48" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="C48" s="58" t="s">
@@ -13377,7 +13367,7 @@
         <v>44752</v>
       </c>
       <c r="G48" s="58">
-        <f>F48-E48</f>
+        <f t="shared" ref="G48:G79" si="10">F48-E48</f>
         <v>1</v>
       </c>
       <c r="H48" s="59">
@@ -13387,7 +13377,7 @@
         <v>44752</v>
       </c>
       <c r="J48" s="60">
-        <f>I48-H48</f>
+        <f t="shared" ref="J48:J79" si="11">I48-H48</f>
         <v>1</v>
       </c>
       <c r="K48" s="61">
@@ -13397,7 +13387,7 @@
     <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="C49" s="58" t="s">
@@ -13413,7 +13403,7 @@
         <v>44752</v>
       </c>
       <c r="G49" s="58">
-        <f>F49-E49</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H49" s="59">
@@ -13423,7 +13413,7 @@
         <v>44752</v>
       </c>
       <c r="J49" s="60">
-        <f>I49-H49</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K49" s="61">
@@ -13433,7 +13423,7 @@
     <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="C50" s="58" t="s">
@@ -13449,7 +13439,7 @@
         <v>44754</v>
       </c>
       <c r="G50" s="58">
-        <f>F50-E50</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H50" s="59">
@@ -13459,7 +13449,7 @@
         <v>44754</v>
       </c>
       <c r="J50" s="60">
-        <f>I50-H50</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K50" s="61">
@@ -13469,7 +13459,7 @@
     <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="C51" s="58" t="s">
@@ -13485,7 +13475,7 @@
         <v>44754</v>
       </c>
       <c r="G51" s="58">
-        <f>F51-E51</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H51" s="59">
@@ -13495,7 +13485,7 @@
         <v>44754</v>
       </c>
       <c r="J51" s="60">
-        <f>I51-H51</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K51" s="61">
@@ -13505,7 +13495,7 @@
     <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
       <c r="B52" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="C52" s="58" t="s">
@@ -13521,7 +13511,7 @@
         <v>44754</v>
       </c>
       <c r="G52" s="58">
-        <f>F52-E52</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H52" s="59">
@@ -13531,7 +13521,7 @@
         <v>44754</v>
       </c>
       <c r="J52" s="60">
-        <f>I52-H52</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K52" s="61">
@@ -13541,7 +13531,7 @@
     <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
       <c r="B53" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="C53" s="58" t="s">
@@ -13557,7 +13547,7 @@
         <v>44754</v>
       </c>
       <c r="G53" s="58">
-        <f>F53-E53</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H53" s="59">
@@ -13567,7 +13557,7 @@
         <v>44754</v>
       </c>
       <c r="J53" s="60">
-        <f>I53-H53</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K53" s="61">
@@ -13577,7 +13567,7 @@
     <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="C54" s="58" t="s">
@@ -13593,7 +13583,7 @@
         <v>44754</v>
       </c>
       <c r="G54" s="58">
-        <f>F54-E54</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H54" s="59">
@@ -13603,7 +13593,7 @@
         <v>44754</v>
       </c>
       <c r="J54" s="60">
-        <f>I54-H54</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K54" s="61">
@@ -13613,7 +13603,7 @@
     <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
       <c r="B55" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="C55" s="58" t="s">
@@ -13629,7 +13619,7 @@
         <v>44753</v>
       </c>
       <c r="G55" s="58">
-        <f>F55-E55</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H55" s="59">
@@ -13639,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="J55" s="60">
-        <f>I55-H55</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K55" s="61">
@@ -13649,7 +13639,7 @@
     <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
       <c r="B56" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="C56" s="58" t="s">
@@ -13665,7 +13655,7 @@
         <v>44753</v>
       </c>
       <c r="G56" s="58">
-        <f>F56-E56</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H56" s="59">
@@ -13675,7 +13665,7 @@
         <v>44753</v>
       </c>
       <c r="J56" s="60">
-        <f>I56-H56</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K56" s="61">
@@ -13685,7 +13675,7 @@
     <row r="57" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
       <c r="B57" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -13701,7 +13691,7 @@
         <v>44754</v>
       </c>
       <c r="G57" s="58">
-        <f>F57-E57</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H57" s="59">
@@ -13711,7 +13701,7 @@
         <v>44754</v>
       </c>
       <c r="J57" s="60">
-        <f>I57-H57</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K57" s="61">
@@ -13721,7 +13711,7 @@
     <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
       <c r="B58" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="C58" s="58" t="s">
@@ -13737,7 +13727,7 @@
         <v>44754</v>
       </c>
       <c r="G58" s="58">
-        <f>F58-E58</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H58" s="59">
@@ -13747,7 +13737,7 @@
         <v>44754</v>
       </c>
       <c r="J58" s="60">
-        <f>I58-H58</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K58" s="61">
@@ -13757,7 +13747,7 @@
     <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
       <c r="B59" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="C59" s="58" t="s">
@@ -13773,7 +13763,7 @@
         <v>44755</v>
       </c>
       <c r="G59" s="58">
-        <f>F59-E59</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H59" s="59">
@@ -13783,7 +13773,7 @@
         <v>44755</v>
       </c>
       <c r="J59" s="60">
-        <f>I59-H59</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K59" s="61">
@@ -13793,7 +13783,7 @@
     <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="56"/>
       <c r="B60" s="112">
-        <f>ROW()-8</f>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="C60" s="58" t="s">
@@ -13809,7 +13799,7 @@
         <v>44753</v>
       </c>
       <c r="G60" s="58">
-        <f>F60-E60</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H60" s="59">
@@ -13819,7 +13809,7 @@
         <v>44753</v>
       </c>
       <c r="J60" s="60">
-        <f>I60-H60</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K60" s="61">
@@ -13842,7 +13832,7 @@
         <v>44753</v>
       </c>
       <c r="G61" s="58">
-        <f>F61-E61</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H61" s="59">
@@ -13852,7 +13842,7 @@
         <v>44759</v>
       </c>
       <c r="J61" s="60">
-        <f>I61-H61</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="K61" s="61">
@@ -13875,18 +13865,18 @@
         <v>44770</v>
       </c>
       <c r="G62" s="58">
-        <f>F62-E62</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H62" s="59"/>
       <c r="I62" s="59"/>
       <c r="J62" s="60">
-        <f>I62-H62</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K62" s="107">
         <f>AVERAGE(K63:K115)</f>
-        <v>0.44622641509433941</v>
+        <v>0.4971698113207545</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -13907,13 +13897,13 @@
         <v>44770</v>
       </c>
       <c r="G63" s="58">
-        <f>F63-E63</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H63" s="59"/>
       <c r="I63" s="59"/>
       <c r="J63" s="60">
-        <f>I63-H63</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K63" s="61">
@@ -13941,13 +13931,13 @@
         <v>44770</v>
       </c>
       <c r="G64" s="58">
-        <f>F64-E64</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H64" s="59"/>
       <c r="I64" s="59"/>
       <c r="J64" s="60">
-        <f>I64-H64</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K64" s="61">
@@ -13975,7 +13965,7 @@
         <v>44770</v>
       </c>
       <c r="G65" s="58">
-        <f>F65-E65</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H65" s="59">
@@ -13985,7 +13975,7 @@
         <v>44761</v>
       </c>
       <c r="J65" s="60">
-        <f>I65-H65</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K65" s="61">
@@ -14013,7 +14003,7 @@
         <v>44770</v>
       </c>
       <c r="G66" s="58">
-        <f>F66-E66</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H66" s="59">
@@ -14023,7 +14013,7 @@
         <v>44761</v>
       </c>
       <c r="J66" s="60">
-        <f>I66-H66</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K66" s="61">
@@ -14051,13 +14041,13 @@
         <v>44770</v>
       </c>
       <c r="G67" s="58">
-        <f>F67-E67</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
       <c r="J67" s="60">
-        <f>I67-H67</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K67" s="61">
@@ -14085,13 +14075,13 @@
         <v>44770</v>
       </c>
       <c r="G68" s="58">
-        <f>F68-E68</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H68" s="59"/>
       <c r="I68" s="59"/>
       <c r="J68" s="60">
-        <f>I68-H68</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K68" s="61">
@@ -14119,13 +14109,13 @@
         <v>44770</v>
       </c>
       <c r="G69" s="58">
-        <f>F69-E69</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H69" s="59"/>
       <c r="I69" s="106"/>
       <c r="J69" s="60">
-        <f>I69-H69</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K69" s="61">
@@ -14153,13 +14143,13 @@
         <v>44770</v>
       </c>
       <c r="G70" s="58">
-        <f>F70-E70</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H70" s="59"/>
       <c r="I70" s="59"/>
       <c r="J70" s="60">
-        <f>I70-H70</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K70" s="61">
@@ -14184,13 +14174,13 @@
         <v>44770</v>
       </c>
       <c r="G71" s="58">
-        <f>F71-E71</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H71" s="59"/>
       <c r="I71" s="59"/>
       <c r="J71" s="60">
-        <f>I71-H71</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K71" s="61">
@@ -14215,13 +14205,13 @@
         <v>44770</v>
       </c>
       <c r="G72" s="58">
-        <f>F72-E72</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H72" s="59"/>
       <c r="I72" s="59"/>
       <c r="J72" s="60">
-        <f>I72-H72</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K72" s="61">
@@ -14246,13 +14236,13 @@
         <v>44770</v>
       </c>
       <c r="G73" s="58">
-        <f>F73-E73</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H73" s="59"/>
       <c r="I73" s="59"/>
       <c r="J73" s="60">
-        <f>I73-H73</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K73" s="61">
@@ -14277,13 +14267,13 @@
         <v>44770</v>
       </c>
       <c r="G74" s="58">
-        <f>F74-E74</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H74" s="59"/>
       <c r="I74" s="59"/>
       <c r="J74" s="60">
-        <f>I74-H74</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K74" s="61">
@@ -14311,13 +14301,13 @@
         <v>44770</v>
       </c>
       <c r="G75" s="58">
-        <f>F75-E75</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H75" s="59"/>
       <c r="I75" s="105"/>
       <c r="J75" s="60">
-        <f>I75-H75</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K75" s="61">
@@ -14345,13 +14335,13 @@
         <v>44770</v>
       </c>
       <c r="G76" s="58">
-        <f>F76-E76</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H76" s="59"/>
       <c r="I76" s="59"/>
       <c r="J76" s="60">
-        <f>I76-H76</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K76" s="61">
@@ -14376,13 +14366,13 @@
         <v>44770</v>
       </c>
       <c r="G77" s="58">
-        <f>F77-E77</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H77" s="59"/>
       <c r="I77" s="59"/>
       <c r="J77" s="60">
-        <f>I77-H77</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K77" s="61">
@@ -14410,13 +14400,13 @@
         <v>44770</v>
       </c>
       <c r="G78" s="58">
-        <f>F78-E78</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H78" s="59"/>
       <c r="I78" s="59"/>
       <c r="J78" s="60">
-        <f>I78-H78</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K78" s="61">
@@ -14444,13 +14434,13 @@
         <v>44770</v>
       </c>
       <c r="G79" s="58">
-        <f>F79-E79</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H79" s="59"/>
       <c r="I79" s="59"/>
       <c r="J79" s="60">
-        <f>I79-H79</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K79" s="61">
@@ -14478,13 +14468,13 @@
         <v>44770</v>
       </c>
       <c r="G80" s="58">
-        <f>F80-E80</f>
+        <f t="shared" ref="G80:G111" si="12">F80-E80</f>
         <v>13</v>
       </c>
       <c r="H80" s="59"/>
       <c r="I80" s="59"/>
       <c r="J80" s="60">
-        <f>I80-H80</f>
+        <f t="shared" ref="J80:J111" si="13">I80-H80</f>
         <v>0</v>
       </c>
       <c r="K80" s="61">
@@ -14496,32 +14486,32 @@
     </row>
     <row r="81" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="56"/>
-      <c r="B81" s="171">
+      <c r="B81" s="129">
         <v>19</v>
       </c>
-      <c r="C81" s="172" t="s">
+      <c r="C81" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="173" t="s">
+      <c r="D81" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="E81" s="174">
+      <c r="E81" s="132">
         <v>44757</v>
       </c>
-      <c r="F81" s="174">
+      <c r="F81" s="132">
         <v>44770</v>
       </c>
-      <c r="G81" s="172">
-        <f>F81-E81</f>
+      <c r="G81" s="130">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="H81" s="174"/>
-      <c r="I81" s="174"/>
-      <c r="J81" s="175">
-        <f>I81-H81</f>
+      <c r="H81" s="132"/>
+      <c r="I81" s="132"/>
+      <c r="J81" s="133">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K81" s="176">
+      <c r="K81" s="134">
         <v>0.5</v>
       </c>
       <c r="L81" t="s">
@@ -14546,13 +14536,13 @@
         <v>44770</v>
       </c>
       <c r="G82" s="58">
-        <f>F82-E82</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H82" s="59"/>
       <c r="I82" s="59"/>
       <c r="J82" s="60">
-        <f>I82-H82</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K82" s="61">
@@ -14580,13 +14570,13 @@
         <v>44770</v>
       </c>
       <c r="G83" s="58">
-        <f>F83-E83</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H83" s="59"/>
       <c r="I83" s="59"/>
       <c r="J83" s="60">
-        <f>I83-H83</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K83" s="61">
@@ -14614,13 +14604,13 @@
         <v>44770</v>
       </c>
       <c r="G84" s="58">
-        <f>F84-E84</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
       <c r="J84" s="60">
-        <f>I84-H84</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K84" s="61">
@@ -14648,13 +14638,13 @@
         <v>44770</v>
       </c>
       <c r="G85" s="58">
-        <f>F85-E85</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H85" s="59"/>
       <c r="I85" s="59"/>
       <c r="J85" s="60">
-        <f>I85-H85</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K85" s="61">
@@ -14682,13 +14672,13 @@
         <v>44770</v>
       </c>
       <c r="G86" s="58">
-        <f>F86-E86</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H86" s="59"/>
       <c r="I86" s="59"/>
       <c r="J86" s="60">
-        <f>I86-H86</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K86" s="61">
@@ -14716,17 +14706,21 @@
         <v>44770</v>
       </c>
       <c r="G87" s="58">
-        <f>F87-E87</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
+      <c r="H87" s="59">
+        <v>44760</v>
+      </c>
+      <c r="I87" s="59">
+        <v>44761</v>
+      </c>
       <c r="J87" s="60">
-        <f>I87-H87</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="K87" s="61">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -14750,13 +14744,13 @@
         <v>44770</v>
       </c>
       <c r="G88" s="58">
-        <f>F88-E88</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H88" s="59"/>
       <c r="I88" s="59"/>
       <c r="J88" s="60">
-        <f>I88-H88</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K88" s="61">
@@ -14784,13 +14778,13 @@
         <v>44770</v>
       </c>
       <c r="G89" s="58">
-        <f>F89-E89</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H89" s="59"/>
       <c r="I89" s="59"/>
       <c r="J89" s="60">
-        <f>I89-H89</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K89" s="61">
@@ -14818,17 +14812,17 @@
         <v>44770</v>
       </c>
       <c r="G90" s="58">
-        <f>F90-E90</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H90" s="59"/>
       <c r="I90" s="59"/>
       <c r="J90" s="60">
-        <f>I90-H90</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K90" s="61">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="L90">
         <v>2</v>
@@ -14852,17 +14846,17 @@
         <v>44770</v>
       </c>
       <c r="G91" s="58">
-        <f>F91-E91</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H91" s="59"/>
       <c r="I91" s="59"/>
       <c r="J91" s="60">
-        <f>I91-H91</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K91" s="61">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -14886,13 +14880,13 @@
         <v>44770</v>
       </c>
       <c r="G92" s="58">
-        <f>F92-E92</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H92" s="59"/>
       <c r="I92" s="59"/>
       <c r="J92" s="60">
-        <f>I92-H92</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K92" s="61">
@@ -14917,13 +14911,13 @@
         <v>44770</v>
       </c>
       <c r="G93" s="58">
-        <f>F93-E93</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H93" s="59"/>
       <c r="I93" s="59"/>
       <c r="J93" s="60">
-        <f>I93-H93</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K93" s="61">
@@ -14948,13 +14942,13 @@
         <v>44770</v>
       </c>
       <c r="G94" s="58">
-        <f>F94-E94</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H94" s="59"/>
       <c r="I94" s="59"/>
       <c r="J94" s="60">
-        <f>I94-H94</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K94" s="61">
@@ -14979,13 +14973,13 @@
         <v>44770</v>
       </c>
       <c r="G95" s="58">
-        <f>F95-E95</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H95" s="59"/>
       <c r="I95" s="59"/>
       <c r="J95" s="60">
-        <f>I95-H95</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K95" s="61">
@@ -15013,13 +15007,13 @@
         <v>44770</v>
       </c>
       <c r="G96" s="58">
-        <f>F96-E96</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H96" s="59"/>
       <c r="I96" s="59"/>
       <c r="J96" s="60">
-        <f>I96-H96</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K96" s="61">
@@ -15047,13 +15041,13 @@
         <v>44770</v>
       </c>
       <c r="G97" s="58">
-        <f>F97-E97</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H97" s="59"/>
       <c r="I97" s="59"/>
       <c r="J97" s="60">
-        <f>I97-H97</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K97" s="61">
@@ -15081,13 +15075,13 @@
         <v>44770</v>
       </c>
       <c r="G98" s="58">
-        <f>F98-E98</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H98" s="59"/>
       <c r="I98" s="59"/>
       <c r="J98" s="60">
-        <f>I98-H98</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K98" s="61">
@@ -15115,17 +15109,21 @@
         <v>44770</v>
       </c>
       <c r="G99" s="58">
-        <f>F99-E99</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
+      <c r="H99" s="59">
+        <v>44760</v>
+      </c>
+      <c r="I99" s="59">
+        <v>44761</v>
+      </c>
       <c r="J99" s="60">
-        <f>I99-H99</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="K99" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -15149,13 +15147,13 @@
         <v>44770</v>
       </c>
       <c r="G100" s="58">
-        <f>F100-E100</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H100" s="59"/>
       <c r="I100" s="105"/>
       <c r="J100" s="60">
-        <f>I100-H100</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K100" s="61">
@@ -15183,13 +15181,13 @@
         <v>44770</v>
       </c>
       <c r="G101" s="124">
-        <f>F101-E101</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H101" s="125"/>
       <c r="I101" s="126"/>
       <c r="J101" s="127">
-        <f>I101-H101</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K101" s="128">
@@ -15217,13 +15215,13 @@
         <v>44770</v>
       </c>
       <c r="G102" s="58">
-        <f>F102-E102</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H102" s="59"/>
       <c r="I102" s="59"/>
       <c r="J102" s="60">
-        <f>I102-H102</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K102" s="61">
@@ -15248,13 +15246,13 @@
         <v>44770</v>
       </c>
       <c r="G103" s="58">
-        <f>F103-E103</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H103" s="59"/>
       <c r="I103" s="59"/>
       <c r="J103" s="60">
-        <f>I103-H103</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K103" s="61">
@@ -15279,13 +15277,13 @@
         <v>44770</v>
       </c>
       <c r="G104" s="58">
-        <f>F104-E104</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H104" s="59"/>
       <c r="I104" s="59"/>
       <c r="J104" s="60">
-        <f>I104-H104</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K104" s="61">
@@ -15313,13 +15311,13 @@
         <v>44770</v>
       </c>
       <c r="G105" s="58">
-        <f>F105-E105</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H105" s="59"/>
       <c r="I105" s="59"/>
       <c r="J105" s="60">
-        <f>I105-H105</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K105" s="61">
@@ -15347,13 +15345,13 @@
         <v>44770</v>
       </c>
       <c r="G106" s="58">
-        <f>F106-E106</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H106" s="59"/>
       <c r="I106" s="59"/>
       <c r="J106" s="60">
-        <f>I106-H106</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K106" s="61">
@@ -15381,13 +15379,13 @@
         <v>44770</v>
       </c>
       <c r="G107" s="58">
-        <f>F107-E107</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H107" s="59"/>
       <c r="I107" s="59"/>
       <c r="J107" s="60">
-        <f>I107-H107</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K107" s="61">
@@ -15415,13 +15413,13 @@
         <v>44770</v>
       </c>
       <c r="G108" s="58">
-        <f>F108-E108</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H108" s="59"/>
       <c r="I108" s="59"/>
       <c r="J108" s="60">
-        <f>I108-H108</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K108" s="61">
@@ -15449,13 +15447,13 @@
         <v>44770</v>
       </c>
       <c r="G109" s="58">
-        <f>F109-E109</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H109" s="59"/>
       <c r="I109" s="59"/>
       <c r="J109" s="60">
-        <f>I109-H109</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K109" s="61">
@@ -15483,13 +15481,13 @@
         <v>44770</v>
       </c>
       <c r="G110" s="58">
-        <f>F110-E110</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H110" s="59"/>
       <c r="I110" s="59"/>
       <c r="J110" s="60">
-        <f>I110-H110</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K110" s="61">
@@ -15517,13 +15515,13 @@
         <v>44770</v>
       </c>
       <c r="G111" s="58">
-        <f>F111-E111</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="H111" s="59"/>
       <c r="I111" s="59"/>
       <c r="J111" s="60">
-        <f>I111-H111</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K111" s="61">
@@ -15551,13 +15549,13 @@
         <v>44770</v>
       </c>
       <c r="G112" s="58">
-        <f>F112-E112</f>
+        <f t="shared" ref="G112:G143" si="14">F112-E112</f>
         <v>13</v>
       </c>
       <c r="H112" s="59"/>
       <c r="I112" s="59"/>
       <c r="J112" s="60">
-        <f>I112-H112</f>
+        <f t="shared" ref="J112:J143" si="15">I112-H112</f>
         <v>0</v>
       </c>
       <c r="K112" s="61">
@@ -15585,13 +15583,13 @@
         <v>44770</v>
       </c>
       <c r="G113" s="58">
-        <f>F113-E113</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H113" s="59"/>
       <c r="I113" s="59"/>
       <c r="J113" s="60">
-        <f>I113-H113</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K113" s="61">
@@ -15619,13 +15617,13 @@
         <v>44770</v>
       </c>
       <c r="G114" s="58">
-        <f>F114-E114</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H114" s="59"/>
       <c r="I114" s="59"/>
       <c r="J114" s="60">
-        <f>I114-H114</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K114" s="61">
@@ -15647,7 +15645,7 @@
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
       <c r="G115" s="58">
-        <f t="shared" ref="G115:G116" si="7">F115-E115</f>
+        <f t="shared" ref="G115:G116" si="16">F115-E115</f>
         <v>0</v>
       </c>
       <c r="H115" s="59"/>
@@ -15672,7 +15670,7 @@
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
       <c r="G116" s="58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H116" s="59"/>
@@ -15820,51 +15818,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="141" t="str">
+      <c r="B2" s="144"/>
+      <c r="C2" s="147" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="146"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="152"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="148"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="154"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -15874,89 +15872,89 @@
       <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="157"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="163"/>
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="160"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="166"/>
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="160"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="166"/>
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="160"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="166"/>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="163"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="169"/>
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -15964,44 +15962,44 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="151"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="157"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="152"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="154"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="160"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
@@ -16406,51 +16404,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="141" t="str">
+      <c r="B2" s="144"/>
+      <c r="C2" s="147" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="146"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="152"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="148"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="154"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -16777,56 +16775,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="170" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="141" t="str">
+      <c r="B1" s="171"/>
+      <c r="C1" s="147" t="str">
         <f>[1]Cover!A31</f>
         <v>Food_Lab</v>
       </c>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
       <c r="O1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="145">
+      <c r="P1" s="151">
         <v>44555</v>
       </c>
-      <c r="Q1" s="146"/>
+      <c r="Q1" s="152"/>
     </row>
     <row r="2" spans="1:19" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
       <c r="O2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="147">
+      <c r="P2" s="153">
         <f ca="1">NOW()</f>
-        <v>44766.857009259256</v>
-      </c>
-      <c r="Q2" s="148"/>
+        <v>44769.489709606481</v>
+      </c>
+      <c r="Q2" s="154"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
@@ -18255,47 +18253,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="141" t="str">
+      <c r="B2" s="144"/>
+      <c r="C2" s="147" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="146"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="1:15" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="147"/>
-      <c r="O3" s="148"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="154"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
@@ -18737,19 +18735,19 @@
     </row>
     <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" s="78"/>
-      <c r="E3" s="169">
+      <c r="E3" s="175">
         <v>1</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="169">
+      <c r="G3" s="175">
         <v>2</v>
       </c>
       <c r="H3" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="169">
+      <c r="I3" s="175">
         <v>3</v>
       </c>
       <c r="J3" s="81" t="s">
@@ -18759,15 +18757,15 @@
     </row>
     <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" s="78"/>
-      <c r="E4" s="169"/>
+      <c r="E4" s="175"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="169"/>
+      <c r="G4" s="175"/>
       <c r="H4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="169"/>
+      <c r="I4" s="175"/>
       <c r="J4" s="74" t="s">
         <v>51</v>
       </c>
@@ -18778,15 +18776,15 @@
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D5" s="78"/>
-      <c r="E5" s="169"/>
+      <c r="E5" s="175"/>
       <c r="F5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="169"/>
+      <c r="G5" s="175"/>
       <c r="H5" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="169"/>
+      <c r="I5" s="175"/>
       <c r="J5" s="74" t="s">
         <v>50</v>
       </c>
@@ -18820,13 +18818,13 @@
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D8" s="78"/>
-      <c r="E8" s="169">
+      <c r="E8" s="175">
         <v>4</v>
       </c>
       <c r="F8" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="169">
+      <c r="G8" s="175">
         <v>5</v>
       </c>
       <c r="H8" s="87" t="s">
@@ -18836,11 +18834,11 @@
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D9" s="78"/>
-      <c r="E9" s="169"/>
+      <c r="E9" s="175"/>
       <c r="F9" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="169"/>
+      <c r="G9" s="175"/>
       <c r="H9" s="74" t="s">
         <v>75</v>
       </c>
@@ -18848,9 +18846,9 @@
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D10" s="83"/>
-      <c r="E10" s="170"/>
+      <c r="E10" s="176"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="170"/>
+      <c r="G10" s="176"/>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
       <c r="J10" s="84"/>
@@ -18874,14 +18872,14 @@
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D12" s="78"/>
-      <c r="F12" s="168" t="s">
+      <c r="F12" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
       <c r="N12" s="82"/>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.3">

--- a/02.Design Document/Project Management.xlsx
+++ b/02.Design Document/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/level-up-docs/02.Design Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Level-Up/02.Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C14E024-B721-C248-921B-E9DD590AA0A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8824E540-EB95-B644-AF26-85AC8F1117AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="-2420" yWindow="-20320" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -37,6 +37,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -10370,7 +10378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAFE950-5B3C-524E-9704-0609BF069824}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10714,8 +10722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0901546-647D-314F-966F-D11091521896}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10774,7 +10782,7 @@
       </c>
       <c r="P3" s="153">
         <f ca="1">NOW()</f>
-        <v>44769.489709606481</v>
+        <v>44784.665442129626</v>
       </c>
       <c r="Q3" s="154"/>
     </row>
@@ -11745,8 +11753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
   <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11938,7 +11946,7 @@
       </c>
       <c r="K8" s="107">
         <f>AVERAGE(K9:K60)</f>
-        <v>0.89999999999999913</v>
+        <v>0.88269230769230689</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -12015,71 +12023,66 @@
     </row>
     <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="109">
-        <f t="shared" si="4"/>
-        <v>3</v>
+      <c r="B11" s="112">
+        <v>36</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>132</v>
+        <v>163</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>131</v>
       </c>
       <c r="E11" s="59">
-        <v>44747</v>
+        <v>44757</v>
       </c>
       <c r="F11" s="59">
-        <v>44748</v>
+        <v>44770</v>
       </c>
       <c r="G11" s="58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="59">
-        <v>44747</v>
-      </c>
-      <c r="I11" s="59">
-        <v>44748</v>
-      </c>
+        <f>F11-E11</f>
+        <v>13</v>
+      </c>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="60">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>I11-H11</f>
+        <v>0</v>
       </c>
       <c r="K11" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="B12" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>4</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D12" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E12" s="59">
+        <v>44747</v>
+      </c>
+      <c r="F12" s="59">
         <v>44748</v>
       </c>
-      <c r="F12" s="59">
-        <v>44749</v>
-      </c>
       <c r="G12" s="58">
-        <f t="shared" si="0"/>
+        <f>F12-E12</f>
         <v>1</v>
       </c>
       <c r="H12" s="59">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="I12" s="59">
         <v>44748</v>
       </c>
       <c r="J12" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>I12-H12</f>
+        <v>1</v>
       </c>
       <c r="K12" s="61">
         <v>0.9</v>
@@ -12088,11 +12091,11 @@
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>5</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D13" s="58" t="s">
         <v>132</v>
@@ -12104,7 +12107,7 @@
         <v>44749</v>
       </c>
       <c r="G13" s="58">
-        <f t="shared" ref="G13" si="5">F13-E13</f>
+        <f>F13-E13</f>
         <v>1</v>
       </c>
       <c r="H13" s="59">
@@ -12114,7 +12117,7 @@
         <v>44748</v>
       </c>
       <c r="J13" s="60">
-        <f t="shared" ref="J13" si="6">I13-H13</f>
+        <f>I13-H13</f>
         <v>0</v>
       </c>
       <c r="K13" s="61">
@@ -12124,7 +12127,7 @@
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
       <c r="B14" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>6</v>
       </c>
       <c r="C14" s="58" t="s">
@@ -12140,7 +12143,7 @@
         <v>44750</v>
       </c>
       <c r="G14" s="58">
-        <f t="shared" si="0"/>
+        <f>F14-E14</f>
         <v>3</v>
       </c>
       <c r="H14" s="59">
@@ -12150,7 +12153,7 @@
         <v>44750</v>
       </c>
       <c r="J14" s="60">
-        <f t="shared" si="1"/>
+        <f>I14-H14</f>
         <v>3</v>
       </c>
       <c r="K14" s="61">
@@ -12160,7 +12163,7 @@
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="109">
-        <f t="shared" si="4"/>
+        <f>ROW()-8</f>
         <v>7</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -12176,7 +12179,7 @@
         <v>44749</v>
       </c>
       <c r="G15" s="58">
-        <f t="shared" si="0"/>
+        <f>F15-E15</f>
         <v>1</v>
       </c>
       <c r="H15" s="59">
@@ -12186,7 +12189,7 @@
         <v>44749</v>
       </c>
       <c r="J15" s="60">
-        <f t="shared" si="1"/>
+        <f>I15-H15</f>
         <v>1</v>
       </c>
       <c r="K15" s="61">
@@ -12196,7 +12199,7 @@
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
       <c r="B16" s="109">
-        <f t="shared" ref="B16:B60" si="7">ROW()-8</f>
+        <f>ROW()-8</f>
         <v>8</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -12212,7 +12215,7 @@
         <v>44748</v>
       </c>
       <c r="G16" s="58">
-        <f t="shared" ref="G16:G47" si="8">F16-E16</f>
+        <f>F16-E16</f>
         <v>1</v>
       </c>
       <c r="H16" s="59">
@@ -12222,7 +12225,7 @@
         <v>44748</v>
       </c>
       <c r="J16" s="60">
-        <f t="shared" ref="J16:J47" si="9">I16-H16</f>
+        <f>I16-H16</f>
         <v>1</v>
       </c>
       <c r="K16" s="61">
@@ -12232,7 +12235,7 @@
     <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
       <c r="B17" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>9</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -12248,7 +12251,7 @@
         <v>44748</v>
       </c>
       <c r="G17" s="58">
-        <f t="shared" si="8"/>
+        <f>F17-E17</f>
         <v>1</v>
       </c>
       <c r="H17" s="59">
@@ -12258,7 +12261,7 @@
         <v>44748</v>
       </c>
       <c r="J17" s="60">
-        <f t="shared" si="9"/>
+        <f>I17-H17</f>
         <v>1</v>
       </c>
       <c r="K17" s="61">
@@ -12268,7 +12271,7 @@
     <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>10</v>
       </c>
       <c r="C18" s="58" t="s">
@@ -12284,7 +12287,7 @@
         <v>44749</v>
       </c>
       <c r="G18" s="58">
-        <f t="shared" si="8"/>
+        <f>F18-E18</f>
         <v>2</v>
       </c>
       <c r="H18" s="59">
@@ -12294,7 +12297,7 @@
         <v>44749</v>
       </c>
       <c r="J18" s="60">
-        <f t="shared" si="9"/>
+        <f>I18-H18</f>
         <v>2</v>
       </c>
       <c r="K18" s="61">
@@ -12304,7 +12307,7 @@
     <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>11</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -12320,7 +12323,7 @@
         <v>44749</v>
       </c>
       <c r="G19" s="58">
-        <f t="shared" si="8"/>
+        <f>F19-E19</f>
         <v>2</v>
       </c>
       <c r="H19" s="59">
@@ -12330,7 +12333,7 @@
         <v>44749</v>
       </c>
       <c r="J19" s="60">
-        <f t="shared" si="9"/>
+        <f>I19-H19</f>
         <v>2</v>
       </c>
       <c r="K19" s="61">
@@ -12340,7 +12343,7 @@
     <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>12</v>
       </c>
       <c r="C20" s="58" t="s">
@@ -12356,7 +12359,7 @@
         <v>44749</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" si="8"/>
+        <f>F20-E20</f>
         <v>1</v>
       </c>
       <c r="H20" s="59">
@@ -12366,7 +12369,7 @@
         <v>44749</v>
       </c>
       <c r="J20" s="60">
-        <f t="shared" si="9"/>
+        <f>I20-H20</f>
         <v>2</v>
       </c>
       <c r="K20" s="61">
@@ -12376,7 +12379,7 @@
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
       <c r="B21" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>13</v>
       </c>
       <c r="C21" s="58" t="s">
@@ -12392,7 +12395,7 @@
         <v>44750</v>
       </c>
       <c r="G21" s="58">
-        <f t="shared" si="8"/>
+        <f>F21-E21</f>
         <v>1</v>
       </c>
       <c r="H21" s="59">
@@ -12402,7 +12405,7 @@
         <v>44750</v>
       </c>
       <c r="J21" s="60">
-        <f t="shared" si="9"/>
+        <f>I21-H21</f>
         <v>1</v>
       </c>
       <c r="K21" s="61">
@@ -12412,7 +12415,7 @@
     <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>14</v>
       </c>
       <c r="C22" s="58" t="s">
@@ -12428,7 +12431,7 @@
         <v>44750</v>
       </c>
       <c r="G22" s="58">
-        <f t="shared" si="8"/>
+        <f>F22-E22</f>
         <v>2</v>
       </c>
       <c r="H22" s="59">
@@ -12438,7 +12441,7 @@
         <v>44750</v>
       </c>
       <c r="J22" s="60">
-        <f t="shared" si="9"/>
+        <f>I22-H22</f>
         <v>2</v>
       </c>
       <c r="K22" s="61">
@@ -12448,7 +12451,7 @@
     <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>15</v>
       </c>
       <c r="C23" s="58" t="s">
@@ -12464,7 +12467,7 @@
         <v>44751</v>
       </c>
       <c r="G23" s="58">
-        <f t="shared" si="8"/>
+        <f>F23-E23</f>
         <v>1</v>
       </c>
       <c r="H23" s="59">
@@ -12474,7 +12477,7 @@
         <v>44750</v>
       </c>
       <c r="J23" s="60">
-        <f t="shared" si="9"/>
+        <f>I23-H23</f>
         <v>1</v>
       </c>
       <c r="K23" s="61">
@@ -12484,7 +12487,7 @@
     <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>16</v>
       </c>
       <c r="C24" s="58" t="s">
@@ -12500,7 +12503,7 @@
         <v>44750</v>
       </c>
       <c r="G24" s="58">
-        <f t="shared" si="8"/>
+        <f>F24-E24</f>
         <v>3</v>
       </c>
       <c r="H24" s="59">
@@ -12510,7 +12513,7 @@
         <v>44749</v>
       </c>
       <c r="J24" s="60">
-        <f t="shared" si="9"/>
+        <f>I24-H24</f>
         <v>2</v>
       </c>
       <c r="K24" s="61">
@@ -12520,7 +12523,7 @@
     <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
       <c r="B25" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>17</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -12536,7 +12539,7 @@
         <v>44751</v>
       </c>
       <c r="G25" s="58">
-        <f t="shared" si="8"/>
+        <f>F25-E25</f>
         <v>1</v>
       </c>
       <c r="H25" s="59">
@@ -12546,7 +12549,7 @@
         <v>44750</v>
       </c>
       <c r="J25" s="60">
-        <f t="shared" si="9"/>
+        <f>I25-H25</f>
         <v>1</v>
       </c>
       <c r="K25" s="61">
@@ -12556,34 +12559,34 @@
     <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
       <c r="B26" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>18</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E26" s="59">
+        <v>44748</v>
+      </c>
+      <c r="F26" s="59">
         <v>44749</v>
       </c>
-      <c r="F26" s="59">
-        <v>44750</v>
-      </c>
       <c r="G26" s="58">
-        <f t="shared" si="8"/>
+        <f>F26-E26</f>
         <v>1</v>
       </c>
       <c r="H26" s="59">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="I26" s="59">
-        <v>44750</v>
+        <v>44748</v>
       </c>
       <c r="J26" s="60">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>I26-H26</f>
+        <v>0</v>
       </c>
       <c r="K26" s="61">
         <v>0.9</v>
@@ -12592,33 +12595,33 @@
     <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
       <c r="B27" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>19</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E27" s="59">
+        <v>44749</v>
+      </c>
+      <c r="F27" s="59">
         <v>44750</v>
       </c>
-      <c r="F27" s="59">
-        <v>44751</v>
-      </c>
       <c r="G27" s="58">
-        <f t="shared" si="8"/>
+        <f>F27-E27</f>
         <v>1</v>
       </c>
       <c r="H27" s="59">
+        <v>44749</v>
+      </c>
+      <c r="I27" s="59">
         <v>44750</v>
       </c>
-      <c r="I27" s="59">
-        <v>44751</v>
-      </c>
       <c r="J27" s="60">
-        <f t="shared" si="9"/>
+        <f>I27-H27</f>
         <v>1</v>
       </c>
       <c r="K27" s="61">
@@ -12628,23 +12631,23 @@
     <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>20</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E28" s="59">
+        <v>44750</v>
+      </c>
+      <c r="F28" s="59">
         <v>44751</v>
       </c>
-      <c r="F28" s="59">
-        <v>44752</v>
-      </c>
       <c r="G28" s="58">
-        <f t="shared" si="8"/>
+        <f>F28-E28</f>
         <v>1</v>
       </c>
       <c r="H28" s="59">
@@ -12654,7 +12657,7 @@
         <v>44751</v>
       </c>
       <c r="J28" s="60">
-        <f t="shared" si="9"/>
+        <f>I28-H28</f>
         <v>1</v>
       </c>
       <c r="K28" s="61">
@@ -12664,7 +12667,7 @@
     <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>21</v>
       </c>
       <c r="C29" s="58" t="s">
@@ -12680,7 +12683,7 @@
         <v>44752</v>
       </c>
       <c r="G29" s="58">
-        <f t="shared" si="8"/>
+        <f>F29-E29</f>
         <v>1</v>
       </c>
       <c r="H29" s="59">
@@ -12690,7 +12693,7 @@
         <v>44752</v>
       </c>
       <c r="J29" s="60">
-        <f t="shared" si="9"/>
+        <f>I29-H29</f>
         <v>1</v>
       </c>
       <c r="K29" s="61">
@@ -12700,7 +12703,7 @@
     <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>22</v>
       </c>
       <c r="C30" s="58" t="s">
@@ -12716,7 +12719,7 @@
         <v>44752</v>
       </c>
       <c r="G30" s="58">
-        <f t="shared" si="8"/>
+        <f>F30-E30</f>
         <v>1</v>
       </c>
       <c r="H30" s="59">
@@ -12726,7 +12729,7 @@
         <v>44749</v>
       </c>
       <c r="J30" s="60">
-        <f t="shared" si="9"/>
+        <f>I30-H30</f>
         <v>1</v>
       </c>
       <c r="K30" s="61">
@@ -12736,7 +12739,7 @@
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>23</v>
       </c>
       <c r="C31" s="58" t="s">
@@ -12752,7 +12755,7 @@
         <v>44752</v>
       </c>
       <c r="G31" s="58">
-        <f t="shared" si="8"/>
+        <f>F31-E31</f>
         <v>1</v>
       </c>
       <c r="H31" s="59">
@@ -12762,7 +12765,7 @@
         <v>44748</v>
       </c>
       <c r="J31" s="60">
-        <f t="shared" si="9"/>
+        <f>I31-H31</f>
         <v>2</v>
       </c>
       <c r="K31" s="61">
@@ -12772,7 +12775,7 @@
     <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="109">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>24</v>
       </c>
       <c r="C32" s="58" t="s">
@@ -12788,7 +12791,7 @@
         <v>44752</v>
       </c>
       <c r="G32" s="58">
-        <f t="shared" si="8"/>
+        <f>F32-E32</f>
         <v>1</v>
       </c>
       <c r="H32" s="59">
@@ -12798,7 +12801,7 @@
         <v>44752</v>
       </c>
       <c r="J32" s="60">
-        <f t="shared" si="9"/>
+        <f>I32-H32</f>
         <v>1</v>
       </c>
       <c r="K32" s="61">
@@ -12808,7 +12811,7 @@
     <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>25</v>
       </c>
       <c r="C33" s="58" t="s">
@@ -12824,7 +12827,7 @@
         <v>44750</v>
       </c>
       <c r="G33" s="58">
-        <f t="shared" si="8"/>
+        <f>F33-E33</f>
         <v>1</v>
       </c>
       <c r="H33" s="59">
@@ -12834,7 +12837,7 @@
         <v>44750</v>
       </c>
       <c r="J33" s="60">
-        <f t="shared" si="9"/>
+        <f>I33-H33</f>
         <v>1</v>
       </c>
       <c r="K33" s="61">
@@ -12843,35 +12846,35 @@
     </row>
     <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="112">
-        <f t="shared" si="7"/>
+      <c r="B34" s="109">
+        <f>ROW()-8</f>
         <v>26</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="D34" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E34" s="59">
-        <v>44748</v>
+        <v>44751</v>
       </c>
       <c r="F34" s="59">
-        <v>44749</v>
+        <v>44752</v>
       </c>
       <c r="G34" s="58">
-        <f t="shared" si="8"/>
+        <f>F34-E34</f>
         <v>1</v>
       </c>
       <c r="H34" s="59">
-        <v>44748</v>
+        <v>44750</v>
       </c>
       <c r="I34" s="59">
-        <v>44748</v>
+        <v>44751</v>
       </c>
       <c r="J34" s="60">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>I34-H34</f>
+        <v>1</v>
       </c>
       <c r="K34" s="61">
         <v>0.9</v>
@@ -12880,7 +12883,7 @@
     <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
       <c r="B35" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>27</v>
       </c>
       <c r="C35" s="58" t="s">
@@ -12896,7 +12899,7 @@
         <v>44750</v>
       </c>
       <c r="G35" s="58">
-        <f t="shared" si="8"/>
+        <f>F35-E35</f>
         <v>1</v>
       </c>
       <c r="H35" s="59">
@@ -12906,7 +12909,7 @@
         <v>44750</v>
       </c>
       <c r="J35" s="60">
-        <f t="shared" si="9"/>
+        <f>I35-H35</f>
         <v>1</v>
       </c>
       <c r="K35" s="61">
@@ -12916,7 +12919,7 @@
     <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
       <c r="B36" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>28</v>
       </c>
       <c r="C36" s="58" t="s">
@@ -12932,7 +12935,7 @@
         <v>44751</v>
       </c>
       <c r="G36" s="58">
-        <f t="shared" si="8"/>
+        <f>F36-E36</f>
         <v>1</v>
       </c>
       <c r="H36" s="59">
@@ -12942,7 +12945,7 @@
         <v>44751</v>
       </c>
       <c r="J36" s="60">
-        <f t="shared" si="9"/>
+        <f>I36-H36</f>
         <v>1</v>
       </c>
       <c r="K36" s="61">
@@ -12952,7 +12955,7 @@
     <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
       <c r="B37" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>29</v>
       </c>
       <c r="C37" s="58" t="s">
@@ -12968,7 +12971,7 @@
         <v>44751</v>
       </c>
       <c r="G37" s="58">
-        <f t="shared" si="8"/>
+        <f>F37-E37</f>
         <v>1</v>
       </c>
       <c r="H37" s="59">
@@ -12978,7 +12981,7 @@
         <v>44751</v>
       </c>
       <c r="J37" s="60">
-        <f t="shared" si="9"/>
+        <f>I37-H37</f>
         <v>3</v>
       </c>
       <c r="K37" s="61">
@@ -12988,7 +12991,7 @@
     <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
       <c r="B38" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>30</v>
       </c>
       <c r="C38" s="58" t="s">
@@ -13004,7 +13007,7 @@
         <v>44752</v>
       </c>
       <c r="G38" s="58">
-        <f t="shared" si="8"/>
+        <f>F38-E38</f>
         <v>1</v>
       </c>
       <c r="H38" s="59">
@@ -13014,7 +13017,7 @@
         <v>44752</v>
       </c>
       <c r="J38" s="60">
-        <f t="shared" si="9"/>
+        <f>I38-H38</f>
         <v>1</v>
       </c>
       <c r="K38" s="61">
@@ -13024,7 +13027,7 @@
     <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
       <c r="B39" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>31</v>
       </c>
       <c r="C39" s="58" t="s">
@@ -13040,7 +13043,7 @@
         <v>44752</v>
       </c>
       <c r="G39" s="58">
-        <f t="shared" si="8"/>
+        <f>F39-E39</f>
         <v>1</v>
       </c>
       <c r="H39" s="59">
@@ -13050,7 +13053,7 @@
         <v>44752</v>
       </c>
       <c r="J39" s="60">
-        <f t="shared" si="9"/>
+        <f>I39-H39</f>
         <v>1</v>
       </c>
       <c r="K39" s="61">
@@ -13060,7 +13063,7 @@
     <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
       <c r="B40" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>32</v>
       </c>
       <c r="C40" s="58" t="s">
@@ -13076,7 +13079,7 @@
         <v>44752</v>
       </c>
       <c r="G40" s="58">
-        <f t="shared" si="8"/>
+        <f>F40-E40</f>
         <v>1</v>
       </c>
       <c r="H40" s="59">
@@ -13086,7 +13089,7 @@
         <v>44752</v>
       </c>
       <c r="J40" s="60">
-        <f t="shared" si="9"/>
+        <f>I40-H40</f>
         <v>1</v>
       </c>
       <c r="K40" s="61">
@@ -13096,34 +13099,34 @@
     <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
       <c r="B41" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>33</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E41" s="59">
-        <v>44752</v>
+        <v>44748</v>
       </c>
       <c r="F41" s="59">
-        <v>44753</v>
+        <v>44749</v>
       </c>
       <c r="G41" s="58">
-        <f t="shared" si="8"/>
+        <f>F41-E41</f>
         <v>1</v>
       </c>
       <c r="H41" s="59">
-        <v>44752</v>
+        <v>44748</v>
       </c>
       <c r="I41" s="59">
-        <v>44753</v>
+        <v>44748</v>
       </c>
       <c r="J41" s="60">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>I41-H41</f>
+        <v>0</v>
       </c>
       <c r="K41" s="61">
         <v>0.9</v>
@@ -13132,11 +13135,11 @@
     <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
       <c r="B42" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>34</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D42" s="59" t="s">
         <v>132</v>
@@ -13148,7 +13151,7 @@
         <v>44753</v>
       </c>
       <c r="G42" s="58">
-        <f t="shared" si="8"/>
+        <f>F42-E42</f>
         <v>1</v>
       </c>
       <c r="H42" s="59">
@@ -13158,7 +13161,7 @@
         <v>44753</v>
       </c>
       <c r="J42" s="60">
-        <f t="shared" si="9"/>
+        <f>I42-H42</f>
         <v>1</v>
       </c>
       <c r="K42" s="61">
@@ -13168,7 +13171,7 @@
     <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>35</v>
       </c>
       <c r="C43" s="58" t="s">
@@ -13184,7 +13187,7 @@
         <v>44753</v>
       </c>
       <c r="G43" s="58">
-        <f t="shared" si="8"/>
+        <f>F43-E43</f>
         <v>1</v>
       </c>
       <c r="H43" s="59">
@@ -13194,7 +13197,7 @@
         <v>44753</v>
       </c>
       <c r="J43" s="60">
-        <f t="shared" si="9"/>
+        <f>I43-H43</f>
         <v>1</v>
       </c>
       <c r="K43" s="61">
@@ -13204,33 +13207,33 @@
     <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
       <c r="B44" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>36</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D44" s="59" t="s">
         <v>132</v>
       </c>
       <c r="E44" s="59">
+        <v>44752</v>
+      </c>
+      <c r="F44" s="59">
         <v>44753</v>
       </c>
-      <c r="F44" s="59">
-        <v>44754</v>
-      </c>
       <c r="G44" s="58">
-        <f t="shared" si="8"/>
+        <f>F44-E44</f>
         <v>1</v>
       </c>
       <c r="H44" s="59">
+        <v>44752</v>
+      </c>
+      <c r="I44" s="59">
         <v>44753</v>
       </c>
-      <c r="I44" s="59">
-        <v>44754</v>
-      </c>
       <c r="J44" s="60">
-        <f t="shared" si="9"/>
+        <f>I44-H44</f>
         <v>1</v>
       </c>
       <c r="K44" s="61">
@@ -13240,11 +13243,11 @@
     <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
       <c r="B45" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>37</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D45" s="59" t="s">
         <v>132</v>
@@ -13256,7 +13259,7 @@
         <v>44754</v>
       </c>
       <c r="G45" s="58">
-        <f t="shared" si="8"/>
+        <f>F45-E45</f>
         <v>1</v>
       </c>
       <c r="H45" s="59">
@@ -13266,7 +13269,7 @@
         <v>44754</v>
       </c>
       <c r="J45" s="60">
-        <f t="shared" si="9"/>
+        <f>I45-H45</f>
         <v>1</v>
       </c>
       <c r="K45" s="61">
@@ -13276,7 +13279,7 @@
     <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
       <c r="B46" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>38</v>
       </c>
       <c r="C46" s="58" t="s">
@@ -13292,7 +13295,7 @@
         <v>44751</v>
       </c>
       <c r="G46" s="58">
-        <f t="shared" si="8"/>
+        <f>F46-E46</f>
         <v>1</v>
       </c>
       <c r="H46" s="59">
@@ -13302,7 +13305,7 @@
         <v>44751</v>
       </c>
       <c r="J46" s="60">
-        <f t="shared" si="9"/>
+        <f>I46-H46</f>
         <v>1</v>
       </c>
       <c r="K46" s="61">
@@ -13312,7 +13315,7 @@
     <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
       <c r="B47" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>39</v>
       </c>
       <c r="C47" s="58" t="s">
@@ -13328,7 +13331,7 @@
         <v>44752</v>
       </c>
       <c r="G47" s="58">
-        <f t="shared" si="8"/>
+        <f>F47-E47</f>
         <v>1</v>
       </c>
       <c r="H47" s="59">
@@ -13338,7 +13341,7 @@
         <v>44751</v>
       </c>
       <c r="J47" s="60">
-        <f t="shared" si="9"/>
+        <f>I47-H47</f>
         <v>1</v>
       </c>
       <c r="K47" s="61">
@@ -13351,7 +13354,7 @@
     <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
       <c r="B48" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>40</v>
       </c>
       <c r="C48" s="58" t="s">
@@ -13367,7 +13370,7 @@
         <v>44752</v>
       </c>
       <c r="G48" s="58">
-        <f t="shared" ref="G48:G79" si="10">F48-E48</f>
+        <f>F48-E48</f>
         <v>1</v>
       </c>
       <c r="H48" s="59">
@@ -13377,7 +13380,7 @@
         <v>44752</v>
       </c>
       <c r="J48" s="60">
-        <f t="shared" ref="J48:J79" si="11">I48-H48</f>
+        <f>I48-H48</f>
         <v>1</v>
       </c>
       <c r="K48" s="61">
@@ -13387,7 +13390,7 @@
     <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>41</v>
       </c>
       <c r="C49" s="58" t="s">
@@ -13403,7 +13406,7 @@
         <v>44752</v>
       </c>
       <c r="G49" s="58">
-        <f t="shared" si="10"/>
+        <f>F49-E49</f>
         <v>1</v>
       </c>
       <c r="H49" s="59">
@@ -13413,7 +13416,7 @@
         <v>44752</v>
       </c>
       <c r="J49" s="60">
-        <f t="shared" si="11"/>
+        <f>I49-H49</f>
         <v>1</v>
       </c>
       <c r="K49" s="61">
@@ -13423,11 +13426,11 @@
     <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>42</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D50" s="59" t="s">
         <v>132</v>
@@ -13439,7 +13442,7 @@
         <v>44754</v>
       </c>
       <c r="G50" s="58">
-        <f t="shared" si="10"/>
+        <f>F50-E50</f>
         <v>1</v>
       </c>
       <c r="H50" s="59">
@@ -13449,7 +13452,7 @@
         <v>44754</v>
       </c>
       <c r="J50" s="60">
-        <f t="shared" si="11"/>
+        <f>I50-H50</f>
         <v>1</v>
       </c>
       <c r="K50" s="61">
@@ -13459,11 +13462,11 @@
     <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>43</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D51" s="59" t="s">
         <v>132</v>
@@ -13475,7 +13478,7 @@
         <v>44754</v>
       </c>
       <c r="G51" s="58">
-        <f t="shared" si="10"/>
+        <f>F51-E51</f>
         <v>1</v>
       </c>
       <c r="H51" s="59">
@@ -13485,7 +13488,7 @@
         <v>44754</v>
       </c>
       <c r="J51" s="60">
-        <f t="shared" si="11"/>
+        <f>I51-H51</f>
         <v>1</v>
       </c>
       <c r="K51" s="61">
@@ -13495,7 +13498,7 @@
     <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
       <c r="B52" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>44</v>
       </c>
       <c r="C52" s="58" t="s">
@@ -13511,7 +13514,7 @@
         <v>44754</v>
       </c>
       <c r="G52" s="58">
-        <f t="shared" si="10"/>
+        <f>F52-E52</f>
         <v>1</v>
       </c>
       <c r="H52" s="59">
@@ -13521,7 +13524,7 @@
         <v>44754</v>
       </c>
       <c r="J52" s="60">
-        <f t="shared" si="11"/>
+        <f>I52-H52</f>
         <v>1</v>
       </c>
       <c r="K52" s="61">
@@ -13531,7 +13534,7 @@
     <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
       <c r="B53" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>45</v>
       </c>
       <c r="C53" s="58" t="s">
@@ -13547,7 +13550,7 @@
         <v>44754</v>
       </c>
       <c r="G53" s="58">
-        <f t="shared" si="10"/>
+        <f>F53-E53</f>
         <v>1</v>
       </c>
       <c r="H53" s="59">
@@ -13557,7 +13560,7 @@
         <v>44754</v>
       </c>
       <c r="J53" s="60">
-        <f t="shared" si="11"/>
+        <f>I53-H53</f>
         <v>1</v>
       </c>
       <c r="K53" s="61">
@@ -13567,7 +13570,7 @@
     <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>46</v>
       </c>
       <c r="C54" s="58" t="s">
@@ -13583,7 +13586,7 @@
         <v>44754</v>
       </c>
       <c r="G54" s="58">
-        <f t="shared" si="10"/>
+        <f>F54-E54</f>
         <v>1</v>
       </c>
       <c r="H54" s="59">
@@ -13593,7 +13596,7 @@
         <v>44754</v>
       </c>
       <c r="J54" s="60">
-        <f t="shared" si="11"/>
+        <f>I54-H54</f>
         <v>1</v>
       </c>
       <c r="K54" s="61">
@@ -13603,7 +13606,7 @@
     <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
       <c r="B55" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>47</v>
       </c>
       <c r="C55" s="58" t="s">
@@ -13619,7 +13622,7 @@
         <v>44753</v>
       </c>
       <c r="G55" s="58">
-        <f t="shared" si="10"/>
+        <f>F55-E55</f>
         <v>1</v>
       </c>
       <c r="H55" s="59">
@@ -13629,7 +13632,7 @@
         <v>44754</v>
       </c>
       <c r="J55" s="60">
-        <f t="shared" si="11"/>
+        <f>I55-H55</f>
         <v>1</v>
       </c>
       <c r="K55" s="61">
@@ -13639,7 +13642,7 @@
     <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
       <c r="B56" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>48</v>
       </c>
       <c r="C56" s="58" t="s">
@@ -13655,7 +13658,7 @@
         <v>44753</v>
       </c>
       <c r="G56" s="58">
-        <f t="shared" si="10"/>
+        <f>F56-E56</f>
         <v>1</v>
       </c>
       <c r="H56" s="59">
@@ -13665,7 +13668,7 @@
         <v>44753</v>
       </c>
       <c r="J56" s="60">
-        <f t="shared" si="11"/>
+        <f>I56-H56</f>
         <v>1</v>
       </c>
       <c r="K56" s="61">
@@ -13675,7 +13678,7 @@
     <row r="57" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
       <c r="B57" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>49</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -13691,7 +13694,7 @@
         <v>44754</v>
       </c>
       <c r="G57" s="58">
-        <f t="shared" si="10"/>
+        <f>F57-E57</f>
         <v>1</v>
       </c>
       <c r="H57" s="59">
@@ -13701,7 +13704,7 @@
         <v>44754</v>
       </c>
       <c r="J57" s="60">
-        <f t="shared" si="11"/>
+        <f>I57-H57</f>
         <v>1</v>
       </c>
       <c r="K57" s="61">
@@ -13711,7 +13714,7 @@
     <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
       <c r="B58" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>50</v>
       </c>
       <c r="C58" s="58" t="s">
@@ -13727,7 +13730,7 @@
         <v>44754</v>
       </c>
       <c r="G58" s="58">
-        <f t="shared" si="10"/>
+        <f>F58-E58</f>
         <v>1</v>
       </c>
       <c r="H58" s="59">
@@ -13737,7 +13740,7 @@
         <v>44754</v>
       </c>
       <c r="J58" s="60">
-        <f t="shared" si="11"/>
+        <f>I58-H58</f>
         <v>1</v>
       </c>
       <c r="K58" s="61">
@@ -13747,7 +13750,7 @@
     <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
       <c r="B59" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>51</v>
       </c>
       <c r="C59" s="58" t="s">
@@ -13763,7 +13766,7 @@
         <v>44755</v>
       </c>
       <c r="G59" s="58">
-        <f t="shared" si="10"/>
+        <f>F59-E59</f>
         <v>1</v>
       </c>
       <c r="H59" s="59">
@@ -13773,7 +13776,7 @@
         <v>44755</v>
       </c>
       <c r="J59" s="60">
-        <f t="shared" si="11"/>
+        <f>I59-H59</f>
         <v>1</v>
       </c>
       <c r="K59" s="61">
@@ -13783,7 +13786,7 @@
     <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="56"/>
       <c r="B60" s="112">
-        <f t="shared" si="7"/>
+        <f>ROW()-8</f>
         <v>52</v>
       </c>
       <c r="C60" s="58" t="s">
@@ -13799,7 +13802,7 @@
         <v>44753</v>
       </c>
       <c r="G60" s="58">
-        <f t="shared" si="10"/>
+        <f>F60-E60</f>
         <v>1</v>
       </c>
       <c r="H60" s="59">
@@ -13809,7 +13812,7 @@
         <v>44753</v>
       </c>
       <c r="J60" s="60">
-        <f t="shared" si="11"/>
+        <f>I60-H60</f>
         <v>1</v>
       </c>
       <c r="K60" s="61">
@@ -13832,7 +13835,7 @@
         <v>44753</v>
       </c>
       <c r="G61" s="58">
-        <f t="shared" si="10"/>
+        <f>F61-E61</f>
         <v>5</v>
       </c>
       <c r="H61" s="59">
@@ -13842,7 +13845,7 @@
         <v>44759</v>
       </c>
       <c r="J61" s="60">
-        <f t="shared" si="11"/>
+        <f>I61-H61</f>
         <v>2</v>
       </c>
       <c r="K61" s="61">
@@ -13865,18 +13868,18 @@
         <v>44770</v>
       </c>
       <c r="G62" s="58">
-        <f t="shared" si="10"/>
+        <f>F62-E62</f>
         <v>13</v>
       </c>
       <c r="H62" s="59"/>
       <c r="I62" s="59"/>
       <c r="J62" s="60">
-        <f t="shared" si="11"/>
+        <f>I62-H62</f>
         <v>0</v>
       </c>
       <c r="K62" s="107">
         <f>AVERAGE(K63:K115)</f>
-        <v>0.4971698113207545</v>
+        <v>0.51415094339622625</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -13897,13 +13900,13 @@
         <v>44770</v>
       </c>
       <c r="G63" s="58">
-        <f t="shared" si="10"/>
+        <f>F63-E63</f>
         <v>13</v>
       </c>
       <c r="H63" s="59"/>
       <c r="I63" s="59"/>
       <c r="J63" s="60">
-        <f t="shared" si="11"/>
+        <f>I63-H63</f>
         <v>0</v>
       </c>
       <c r="K63" s="61">
@@ -13931,13 +13934,13 @@
         <v>44770</v>
       </c>
       <c r="G64" s="58">
-        <f t="shared" si="10"/>
+        <f>F64-E64</f>
         <v>13</v>
       </c>
       <c r="H64" s="59"/>
       <c r="I64" s="59"/>
       <c r="J64" s="60">
-        <f t="shared" si="11"/>
+        <f>I64-H64</f>
         <v>0</v>
       </c>
       <c r="K64" s="61">
@@ -13965,7 +13968,7 @@
         <v>44770</v>
       </c>
       <c r="G65" s="58">
-        <f t="shared" si="10"/>
+        <f>F65-E65</f>
         <v>13</v>
       </c>
       <c r="H65" s="59">
@@ -13975,7 +13978,7 @@
         <v>44761</v>
       </c>
       <c r="J65" s="60">
-        <f t="shared" si="11"/>
+        <f>I65-H65</f>
         <v>1</v>
       </c>
       <c r="K65" s="61">
@@ -14003,7 +14006,7 @@
         <v>44770</v>
       </c>
       <c r="G66" s="58">
-        <f t="shared" si="10"/>
+        <f>F66-E66</f>
         <v>13</v>
       </c>
       <c r="H66" s="59">
@@ -14013,7 +14016,7 @@
         <v>44761</v>
       </c>
       <c r="J66" s="60">
-        <f t="shared" si="11"/>
+        <f>I66-H66</f>
         <v>1</v>
       </c>
       <c r="K66" s="61">
@@ -14025,33 +14028,38 @@
     </row>
     <row r="67" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
-      <c r="B67" s="109">
-        <v>5</v>
+      <c r="B67" s="112">
+        <f>ROW()-8</f>
+        <v>59</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D67" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="59" t="s">
         <v>132</v>
       </c>
       <c r="E67" s="59">
-        <v>44757</v>
+        <v>44753</v>
       </c>
       <c r="F67" s="59">
-        <v>44770</v>
+        <v>44754</v>
       </c>
       <c r="G67" s="58">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
+        <f>F67-E67</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="59">
+        <v>44753</v>
+      </c>
+      <c r="I67" s="59">
+        <v>44754</v>
+      </c>
       <c r="J67" s="60">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>I67-H67</f>
+        <v>1</v>
       </c>
       <c r="K67" s="61">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="L67">
         <v>1.5</v>
@@ -14075,13 +14083,13 @@
         <v>44770</v>
       </c>
       <c r="G68" s="58">
-        <f t="shared" si="10"/>
+        <f>F68-E68</f>
         <v>13</v>
       </c>
       <c r="H68" s="59"/>
       <c r="I68" s="59"/>
       <c r="J68" s="60">
-        <f t="shared" si="11"/>
+        <f>I68-H68</f>
         <v>0</v>
       </c>
       <c r="K68" s="61">
@@ -14109,13 +14117,13 @@
         <v>44770</v>
       </c>
       <c r="G69" s="58">
-        <f t="shared" si="10"/>
+        <f>F69-E69</f>
         <v>13</v>
       </c>
       <c r="H69" s="59"/>
       <c r="I69" s="106"/>
       <c r="J69" s="60">
-        <f t="shared" si="11"/>
+        <f>I69-H69</f>
         <v>0</v>
       </c>
       <c r="K69" s="61">
@@ -14143,13 +14151,13 @@
         <v>44770</v>
       </c>
       <c r="G70" s="58">
-        <f t="shared" si="10"/>
+        <f>F70-E70</f>
         <v>13</v>
       </c>
       <c r="H70" s="59"/>
       <c r="I70" s="59"/>
       <c r="J70" s="60">
-        <f t="shared" si="11"/>
+        <f>I70-H70</f>
         <v>0</v>
       </c>
       <c r="K70" s="61">
@@ -14174,13 +14182,13 @@
         <v>44770</v>
       </c>
       <c r="G71" s="58">
-        <f t="shared" si="10"/>
+        <f>F71-E71</f>
         <v>13</v>
       </c>
       <c r="H71" s="59"/>
       <c r="I71" s="59"/>
       <c r="J71" s="60">
-        <f t="shared" si="11"/>
+        <f>I71-H71</f>
         <v>0</v>
       </c>
       <c r="K71" s="61">
@@ -14205,13 +14213,13 @@
         <v>44770</v>
       </c>
       <c r="G72" s="58">
-        <f t="shared" si="10"/>
+        <f>F72-E72</f>
         <v>13</v>
       </c>
       <c r="H72" s="59"/>
       <c r="I72" s="59"/>
       <c r="J72" s="60">
-        <f t="shared" si="11"/>
+        <f>I72-H72</f>
         <v>0</v>
       </c>
       <c r="K72" s="61">
@@ -14236,13 +14244,13 @@
         <v>44770</v>
       </c>
       <c r="G73" s="58">
-        <f t="shared" si="10"/>
+        <f>F73-E73</f>
         <v>13</v>
       </c>
       <c r="H73" s="59"/>
       <c r="I73" s="59"/>
       <c r="J73" s="60">
-        <f t="shared" si="11"/>
+        <f>I73-H73</f>
         <v>0</v>
       </c>
       <c r="K73" s="61">
@@ -14267,13 +14275,13 @@
         <v>44770</v>
       </c>
       <c r="G74" s="58">
-        <f t="shared" si="10"/>
+        <f>F74-E74</f>
         <v>13</v>
       </c>
       <c r="H74" s="59"/>
       <c r="I74" s="59"/>
       <c r="J74" s="60">
-        <f t="shared" si="11"/>
+        <f>I74-H74</f>
         <v>0</v>
       </c>
       <c r="K74" s="61">
@@ -14301,13 +14309,13 @@
         <v>44770</v>
       </c>
       <c r="G75" s="58">
-        <f t="shared" si="10"/>
+        <f>F75-E75</f>
         <v>13</v>
       </c>
       <c r="H75" s="59"/>
       <c r="I75" s="105"/>
       <c r="J75" s="60">
-        <f t="shared" si="11"/>
+        <f>I75-H75</f>
         <v>0</v>
       </c>
       <c r="K75" s="61">
@@ -14335,13 +14343,13 @@
         <v>44770</v>
       </c>
       <c r="G76" s="58">
-        <f t="shared" si="10"/>
+        <f>F76-E76</f>
         <v>13</v>
       </c>
       <c r="H76" s="59"/>
       <c r="I76" s="59"/>
       <c r="J76" s="60">
-        <f t="shared" si="11"/>
+        <f>I76-H76</f>
         <v>0</v>
       </c>
       <c r="K76" s="61">
@@ -14366,13 +14374,13 @@
         <v>44770</v>
       </c>
       <c r="G77" s="58">
-        <f t="shared" si="10"/>
+        <f>F77-E77</f>
         <v>13</v>
       </c>
       <c r="H77" s="59"/>
       <c r="I77" s="59"/>
       <c r="J77" s="60">
-        <f t="shared" si="11"/>
+        <f>I77-H77</f>
         <v>0</v>
       </c>
       <c r="K77" s="61">
@@ -14400,13 +14408,13 @@
         <v>44770</v>
       </c>
       <c r="G78" s="58">
-        <f t="shared" si="10"/>
+        <f>F78-E78</f>
         <v>13</v>
       </c>
       <c r="H78" s="59"/>
       <c r="I78" s="59"/>
       <c r="J78" s="60">
-        <f t="shared" si="11"/>
+        <f>I78-H78</f>
         <v>0</v>
       </c>
       <c r="K78" s="61">
@@ -14434,13 +14442,13 @@
         <v>44770</v>
       </c>
       <c r="G79" s="58">
-        <f t="shared" si="10"/>
+        <f>F79-E79</f>
         <v>13</v>
       </c>
       <c r="H79" s="59"/>
       <c r="I79" s="59"/>
       <c r="J79" s="60">
-        <f t="shared" si="11"/>
+        <f>I79-H79</f>
         <v>0</v>
       </c>
       <c r="K79" s="61">
@@ -14453,12 +14461,12 @@
     <row r="80" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="56"/>
       <c r="B80" s="109">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C80" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D80" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E80" s="59">
@@ -14468,17 +14476,17 @@
         <v>44770</v>
       </c>
       <c r="G80" s="58">
-        <f t="shared" ref="G80:G111" si="12">F80-E80</f>
+        <f>F80-E80</f>
         <v>13</v>
       </c>
       <c r="H80" s="59"/>
       <c r="I80" s="59"/>
       <c r="J80" s="60">
-        <f t="shared" ref="J80:J111" si="13">I80-H80</f>
+        <f>I80-H80</f>
         <v>0</v>
       </c>
       <c r="K80" s="61">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L80">
         <v>1.5</v>
@@ -14486,32 +14494,32 @@
     </row>
     <row r="81" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="56"/>
-      <c r="B81" s="129">
-        <v>19</v>
-      </c>
-      <c r="C81" s="130" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="131" t="s">
+      <c r="B81" s="109">
+        <v>18</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="E81" s="132">
+      <c r="E81" s="59">
         <v>44757</v>
       </c>
-      <c r="F81" s="132">
+      <c r="F81" s="59">
         <v>44770</v>
       </c>
-      <c r="G81" s="130">
-        <f t="shared" si="12"/>
+      <c r="G81" s="58">
+        <f>F81-E81</f>
         <v>13</v>
       </c>
-      <c r="H81" s="132"/>
-      <c r="I81" s="132"/>
-      <c r="J81" s="133">
-        <f t="shared" si="13"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="60">
+        <f>I81-H81</f>
         <v>0</v>
       </c>
-      <c r="K81" s="134">
+      <c r="K81" s="61">
         <v>0.5</v>
       </c>
       <c r="L81" t="s">
@@ -14520,32 +14528,32 @@
     </row>
     <row r="82" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="56"/>
-      <c r="B82" s="109">
-        <v>20</v>
-      </c>
-      <c r="C82" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="105" t="s">
+      <c r="B82" s="129">
+        <v>19</v>
+      </c>
+      <c r="C82" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="59">
+      <c r="E82" s="132">
         <v>44757</v>
       </c>
-      <c r="F82" s="59">
+      <c r="F82" s="132">
         <v>44770</v>
       </c>
-      <c r="G82" s="58">
-        <f t="shared" si="12"/>
+      <c r="G82" s="130">
+        <f>F82-E82</f>
         <v>13</v>
       </c>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="60">
-        <f t="shared" si="13"/>
+      <c r="H82" s="132"/>
+      <c r="I82" s="132"/>
+      <c r="J82" s="133">
+        <f>I82-H82</f>
         <v>0</v>
       </c>
-      <c r="K82" s="61">
+      <c r="K82" s="134">
         <v>0.5</v>
       </c>
       <c r="L82">
@@ -14570,13 +14578,13 @@
         <v>44770</v>
       </c>
       <c r="G83" s="58">
-        <f t="shared" si="12"/>
+        <f>F83-E83</f>
         <v>13</v>
       </c>
       <c r="H83" s="59"/>
       <c r="I83" s="59"/>
       <c r="J83" s="60">
-        <f t="shared" si="13"/>
+        <f>I83-H83</f>
         <v>0</v>
       </c>
       <c r="K83" s="61">
@@ -14604,13 +14612,13 @@
         <v>44770</v>
       </c>
       <c r="G84" s="58">
-        <f t="shared" si="12"/>
+        <f>F84-E84</f>
         <v>13</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
       <c r="J84" s="60">
-        <f t="shared" si="13"/>
+        <f>I84-H84</f>
         <v>0</v>
       </c>
       <c r="K84" s="61">
@@ -14638,13 +14646,13 @@
         <v>44770</v>
       </c>
       <c r="G85" s="58">
-        <f t="shared" si="12"/>
+        <f>F85-E85</f>
         <v>13</v>
       </c>
       <c r="H85" s="59"/>
       <c r="I85" s="59"/>
       <c r="J85" s="60">
-        <f t="shared" si="13"/>
+        <f>I85-H85</f>
         <v>0</v>
       </c>
       <c r="K85" s="61">
@@ -14672,13 +14680,13 @@
         <v>44770</v>
       </c>
       <c r="G86" s="58">
-        <f t="shared" si="12"/>
+        <f>F86-E86</f>
         <v>13</v>
       </c>
       <c r="H86" s="59"/>
       <c r="I86" s="59"/>
       <c r="J86" s="60">
-        <f t="shared" si="13"/>
+        <f>I86-H86</f>
         <v>0</v>
       </c>
       <c r="K86" s="61">
@@ -14706,7 +14714,7 @@
         <v>44770</v>
       </c>
       <c r="G87" s="58">
-        <f t="shared" si="12"/>
+        <f>F87-E87</f>
         <v>13</v>
       </c>
       <c r="H87" s="59">
@@ -14716,7 +14724,7 @@
         <v>44761</v>
       </c>
       <c r="J87" s="60">
-        <f t="shared" si="13"/>
+        <f>I87-H87</f>
         <v>1</v>
       </c>
       <c r="K87" s="61">
@@ -14744,13 +14752,13 @@
         <v>44770</v>
       </c>
       <c r="G88" s="58">
-        <f t="shared" si="12"/>
+        <f>F88-E88</f>
         <v>13</v>
       </c>
       <c r="H88" s="59"/>
       <c r="I88" s="59"/>
       <c r="J88" s="60">
-        <f t="shared" si="13"/>
+        <f>I88-H88</f>
         <v>0</v>
       </c>
       <c r="K88" s="61">
@@ -14762,13 +14770,13 @@
     </row>
     <row r="89" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="56"/>
-      <c r="B89" s="112">
-        <v>27</v>
+      <c r="B89" s="109">
+        <v>20</v>
       </c>
       <c r="C89" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D89" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="105" t="s">
         <v>132</v>
       </c>
       <c r="E89" s="59">
@@ -14778,17 +14786,17 @@
         <v>44770</v>
       </c>
       <c r="G89" s="58">
-        <f t="shared" si="12"/>
+        <f>F89-E89</f>
         <v>13</v>
       </c>
       <c r="H89" s="59"/>
       <c r="I89" s="59"/>
       <c r="J89" s="60">
-        <f t="shared" si="13"/>
+        <f>I89-H89</f>
         <v>0</v>
       </c>
       <c r="K89" s="61">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -14812,13 +14820,13 @@
         <v>44770</v>
       </c>
       <c r="G90" s="58">
-        <f t="shared" si="12"/>
+        <f>F90-E90</f>
         <v>13</v>
       </c>
       <c r="H90" s="59"/>
       <c r="I90" s="59"/>
       <c r="J90" s="60">
-        <f t="shared" si="13"/>
+        <f>I90-H90</f>
         <v>0</v>
       </c>
       <c r="K90" s="61">
@@ -14846,13 +14854,13 @@
         <v>44770</v>
       </c>
       <c r="G91" s="58">
-        <f t="shared" si="12"/>
+        <f>F91-E91</f>
         <v>13</v>
       </c>
       <c r="H91" s="59"/>
       <c r="I91" s="59"/>
       <c r="J91" s="60">
-        <f t="shared" si="13"/>
+        <f>I91-H91</f>
         <v>0</v>
       </c>
       <c r="K91" s="61">
@@ -14880,13 +14888,13 @@
         <v>44770</v>
       </c>
       <c r="G92" s="58">
-        <f t="shared" si="12"/>
+        <f>F92-E92</f>
         <v>13</v>
       </c>
       <c r="H92" s="59"/>
       <c r="I92" s="59"/>
       <c r="J92" s="60">
-        <f t="shared" si="13"/>
+        <f>I92-H92</f>
         <v>0</v>
       </c>
       <c r="K92" s="61">
@@ -14911,13 +14919,13 @@
         <v>44770</v>
       </c>
       <c r="G93" s="58">
-        <f t="shared" si="12"/>
+        <f>F93-E93</f>
         <v>13</v>
       </c>
       <c r="H93" s="59"/>
       <c r="I93" s="59"/>
       <c r="J93" s="60">
-        <f t="shared" si="13"/>
+        <f>I93-H93</f>
         <v>0</v>
       </c>
       <c r="K93" s="61">
@@ -14942,13 +14950,13 @@
         <v>44770</v>
       </c>
       <c r="G94" s="58">
-        <f t="shared" si="12"/>
+        <f>F94-E94</f>
         <v>13</v>
       </c>
       <c r="H94" s="59"/>
       <c r="I94" s="59"/>
       <c r="J94" s="60">
-        <f t="shared" si="13"/>
+        <f>I94-H94</f>
         <v>0</v>
       </c>
       <c r="K94" s="61">
@@ -14973,13 +14981,13 @@
         <v>44770</v>
       </c>
       <c r="G95" s="58">
-        <f t="shared" si="12"/>
+        <f>F95-E95</f>
         <v>13</v>
       </c>
       <c r="H95" s="59"/>
       <c r="I95" s="59"/>
       <c r="J95" s="60">
-        <f t="shared" si="13"/>
+        <f>I95-H95</f>
         <v>0</v>
       </c>
       <c r="K95" s="61">
@@ -15007,13 +15015,13 @@
         <v>44770</v>
       </c>
       <c r="G96" s="58">
-        <f t="shared" si="12"/>
+        <f>F96-E96</f>
         <v>13</v>
       </c>
       <c r="H96" s="59"/>
       <c r="I96" s="59"/>
       <c r="J96" s="60">
-        <f t="shared" si="13"/>
+        <f>I96-H96</f>
         <v>0</v>
       </c>
       <c r="K96" s="61">
@@ -15041,13 +15049,13 @@
         <v>44770</v>
       </c>
       <c r="G97" s="58">
-        <f t="shared" si="12"/>
+        <f>F97-E97</f>
         <v>13</v>
       </c>
       <c r="H97" s="59"/>
       <c r="I97" s="59"/>
       <c r="J97" s="60">
-        <f t="shared" si="13"/>
+        <f>I97-H97</f>
         <v>0</v>
       </c>
       <c r="K97" s="61">
@@ -15060,12 +15068,12 @@
     <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="56"/>
       <c r="B98" s="112">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C98" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E98" s="59">
@@ -15075,17 +15083,17 @@
         <v>44770</v>
       </c>
       <c r="G98" s="58">
-        <f t="shared" si="12"/>
+        <f>F98-E98</f>
         <v>13</v>
       </c>
       <c r="H98" s="59"/>
       <c r="I98" s="59"/>
       <c r="J98" s="60">
-        <f t="shared" si="13"/>
+        <f>I98-H98</f>
         <v>0</v>
       </c>
       <c r="K98" s="61">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -15109,7 +15117,7 @@
         <v>44770</v>
       </c>
       <c r="G99" s="58">
-        <f t="shared" si="12"/>
+        <f>F99-E99</f>
         <v>13</v>
       </c>
       <c r="H99" s="59">
@@ -15119,7 +15127,7 @@
         <v>44761</v>
       </c>
       <c r="J99" s="60">
-        <f t="shared" si="13"/>
+        <f>I99-H99</f>
         <v>1</v>
       </c>
       <c r="K99" s="61">
@@ -15147,13 +15155,13 @@
         <v>44770</v>
       </c>
       <c r="G100" s="58">
-        <f t="shared" si="12"/>
+        <f>F100-E100</f>
         <v>13</v>
       </c>
       <c r="H100" s="59"/>
       <c r="I100" s="105"/>
       <c r="J100" s="60">
-        <f t="shared" si="13"/>
+        <f>I100-H100</f>
         <v>0</v>
       </c>
       <c r="K100" s="61">
@@ -15181,13 +15189,13 @@
         <v>44770</v>
       </c>
       <c r="G101" s="124">
-        <f t="shared" si="12"/>
+        <f>F101-E101</f>
         <v>13</v>
       </c>
       <c r="H101" s="125"/>
       <c r="I101" s="126"/>
       <c r="J101" s="127">
-        <f t="shared" si="13"/>
+        <f>I101-H101</f>
         <v>0</v>
       </c>
       <c r="K101" s="128">
@@ -15215,13 +15223,13 @@
         <v>44770</v>
       </c>
       <c r="G102" s="58">
-        <f t="shared" si="12"/>
+        <f>F102-E102</f>
         <v>13</v>
       </c>
       <c r="H102" s="59"/>
       <c r="I102" s="59"/>
       <c r="J102" s="60">
-        <f t="shared" si="13"/>
+        <f>I102-H102</f>
         <v>0</v>
       </c>
       <c r="K102" s="61">
@@ -15246,13 +15254,13 @@
         <v>44770</v>
       </c>
       <c r="G103" s="58">
-        <f t="shared" si="12"/>
+        <f>F103-E103</f>
         <v>13</v>
       </c>
       <c r="H103" s="59"/>
       <c r="I103" s="59"/>
       <c r="J103" s="60">
-        <f t="shared" si="13"/>
+        <f>I103-H103</f>
         <v>0</v>
       </c>
       <c r="K103" s="61">
@@ -15277,13 +15285,13 @@
         <v>44770</v>
       </c>
       <c r="G104" s="58">
-        <f t="shared" si="12"/>
+        <f>F104-E104</f>
         <v>13</v>
       </c>
       <c r="H104" s="59"/>
       <c r="I104" s="59"/>
       <c r="J104" s="60">
-        <f t="shared" si="13"/>
+        <f>I104-H104</f>
         <v>0</v>
       </c>
       <c r="K104" s="61">
@@ -15311,13 +15319,13 @@
         <v>44770</v>
       </c>
       <c r="G105" s="58">
-        <f t="shared" si="12"/>
+        <f>F105-E105</f>
         <v>13</v>
       </c>
       <c r="H105" s="59"/>
       <c r="I105" s="59"/>
       <c r="J105" s="60">
-        <f t="shared" si="13"/>
+        <f>I105-H105</f>
         <v>0</v>
       </c>
       <c r="K105" s="61">
@@ -15345,13 +15353,13 @@
         <v>44770</v>
       </c>
       <c r="G106" s="58">
-        <f t="shared" si="12"/>
+        <f>F106-E106</f>
         <v>13</v>
       </c>
       <c r="H106" s="59"/>
       <c r="I106" s="59"/>
       <c r="J106" s="60">
-        <f t="shared" si="13"/>
+        <f>I106-H106</f>
         <v>0</v>
       </c>
       <c r="K106" s="61">
@@ -15379,13 +15387,13 @@
         <v>44770</v>
       </c>
       <c r="G107" s="58">
-        <f t="shared" si="12"/>
+        <f>F107-E107</f>
         <v>13</v>
       </c>
       <c r="H107" s="59"/>
       <c r="I107" s="59"/>
       <c r="J107" s="60">
-        <f t="shared" si="13"/>
+        <f>I107-H107</f>
         <v>0</v>
       </c>
       <c r="K107" s="61">
@@ -15413,13 +15421,13 @@
         <v>44770</v>
       </c>
       <c r="G108" s="58">
-        <f t="shared" si="12"/>
+        <f>F108-E108</f>
         <v>13</v>
       </c>
       <c r="H108" s="59"/>
       <c r="I108" s="59"/>
       <c r="J108" s="60">
-        <f t="shared" si="13"/>
+        <f>I108-H108</f>
         <v>0</v>
       </c>
       <c r="K108" s="61">
@@ -15447,13 +15455,13 @@
         <v>44770</v>
       </c>
       <c r="G109" s="58">
-        <f t="shared" si="12"/>
+        <f>F109-E109</f>
         <v>13</v>
       </c>
       <c r="H109" s="59"/>
       <c r="I109" s="59"/>
       <c r="J109" s="60">
-        <f t="shared" si="13"/>
+        <f>I109-H109</f>
         <v>0</v>
       </c>
       <c r="K109" s="61">
@@ -15481,13 +15489,13 @@
         <v>44770</v>
       </c>
       <c r="G110" s="58">
-        <f t="shared" si="12"/>
+        <f>F110-E110</f>
         <v>13</v>
       </c>
       <c r="H110" s="59"/>
       <c r="I110" s="59"/>
       <c r="J110" s="60">
-        <f t="shared" si="13"/>
+        <f>I110-H110</f>
         <v>0</v>
       </c>
       <c r="K110" s="61">
@@ -15515,13 +15523,13 @@
         <v>44770</v>
       </c>
       <c r="G111" s="58">
-        <f t="shared" si="12"/>
+        <f>F111-E111</f>
         <v>13</v>
       </c>
       <c r="H111" s="59"/>
       <c r="I111" s="59"/>
       <c r="J111" s="60">
-        <f t="shared" si="13"/>
+        <f>I111-H111</f>
         <v>0</v>
       </c>
       <c r="K111" s="61">
@@ -15549,13 +15557,13 @@
         <v>44770</v>
       </c>
       <c r="G112" s="58">
-        <f t="shared" ref="G112:G143" si="14">F112-E112</f>
+        <f>F112-E112</f>
         <v>13</v>
       </c>
       <c r="H112" s="59"/>
       <c r="I112" s="59"/>
       <c r="J112" s="60">
-        <f t="shared" ref="J112:J143" si="15">I112-H112</f>
+        <f>I112-H112</f>
         <v>0</v>
       </c>
       <c r="K112" s="61">
@@ -15583,13 +15591,13 @@
         <v>44770</v>
       </c>
       <c r="G113" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G112:G114" si="5">F113-E113</f>
         <v>13</v>
       </c>
       <c r="H113" s="59"/>
       <c r="I113" s="59"/>
       <c r="J113" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J112:J114" si="6">I113-H113</f>
         <v>0</v>
       </c>
       <c r="K113" s="61">
@@ -15617,13 +15625,13 @@
         <v>44770</v>
       </c>
       <c r="G114" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="H114" s="59"/>
       <c r="I114" s="59"/>
       <c r="J114" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K114" s="61">
@@ -15645,7 +15653,7 @@
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
       <c r="G115" s="58">
-        <f t="shared" ref="G115:G116" si="16">F115-E115</f>
+        <f t="shared" ref="G115:G116" si="7">F115-E115</f>
         <v>0</v>
       </c>
       <c r="H115" s="59"/>
@@ -15670,7 +15678,7 @@
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
       <c r="G116" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H116" s="59"/>
@@ -15787,7 +15795,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:K119" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:K114">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:K112">
       <sortCondition descending="1" ref="D5:D119"/>
     </sortState>
   </autoFilter>
@@ -15806,7 +15814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DAE3C9-EE8B-FD48-B606-399295CAFE1D}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="E1" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A39" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -16394,7 +16402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477E38A7-57DB-294A-9E53-5A2AA165648E}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16753,7 +16763,7 @@
     <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16764,8 +16774,8 @@
   </sheetPr>
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16822,7 +16832,7 @@
       </c>
       <c r="P2" s="153">
         <f ca="1">NOW()</f>
-        <v>44769.489709606481</v>
+        <v>44784.665442129626</v>
       </c>
       <c r="Q2" s="154"/>
     </row>
@@ -17245,7 +17255,6 @@
       <c r="N22" s="69"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
-      <c r="Q22" s="117"/>
       <c r="R22" s="69"/>
       <c r="S22" s="69"/>
     </row>
@@ -18236,7 +18245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -18703,8 +18712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185544AF-FB57-2245-BC6B-CF7A87323523}">
   <dimension ref="D2:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
